--- a/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
+++ b/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
@@ -383,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115"/>
+    <sheetView topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -472,6 +472,9 @@
       <c r="K8">
         <v>163.53</v>
       </c>
+      <c r="L8">
+        <v>11.79</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
@@ -493,6 +496,9 @@
       <c r="K9">
         <v>0.69140000000000001</v>
       </c>
+      <c r="L9">
+        <v>0.68520000000000003</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
@@ -514,6 +520,9 @@
       <c r="K10">
         <v>0.15329999999999999</v>
       </c>
+      <c r="L10">
+        <v>0.1545</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
@@ -535,6 +544,9 @@
       <c r="K11">
         <v>0.30149999999999999</v>
       </c>
+      <c r="L11">
+        <v>0.30570000000000003</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
@@ -556,7 +568,9 @@
       <c r="K12" s="5">
         <v>0.346163</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>0.34885699999999997</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -584,7 +598,9 @@
       <c r="K13" s="5">
         <v>0.64073899999999995</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5">
+        <v>0.64963800000000005</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -612,6 +628,9 @@
       <c r="K14">
         <v>0.80800000000000005</v>
       </c>
+      <c r="L14">
+        <v>0.80400000000000005</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
@@ -633,6 +652,9 @@
       <c r="K15">
         <v>0.79600000000000004</v>
       </c>
+      <c r="L15">
+        <v>0.79200000000000004</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
@@ -654,6 +676,9 @@
       <c r="K16">
         <v>0.79200000000000004</v>
       </c>
+      <c r="L16">
+        <v>0.78800000000000003</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
@@ -675,6 +700,9 @@
       <c r="K17">
         <v>0.92100000000000004</v>
       </c>
+      <c r="L17">
+        <v>0.91700000000000004</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="6">
@@ -697,6 +725,9 @@
       </c>
       <c r="K18">
         <v>112.68</v>
+      </c>
+      <c r="L18">
+        <v>11.38</v>
       </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
@@ -719,6 +750,9 @@
       <c r="K19">
         <v>0.69399999999999995</v>
       </c>
+      <c r="L19">
+        <v>0.68779999999999997</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
@@ -740,6 +774,9 @@
       <c r="K20">
         <v>0.15210000000000001</v>
       </c>
+      <c r="L20">
+        <v>0.15359999999999999</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
@@ -761,6 +798,9 @@
       <c r="K21">
         <v>0.2999</v>
       </c>
+      <c r="L21">
+        <v>0.3044</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
@@ -782,7 +822,9 @@
       <c r="K22" s="5">
         <v>0.34286499999999998</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5">
+        <v>0.34627599999999997</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -810,7 +852,9 @@
       <c r="K23" s="5">
         <v>0.63666999999999996</v>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5">
+        <v>0.64622999999999997</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -838,6 +882,9 @@
       <c r="K24">
         <v>0.81299999999999994</v>
       </c>
+      <c r="L24">
+        <v>0.80800000000000005</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
@@ -859,6 +906,9 @@
       <c r="K25">
         <v>0.79700000000000004</v>
       </c>
+      <c r="L25">
+        <v>0.79300000000000004</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
@@ -880,6 +930,9 @@
       <c r="K26">
         <v>0.79300000000000004</v>
       </c>
+      <c r="L26">
+        <v>0.78900000000000003</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
@@ -901,6 +954,9 @@
       <c r="K27">
         <v>0.92300000000000004</v>
       </c>
+      <c r="L27">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
@@ -923,6 +979,9 @@
       </c>
       <c r="K28">
         <v>96.72</v>
+      </c>
+      <c r="L28">
+        <v>11.11</v>
       </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,6 +1004,9 @@
       <c r="K29">
         <v>0.68340000000000001</v>
       </c>
+      <c r="L29">
+        <v>0.67579999999999996</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
@@ -966,6 +1028,9 @@
       <c r="K30">
         <v>0.157</v>
       </c>
+      <c r="L30">
+        <v>0.1585</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
@@ -987,6 +1052,9 @@
       <c r="K31">
         <v>0.30420000000000003</v>
       </c>
+      <c r="L31">
+        <v>0.30869999999999997</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
@@ -1008,7 +1076,9 @@
       <c r="K32" s="5">
         <v>0.35419699999999998</v>
       </c>
-      <c r="L32" s="5"/>
+      <c r="L32" s="5">
+        <v>0.35755599999999998</v>
+      </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -1036,7 +1106,9 @@
       <c r="K33" s="5">
         <v>0.64631700000000003</v>
       </c>
-      <c r="L33" s="5"/>
+      <c r="L33" s="5">
+        <v>0.65567399999999998</v>
+      </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -1064,6 +1136,9 @@
       <c r="K34">
         <v>0.80700000000000005</v>
       </c>
+      <c r="L34">
+        <v>0.80200000000000005</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
@@ -1085,6 +1160,9 @@
       <c r="K35">
         <v>0.79</v>
       </c>
+      <c r="L35">
+        <v>0.78500000000000003</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="7"/>
@@ -1106,6 +1184,9 @@
       <c r="K36">
         <v>0.78600000000000003</v>
       </c>
+      <c r="L36">
+        <v>0.78100000000000003</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="7"/>
@@ -1127,6 +1208,9 @@
       <c r="K37">
         <v>0.91800000000000004</v>
       </c>
+      <c r="L37">
+        <v>0.91400000000000003</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="6">
@@ -1149,6 +1233,9 @@
       </c>
       <c r="K38">
         <v>83.33</v>
+      </c>
+      <c r="L38">
+        <v>11.5</v>
       </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,6 +1258,9 @@
       <c r="K39">
         <v>0.67789999999999995</v>
       </c>
+      <c r="L39">
+        <v>0.67030000000000001</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
@@ -1192,6 +1282,9 @@
       <c r="K40">
         <v>0.16070000000000001</v>
       </c>
+      <c r="L40">
+        <v>0.1618</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
@@ -1213,6 +1306,9 @@
       <c r="K41">
         <v>0.30659999999999998</v>
       </c>
+      <c r="L41">
+        <v>0.31080000000000002</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
@@ -1234,7 +1330,9 @@
       <c r="K42" s="5">
         <v>0.36380899999999999</v>
       </c>
-      <c r="L42" s="5"/>
+      <c r="L42" s="5">
+        <v>0.36629200000000001</v>
+      </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -1262,7 +1360,9 @@
       <c r="K43" s="5">
         <v>0.65251199999999998</v>
       </c>
-      <c r="L43" s="5"/>
+      <c r="L43" s="5">
+        <v>0.66151899999999997</v>
+      </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -1290,6 +1390,9 @@
       <c r="K44">
         <v>0.80300000000000005</v>
       </c>
+      <c r="L44">
+        <v>0.79700000000000004</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
@@ -1311,6 +1414,9 @@
       <c r="K45">
         <v>0.78700000000000003</v>
       </c>
+      <c r="L45">
+        <v>0.78200000000000003</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
@@ -1332,6 +1438,9 @@
       <c r="K46">
         <v>0.78400000000000003</v>
       </c>
+      <c r="L46">
+        <v>0.77800000000000002</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
@@ -1353,6 +1462,9 @@
       <c r="K47">
         <v>0.91400000000000003</v>
       </c>
+      <c r="L47">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="6">
@@ -1375,6 +1487,9 @@
       </c>
       <c r="K48">
         <v>75.25</v>
+      </c>
+      <c r="L48">
+        <v>9.51</v>
       </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1397,6 +1512,9 @@
       <c r="K49">
         <v>0.66180000000000005</v>
       </c>
+      <c r="L49">
+        <v>0.65369999999999995</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="7"/>
@@ -1418,6 +1536,9 @@
       <c r="K50">
         <v>0.16650000000000001</v>
       </c>
+      <c r="L50">
+        <v>0.16789999999999999</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="7"/>
@@ -1439,6 +1560,9 @@
       <c r="K51">
         <v>0.3115</v>
       </c>
+      <c r="L51">
+        <v>0.316</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" s="7"/>
@@ -1460,7 +1584,9 @@
       <c r="K52" s="5">
         <v>0.37878600000000001</v>
       </c>
-      <c r="L52" s="5"/>
+      <c r="L52" s="5">
+        <v>0.38212699999999999</v>
+      </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -1488,7 +1614,9 @@
       <c r="K53" s="5">
         <v>0.66447500000000004</v>
       </c>
-      <c r="L53" s="5"/>
+      <c r="L53" s="5">
+        <v>0.67403999999999997</v>
+      </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -1516,6 +1644,9 @@
       <c r="K54">
         <v>0.79300000000000004</v>
       </c>
+      <c r="L54">
+        <v>0.78800000000000003</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" s="7"/>
@@ -1537,6 +1668,9 @@
       <c r="K55">
         <v>0.77800000000000002</v>
       </c>
+      <c r="L55">
+        <v>0.77200000000000002</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" s="7"/>
@@ -1558,6 +1692,9 @@
       <c r="K56">
         <v>0.77400000000000002</v>
       </c>
+      <c r="L56">
+        <v>0.76800000000000002</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="7"/>
@@ -1579,6 +1716,9 @@
       <c r="K57">
         <v>0.90700000000000003</v>
       </c>
+      <c r="L57">
+        <v>0.90300000000000002</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
@@ -1601,6 +1741,9 @@
       </c>
       <c r="K58">
         <v>62.03</v>
+      </c>
+      <c r="L58">
+        <v>7.03</v>
       </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1623,6 +1766,9 @@
       <c r="K59">
         <v>0.65169999999999995</v>
       </c>
+      <c r="L59">
+        <v>0.64349999999999996</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E60" s="7"/>
@@ -1644,6 +1790,9 @@
       <c r="K60">
         <v>0.1714</v>
       </c>
+      <c r="L60">
+        <v>0.1731</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E61" s="7"/>
@@ -1665,6 +1814,9 @@
       <c r="K61">
         <v>0.3145</v>
       </c>
+      <c r="L61">
+        <v>0.31950000000000001</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E62" s="7"/>
@@ -1686,7 +1838,9 @@
       <c r="K62" s="5">
         <v>0.39316200000000001</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="L62" s="5">
+        <v>0.39685700000000002</v>
+      </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -1714,7 +1868,9 @@
       <c r="K63" s="5">
         <v>0.67357100000000003</v>
       </c>
-      <c r="L63" s="5"/>
+      <c r="L63" s="5">
+        <v>0.68422400000000005</v>
+      </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -1742,6 +1898,9 @@
       <c r="K64">
         <v>0.79100000000000004</v>
       </c>
+      <c r="L64">
+        <v>0.78400000000000003</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E65" s="7"/>
@@ -1763,6 +1922,9 @@
       <c r="K65">
         <v>0.77300000000000002</v>
       </c>
+      <c r="L65">
+        <v>0.76800000000000002</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E66" s="7"/>
@@ -1784,6 +1946,9 @@
       <c r="K66">
         <v>0.76800000000000002</v>
       </c>
+      <c r="L66">
+        <v>0.76300000000000001</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E67" s="7"/>
@@ -1805,6 +1970,9 @@
       <c r="K67">
         <v>0.9</v>
       </c>
+      <c r="L67">
+        <v>0.89400000000000002</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E68" s="6">
@@ -1827,6 +1995,9 @@
       </c>
       <c r="K68">
         <v>64.569999999999993</v>
+      </c>
+      <c r="L68">
+        <v>7.72</v>
       </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,6 +2020,9 @@
       <c r="K69">
         <v>0.64649999999999996</v>
       </c>
+      <c r="L69">
+        <v>0.63829999999999998</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E70" s="7"/>
@@ -1870,6 +2044,9 @@
       <c r="K70">
         <v>0.17430000000000001</v>
       </c>
+      <c r="L70">
+        <v>0.17580000000000001</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E71" s="7"/>
@@ -1891,6 +2068,9 @@
       <c r="K71">
         <v>0.31630000000000003</v>
       </c>
+      <c r="L71">
+        <v>0.3206</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E72" s="7"/>
@@ -1912,7 +2092,9 @@
       <c r="K72" s="5">
         <v>0.39833800000000003</v>
       </c>
-      <c r="L72" s="5"/>
+      <c r="L72" s="5">
+        <v>0.40192499999999998</v>
+      </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
@@ -1940,7 +2122,9 @@
       <c r="K73" s="5">
         <v>0.67631699999999995</v>
       </c>
-      <c r="L73" s="5"/>
+      <c r="L73" s="5">
+        <v>0.68554599999999999</v>
+      </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
@@ -1968,6 +2152,9 @@
       <c r="K74">
         <v>0.78500000000000003</v>
       </c>
+      <c r="L74">
+        <v>0.77900000000000003</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E75" s="7"/>
@@ -1989,6 +2176,9 @@
       <c r="K75">
         <v>0.76800000000000002</v>
       </c>
+      <c r="L75">
+        <v>0.76300000000000001</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E76" s="7"/>
@@ -2010,6 +2200,9 @@
       <c r="K76">
         <v>0.76400000000000001</v>
       </c>
+      <c r="L76">
+        <v>0.75900000000000001</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E77" s="7"/>
@@ -2031,6 +2224,9 @@
       <c r="K77">
         <v>0.89900000000000002</v>
       </c>
+      <c r="L77">
+        <v>0.89400000000000002</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
@@ -2053,6 +2249,9 @@
       </c>
       <c r="K78">
         <v>60.65</v>
+      </c>
+      <c r="L78">
+        <v>6.7</v>
       </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2075,6 +2274,9 @@
       <c r="K79">
         <v>0.63539999999999996</v>
       </c>
+      <c r="L79">
+        <v>0.62619999999999998</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E80" s="7"/>
@@ -2096,6 +2298,9 @@
       <c r="K80">
         <v>0.1777</v>
       </c>
+      <c r="L80">
+        <v>0.1794</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E81" s="7"/>
@@ -2117,6 +2322,9 @@
       <c r="K81">
         <v>0.32029999999999997</v>
       </c>
+      <c r="L81">
+        <v>0.32500000000000001</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E82" s="7"/>
@@ -2138,7 +2346,9 @@
       <c r="K82" s="5">
         <v>0.40837099999999998</v>
       </c>
-      <c r="L82" s="5"/>
+      <c r="L82" s="5">
+        <v>0.41227900000000001</v>
+      </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
@@ -2166,7 +2376,9 @@
       <c r="K83" s="5">
         <v>0.68663700000000005</v>
       </c>
-      <c r="L83" s="5"/>
+      <c r="L83" s="5">
+        <v>0.69672500000000004</v>
+      </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
@@ -2194,6 +2406,9 @@
       <c r="K84">
         <v>0.78200000000000003</v>
       </c>
+      <c r="L84">
+        <v>0.77600000000000002</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E85" s="7"/>
@@ -2215,6 +2430,9 @@
       <c r="K85">
         <v>0.76200000000000001</v>
       </c>
+      <c r="L85">
+        <v>0.75600000000000001</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E86" s="7"/>
@@ -2236,6 +2454,9 @@
       <c r="K86">
         <v>0.75800000000000001</v>
       </c>
+      <c r="L86">
+        <v>0.751</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E87" s="7"/>
@@ -2257,6 +2478,9 @@
       <c r="K87">
         <v>0.89300000000000002</v>
       </c>
+      <c r="L87">
+        <v>0.88800000000000001</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E88" s="6">
@@ -2279,6 +2503,9 @@
       </c>
       <c r="K88">
         <v>56.88</v>
+      </c>
+      <c r="L88">
+        <v>6.46</v>
       </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2301,6 +2528,9 @@
       <c r="K89">
         <v>0.63890000000000002</v>
       </c>
+      <c r="L89">
+        <v>0.62819999999999998</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E90" s="7"/>
@@ -2322,6 +2552,9 @@
       <c r="K90">
         <v>0.17829999999999999</v>
       </c>
+      <c r="L90">
+        <v>0.18010000000000001</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E91" s="7"/>
@@ -2343,6 +2576,9 @@
       <c r="K91">
         <v>0.31879999999999997</v>
       </c>
+      <c r="L91">
+        <v>0.32419999999999999</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E92" s="7"/>
@@ -2364,7 +2600,9 @@
       <c r="K92" s="5">
         <v>0.40848699999999999</v>
       </c>
-      <c r="L92" s="5"/>
+      <c r="L92" s="5">
+        <v>0.41276099999999999</v>
+      </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
@@ -2392,7 +2630,9 @@
       <c r="K93" s="5">
         <v>0.68245599999999995</v>
       </c>
-      <c r="L93" s="5"/>
+      <c r="L93" s="5">
+        <v>0.694021</v>
+      </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
@@ -2420,6 +2660,9 @@
       <c r="K94">
         <v>0.78100000000000003</v>
       </c>
+      <c r="L94">
+        <v>0.77400000000000002</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E95" s="7"/>
@@ -2441,6 +2684,9 @@
       <c r="K95">
         <v>0.76300000000000001</v>
       </c>
+      <c r="L95">
+        <v>0.75600000000000001</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E96" s="7"/>
@@ -2462,6 +2708,9 @@
       <c r="K96">
         <v>0.76</v>
       </c>
+      <c r="L96">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E97" s="7"/>
@@ -2483,6 +2732,9 @@
       <c r="K97">
         <v>0.89500000000000002</v>
       </c>
+      <c r="L97">
+        <v>0.88900000000000001</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E98" s="6">
@@ -2505,6 +2757,9 @@
       </c>
       <c r="K98">
         <v>63.53</v>
+      </c>
+      <c r="L98">
+        <v>7.53</v>
       </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2527,6 +2782,9 @@
       <c r="K99">
         <v>0.62980000000000003</v>
       </c>
+      <c r="L99">
+        <v>0.62109999999999999</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E100" s="7"/>
@@ -2548,6 +2806,9 @@
       <c r="K100">
         <v>0.1827</v>
       </c>
+      <c r="L100">
+        <v>0.1842</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E101" s="7"/>
@@ -2569,6 +2830,9 @@
       <c r="K101">
         <v>0.32140000000000002</v>
       </c>
+      <c r="L101">
+        <v>0.32569999999999999</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E102" s="7"/>
@@ -2590,7 +2854,9 @@
       <c r="K102" s="5">
         <v>0.41943000000000003</v>
       </c>
-      <c r="L102" s="5"/>
+      <c r="L102" s="5">
+        <v>0.42283999999999999</v>
+      </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
@@ -2618,7 +2884,9 @@
       <c r="K103" s="5">
         <v>0.68854599999999999</v>
       </c>
-      <c r="L103" s="5"/>
+      <c r="L103" s="5">
+        <v>0.69782</v>
+      </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
@@ -2646,6 +2914,9 @@
       <c r="K104">
         <v>0.77300000000000002</v>
       </c>
+      <c r="L104">
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E105" s="7"/>
@@ -2667,6 +2938,9 @@
       <c r="K105">
         <v>0.75800000000000001</v>
       </c>
+      <c r="L105">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E106" s="7"/>
@@ -2688,6 +2962,9 @@
       <c r="K106">
         <v>0.755</v>
       </c>
+      <c r="L106">
+        <v>0.749</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E107" s="7"/>
@@ -2709,6 +2986,9 @@
       <c r="K107">
         <v>0.89100000000000001</v>
       </c>
+      <c r="L107">
+        <v>0.88600000000000001</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E108" s="6">
@@ -2731,6 +3011,9 @@
       </c>
       <c r="K108">
         <v>59.87</v>
+      </c>
+      <c r="L108">
+        <v>6.23</v>
       </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2753,6 +3036,9 @@
       <c r="K109">
         <v>0.63200000000000001</v>
       </c>
+      <c r="L109">
+        <v>0.62070000000000003</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E110" s="7"/>
@@ -2774,6 +3060,9 @@
       <c r="K110">
         <v>0.1812</v>
       </c>
+      <c r="L110">
+        <v>0.18340000000000001</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E111" s="7"/>
@@ -2795,6 +3084,9 @@
       <c r="K111">
         <v>0.32</v>
       </c>
+      <c r="L111">
+        <v>0.32550000000000001</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E112" s="7"/>
@@ -2816,7 +3108,9 @@
       <c r="K112" s="5">
         <v>0.415487</v>
       </c>
-      <c r="L112" s="5"/>
+      <c r="L112" s="5">
+        <v>0.42064499999999999</v>
+      </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
@@ -2844,7 +3138,9 @@
       <c r="K113" s="5">
         <v>0.68524200000000002</v>
       </c>
-      <c r="L113" s="5"/>
+      <c r="L113" s="5">
+        <v>0.69718999999999998</v>
+      </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
@@ -2872,6 +3168,9 @@
       <c r="K114">
         <v>0.77500000000000002</v>
       </c>
+      <c r="L114">
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E115" s="7"/>
@@ -2893,6 +3192,9 @@
       <c r="K115">
         <v>0.75900000000000001</v>
       </c>
+      <c r="L115">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E116" s="7"/>
@@ -2914,6 +3216,9 @@
       <c r="K116">
         <v>0.75600000000000001</v>
       </c>
+      <c r="L116">
+        <v>0.749</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E117" s="7"/>
@@ -2935,6 +3240,9 @@
       <c r="K117">
         <v>0.89300000000000002</v>
       </c>
+      <c r="L117">
+        <v>0.88700000000000001</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E118" s="8" t="s">
@@ -2963,9 +3271,9 @@
         <f t="shared" si="0"/>
         <v>81.73090909090908</v>
       </c>
-      <c r="L118" s="4" t="e">
+      <c r="L118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>8.8145454545454545</v>
       </c>
       <c r="M118" s="4" t="e">
         <f t="shared" si="0"/>
@@ -3013,9 +3321,9 @@
         <f t="shared" si="1"/>
         <v>0.6584363636363636</v>
       </c>
-      <c r="L119" s="4" t="e">
+      <c r="L119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.65007272727272725</v>
       </c>
       <c r="M119" s="4" t="e">
         <f t="shared" si="1"/>
@@ -3063,9 +3371,9 @@
         <f t="shared" si="2"/>
         <v>0.16865454545454545</v>
       </c>
-      <c r="L120" s="4" t="e">
+      <c r="L120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.17020909090909089</v>
       </c>
       <c r="M120" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3113,9 +3421,9 @@
         <f t="shared" si="3"/>
         <v>0.31227272727272726</v>
       </c>
-      <c r="L121" s="4" t="e">
+      <c r="L121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.31691818181818177</v>
       </c>
       <c r="M121" s="4" t="e">
         <f t="shared" si="3"/>
@@ -3163,9 +3471,9 @@
         <f t="shared" si="4"/>
         <v>0.38446318181818184</v>
       </c>
-      <c r="L122" s="5" t="e">
+      <c r="L122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.38803772727272728</v>
       </c>
       <c r="M122" s="5" t="e">
         <f t="shared" si="4"/>
@@ -3213,9 +3521,9 @@
         <f t="shared" si="5"/>
         <v>0.66668018181818178</v>
       </c>
-      <c r="L123" s="5" t="e">
+      <c r="L123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.67660245454545453</v>
       </c>
       <c r="M123" s="5" t="e">
         <f t="shared" si="5"/>
@@ -3263,9 +3571,9 @@
         <f t="shared" si="6"/>
         <v>0.7919090909090909</v>
       </c>
-      <c r="L124" s="4" t="e">
+      <c r="L124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="M124" s="4" t="e">
         <f t="shared" si="6"/>
@@ -3313,9 +3621,9 @@
         <f t="shared" si="7"/>
         <v>0.77554545454545443</v>
       </c>
-      <c r="L125" s="4" t="e">
+      <c r="L125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.77009090909090905</v>
       </c>
       <c r="M125" s="4" t="e">
         <f t="shared" si="7"/>
@@ -3363,9 +3671,9 @@
         <f t="shared" si="8"/>
         <v>0.77181818181818185</v>
       </c>
-      <c r="L126" s="4" t="e">
+      <c r="L126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.7661818181818183</v>
       </c>
       <c r="M126" s="4" t="e">
         <f t="shared" si="8"/>
@@ -3413,9 +3721,9 @@
         <f t="shared" si="9"/>
         <v>0.904909090909091</v>
       </c>
-      <c r="L127" s="4" t="e">
+      <c r="L127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.90018181818181808</v>
       </c>
       <c r="M127" s="4" t="e">
         <f t="shared" si="9"/>
@@ -6059,11 +6367,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E97"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="E108:E117"/>
-    <mergeCell ref="E118:E127"/>
     <mergeCell ref="E58:E67"/>
     <mergeCell ref="E68:E77"/>
     <mergeCell ref="E8:E17"/>
@@ -6071,6 +6374,11 @@
     <mergeCell ref="E28:E37"/>
     <mergeCell ref="E38:E47"/>
     <mergeCell ref="E48:E57"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E88:E97"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="E108:E117"/>
+    <mergeCell ref="E118:E127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6081,8 +6389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6169,6 +6477,9 @@
       <c r="K8">
         <v>131.1</v>
       </c>
+      <c r="L8">
+        <v>13.92</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
@@ -6190,6 +6501,9 @@
       <c r="K9">
         <v>0.69179999999999997</v>
       </c>
+      <c r="L9">
+        <v>0.68540000000000001</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
@@ -6211,6 +6525,9 @@
       <c r="K10">
         <v>0.14879999999999999</v>
       </c>
+      <c r="L10">
+        <v>0.15029999999999999</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
@@ -6232,6 +6549,9 @@
       <c r="K11">
         <v>0.30640000000000001</v>
       </c>
+      <c r="L11">
+        <v>0.312</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
@@ -6253,7 +6573,9 @@
       <c r="K12" s="5">
         <v>0.33590999999999999</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>0.33932200000000001</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -6281,7 +6603,9 @@
       <c r="K13" s="5">
         <v>0.65113799999999999</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5">
+        <v>0.66297899999999998</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -6309,6 +6633,9 @@
       <c r="K14">
         <v>0.81399999999999995</v>
       </c>
+      <c r="L14">
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
@@ -6330,6 +6657,9 @@
       <c r="K15">
         <v>0.79700000000000004</v>
       </c>
+      <c r="L15">
+        <v>0.79300000000000004</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
@@ -6351,6 +6681,9 @@
       <c r="K16">
         <v>0.79100000000000004</v>
       </c>
+      <c r="L16">
+        <v>0.78600000000000003</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
@@ -6372,6 +6705,9 @@
       <c r="K17">
         <v>0.92200000000000004</v>
       </c>
+      <c r="L17">
+        <v>0.91800000000000004</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="6">
@@ -6394,6 +6730,9 @@
       </c>
       <c r="K18">
         <v>97.92</v>
+      </c>
+      <c r="L18">
+        <v>11.96</v>
       </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
@@ -6416,6 +6755,9 @@
       <c r="K19">
         <v>0.69720000000000004</v>
       </c>
+      <c r="L19">
+        <v>0.6905</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
@@ -6437,6 +6779,9 @@
       <c r="K20">
         <v>0.15390000000000001</v>
       </c>
+      <c r="L20">
+        <v>0.1552</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
@@ -6458,6 +6803,9 @@
       <c r="K21">
         <v>0.29699999999999999</v>
       </c>
+      <c r="L21">
+        <v>0.30080000000000001</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
@@ -6479,7 +6827,9 @@
       <c r="K22" s="5">
         <v>0.34690199999999999</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5">
+        <v>0.34984399999999999</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -6507,7 +6857,9 @@
       <c r="K23" s="5">
         <v>0.63053599999999999</v>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5">
+        <v>0.63871500000000003</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -6535,6 +6887,9 @@
       <c r="K24">
         <v>0.81200000000000006</v>
       </c>
+      <c r="L24">
+        <v>0.80700000000000005</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
@@ -6556,6 +6911,9 @@
       <c r="K25">
         <v>0.79900000000000004</v>
       </c>
+      <c r="L25">
+        <v>0.79500000000000004</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
@@ -6577,6 +6935,9 @@
       <c r="K26">
         <v>0.79600000000000004</v>
       </c>
+      <c r="L26">
+        <v>0.79200000000000004</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
@@ -6598,6 +6959,9 @@
       <c r="K27">
         <v>0.92400000000000004</v>
       </c>
+      <c r="L27">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
@@ -6620,6 +6984,9 @@
       </c>
       <c r="K28">
         <v>92.8</v>
+      </c>
+      <c r="L28">
+        <v>10.63</v>
       </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6642,6 +7009,9 @@
       <c r="K29">
         <v>0.68049999999999999</v>
       </c>
+      <c r="L29">
+        <v>0.67720000000000002</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
@@ -6663,6 +7033,9 @@
       <c r="K30">
         <v>0.1593</v>
       </c>
+      <c r="L30">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
@@ -6684,6 +7057,9 @@
       <c r="K31">
         <v>0.3034</v>
       </c>
+      <c r="L31">
+        <v>0.30549999999999999</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
@@ -6705,7 +7081,9 @@
       <c r="K32" s="5">
         <v>0.35953800000000002</v>
       </c>
-      <c r="L32" s="5"/>
+      <c r="L32" s="5">
+        <v>0.36101699999999998</v>
+      </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -6733,7 +7111,9 @@
       <c r="K33" s="5">
         <v>0.64460399999999995</v>
       </c>
-      <c r="L33" s="5"/>
+      <c r="L33" s="5">
+        <v>0.64908299999999997</v>
+      </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -6761,6 +7141,9 @@
       <c r="K34">
         <v>0.80500000000000005</v>
       </c>
+      <c r="L34">
+        <v>0.80200000000000005</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
@@ -6782,6 +7165,9 @@
       <c r="K35">
         <v>0.78800000000000003</v>
       </c>
+      <c r="L35">
+        <v>0.78600000000000003</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="7"/>
@@ -6803,6 +7189,9 @@
       <c r="K36">
         <v>0.78400000000000003</v>
       </c>
+      <c r="L36">
+        <v>0.78200000000000003</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="7"/>
@@ -6824,6 +7213,9 @@
       <c r="K37">
         <v>0.91600000000000004</v>
       </c>
+      <c r="L37">
+        <v>0.91400000000000003</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="6">
@@ -6846,6 +7238,9 @@
       </c>
       <c r="K38">
         <v>77.63</v>
+      </c>
+      <c r="L38">
+        <v>10.25</v>
       </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6868,6 +7263,9 @@
       <c r="K39">
         <v>0.67759999999999998</v>
       </c>
+      <c r="L39">
+        <v>0.67020000000000002</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
@@ -6889,6 +7287,9 @@
       <c r="K40">
         <v>0.16120000000000001</v>
       </c>
+      <c r="L40">
+        <v>0.16220000000000001</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
@@ -6910,6 +7311,9 @@
       <c r="K41">
         <v>0.30669999999999997</v>
       </c>
+      <c r="L41">
+        <v>0.311</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
@@ -6931,7 +7335,9 @@
       <c r="K42" s="5">
         <v>0.36495</v>
       </c>
-      <c r="L42" s="5"/>
+      <c r="L42" s="5">
+        <v>0.36740299999999998</v>
+      </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -6959,7 +7365,9 @@
       <c r="K43" s="5">
         <v>0.65277700000000005</v>
       </c>
-      <c r="L43" s="5"/>
+      <c r="L43" s="5">
+        <v>0.66179500000000002</v>
+      </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -6987,6 +7395,9 @@
       <c r="K44">
         <v>0.80300000000000005</v>
       </c>
+      <c r="L44">
+        <v>0.79700000000000004</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
@@ -7008,6 +7419,9 @@
       <c r="K45">
         <v>0.78700000000000003</v>
       </c>
+      <c r="L45">
+        <v>0.78200000000000003</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
@@ -7029,6 +7443,9 @@
       <c r="K46">
         <v>0.78300000000000003</v>
       </c>
+      <c r="L46">
+        <v>0.77800000000000002</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
@@ -7050,6 +7467,9 @@
       <c r="K47">
         <v>0.91400000000000003</v>
       </c>
+      <c r="L47">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E48" s="6">
@@ -7072,6 +7492,9 @@
       </c>
       <c r="K48">
         <v>81.260000000000005</v>
+      </c>
+      <c r="L48">
+        <v>10.15</v>
       </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7094,6 +7517,9 @@
       <c r="K49">
         <v>0.66310000000000002</v>
       </c>
+      <c r="L49">
+        <v>0.65480000000000005</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="7"/>
@@ -7115,6 +7541,9 @@
       <c r="K50">
         <v>0.1661</v>
       </c>
+      <c r="L50">
+        <v>0.16750000000000001</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="7"/>
@@ -7136,6 +7565,9 @@
       <c r="K51">
         <v>0.31119999999999998</v>
       </c>
+      <c r="L51">
+        <v>0.31559999999999999</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" s="7"/>
@@ -7157,7 +7589,9 @@
       <c r="K52" s="5">
         <v>0.37787799999999999</v>
       </c>
-      <c r="L52" s="5"/>
+      <c r="L52" s="5">
+        <v>0.381189</v>
+      </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -7185,7 +7619,9 @@
       <c r="K53" s="5">
         <v>0.66386999999999996</v>
       </c>
-      <c r="L53" s="5"/>
+      <c r="L53" s="5">
+        <v>0.67334000000000005</v>
+      </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -7213,6 +7649,9 @@
       <c r="K54">
         <v>0.79400000000000004</v>
       </c>
+      <c r="L54">
+        <v>0.77800000000000002</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" s="7"/>
@@ -7234,6 +7673,9 @@
       <c r="K55">
         <v>0.77900000000000003</v>
       </c>
+      <c r="L55">
+        <v>0.77300000000000002</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" s="7"/>
@@ -7255,6 +7697,9 @@
       <c r="K56">
         <v>0.77500000000000002</v>
       </c>
+      <c r="L56">
+        <v>0.76900000000000002</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="7"/>
@@ -7276,6 +7721,9 @@
       <c r="K57">
         <v>0.90700000000000003</v>
       </c>
+      <c r="L57">
+        <v>0.90300000000000002</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
@@ -7298,6 +7746,9 @@
       </c>
       <c r="K58">
         <v>64.739999999999995</v>
+      </c>
+      <c r="L58">
+        <v>8.75</v>
       </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7320,6 +7771,9 @@
       <c r="K59">
         <v>0.65249999999999997</v>
       </c>
+      <c r="L59">
+        <v>0.64500000000000002</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E60" s="7"/>
@@ -7341,6 +7795,9 @@
       <c r="K60">
         <v>0.17100000000000001</v>
       </c>
+      <c r="L60">
+        <v>0.1726</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E61" s="7"/>
@@ -7362,6 +7819,9 @@
       <c r="K61">
         <v>0.31419999999999998</v>
       </c>
+      <c r="L61">
+        <v>0.31909999999999999</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E62" s="7"/>
@@ -7383,7 +7843,9 @@
       <c r="K62" s="5">
         <v>0.39216099999999998</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="L62" s="5">
+        <v>0.39580700000000002</v>
+      </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -7411,7 +7873,9 @@
       <c r="K63" s="5">
         <v>0.67284200000000005</v>
       </c>
-      <c r="L63" s="5"/>
+      <c r="L63" s="5">
+        <v>0.68344199999999999</v>
+      </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -7439,6 +7903,9 @@
       <c r="K64">
         <v>0.79</v>
       </c>
+      <c r="L64">
+        <v>0.78500000000000003</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E65" s="7"/>
@@ -7460,6 +7927,9 @@
       <c r="K65">
         <v>0.77400000000000002</v>
       </c>
+      <c r="L65">
+        <v>0.76900000000000002</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E66" s="7"/>
@@ -7481,6 +7951,9 @@
       <c r="K66">
         <v>0.76900000000000002</v>
       </c>
+      <c r="L66">
+        <v>0.76400000000000001</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E67" s="7"/>
@@ -7502,6 +7975,9 @@
       <c r="K67">
         <v>0.9</v>
       </c>
+      <c r="L67">
+        <v>0.89500000000000002</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E68" s="6">
@@ -7524,6 +8000,9 @@
       </c>
       <c r="K68">
         <v>70.2</v>
+      </c>
+      <c r="L68">
+        <v>8.6199999999999992</v>
       </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7546,6 +8025,9 @@
       <c r="K69">
         <v>0.64380000000000004</v>
       </c>
+      <c r="L69">
+        <v>0.6351</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E70" s="7"/>
@@ -7567,6 +8049,9 @@
       <c r="K70">
         <v>0.17</v>
       </c>
+      <c r="L70">
+        <v>0.17199999999999999</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E71" s="7"/>
@@ -7588,6 +8073,9 @@
       <c r="K71">
         <v>0.32279999999999998</v>
       </c>
+      <c r="L71">
+        <v>0.3286</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E72" s="7"/>
@@ -7609,7 +8097,9 @@
       <c r="K72" s="5">
         <v>0.38863199999999998</v>
       </c>
-      <c r="L72" s="5"/>
+      <c r="L72" s="5">
+        <v>0.39311800000000002</v>
+      </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
@@ -7637,7 +8127,9 @@
       <c r="K73" s="5">
         <v>0.690083</v>
       </c>
-      <c r="L73" s="5"/>
+      <c r="L73" s="5">
+        <v>0.70252599999999998</v>
+      </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
@@ -7665,6 +8157,9 @@
       <c r="K74">
         <v>0.78900000000000003</v>
       </c>
+      <c r="L74">
+        <v>0.78300000000000003</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E75" s="7"/>
@@ -7686,6 +8181,9 @@
       <c r="K75">
         <v>0.76600000000000001</v>
       </c>
+      <c r="L75">
+        <v>0.76100000000000001</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E76" s="7"/>
@@ -7707,6 +8205,9 @@
       <c r="K76">
         <v>0.76100000000000001</v>
       </c>
+      <c r="L76">
+        <v>0.755</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E77" s="7"/>
@@ -7728,6 +8229,9 @@
       <c r="K77">
         <v>0.9</v>
       </c>
+      <c r="L77">
+        <v>0.89400000000000002</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
@@ -7750,6 +8254,9 @@
       </c>
       <c r="K78">
         <v>70.64</v>
+      </c>
+      <c r="L78">
+        <v>6.76</v>
       </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7772,6 +8279,9 @@
       <c r="K79">
         <v>0.62529999999999997</v>
       </c>
+      <c r="L79">
+        <v>0.61850000000000005</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E80" s="7"/>
@@ -7793,6 +8303,9 @@
       <c r="K80">
         <v>0.1736</v>
       </c>
+      <c r="L80">
+        <v>0.1754</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E81" s="7"/>
@@ -7814,6 +8327,9 @@
       <c r="K81">
         <v>0.33460000000000001</v>
       </c>
+      <c r="L81">
+        <v>0.34029999999999999</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E82" s="7"/>
@@ -7835,7 +8351,9 @@
       <c r="K82" s="5">
         <v>0.39895599999999998</v>
       </c>
-      <c r="L82" s="5"/>
+      <c r="L82" s="5">
+        <v>0.40301900000000002</v>
+      </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
@@ -7863,7 +8381,9 @@
       <c r="K83" s="5">
         <v>0.71742899999999998</v>
       </c>
-      <c r="L83" s="5"/>
+      <c r="L83" s="5">
+        <v>0.72953400000000002</v>
+      </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
@@ -7891,6 +8411,9 @@
       <c r="K84">
         <v>0.79100000000000004</v>
       </c>
+      <c r="L84">
+        <v>0.78600000000000003</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E85" s="7"/>
@@ -7912,6 +8435,9 @@
       <c r="K85">
         <v>0.755</v>
       </c>
+      <c r="L85">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E86" s="7"/>
@@ -7933,6 +8459,9 @@
       <c r="K86">
         <v>0.746</v>
       </c>
+      <c r="L86">
+        <v>0.74099999999999999</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E87" s="7"/>
@@ -7954,6 +8483,9 @@
       <c r="K87">
         <v>0.89200000000000002</v>
       </c>
+      <c r="L87">
+        <v>0.88700000000000001</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E88" s="6">
@@ -7976,6 +8508,9 @@
       </c>
       <c r="K88">
         <v>43.62</v>
+      </c>
+      <c r="L88">
+        <v>7.04</v>
       </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7998,6 +8533,9 @@
       <c r="K89">
         <v>0.62160000000000004</v>
       </c>
+      <c r="L89">
+        <v>0.61450000000000005</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E90" s="7"/>
@@ -8019,6 +8557,9 @@
       <c r="K90">
         <v>0.17649999999999999</v>
       </c>
+      <c r="L90">
+        <v>0.1784</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E91" s="7"/>
@@ -8040,6 +8581,9 @@
       <c r="K91">
         <v>0.33750000000000002</v>
       </c>
+      <c r="L91">
+        <v>0.34379999999999999</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E92" s="7"/>
@@ -8061,7 +8605,9 @@
       <c r="K92" s="5">
         <v>0.404447</v>
       </c>
-      <c r="L92" s="5"/>
+      <c r="L92" s="5">
+        <v>0.40886400000000001</v>
+      </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
@@ -8089,7 +8635,9 @@
       <c r="K93" s="5">
         <v>0.72244799999999998</v>
       </c>
-      <c r="L93" s="5"/>
+      <c r="L93" s="5">
+        <v>0.73587000000000002</v>
+      </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
@@ -8117,6 +8665,9 @@
       <c r="K94">
         <v>0.78800000000000003</v>
       </c>
+      <c r="L94">
+        <v>0.78200000000000003</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E95" s="7"/>
@@ -8138,6 +8689,9 @@
       <c r="K95">
         <v>0.752</v>
       </c>
+      <c r="L95">
+        <v>0.747</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E96" s="7"/>
@@ -8159,6 +8713,9 @@
       <c r="K96">
         <v>0.74199999999999999</v>
       </c>
+      <c r="L96">
+        <v>0.73699999999999999</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E97" s="7"/>
@@ -8180,6 +8737,9 @@
       <c r="K97">
         <v>0.89100000000000001</v>
       </c>
+      <c r="L97">
+        <v>0.88500000000000001</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E98" s="6">
@@ -8202,6 +8762,9 @@
       </c>
       <c r="K98">
         <v>64.44</v>
+      </c>
+      <c r="L98">
+        <v>8.07</v>
       </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8224,6 +8787,9 @@
       <c r="K99">
         <v>0.60740000000000005</v>
       </c>
+      <c r="L99">
+        <v>0.60419999999999996</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E100" s="7"/>
@@ -8245,6 +8811,9 @@
       <c r="K100">
         <v>0.1827</v>
       </c>
+      <c r="L100">
+        <v>0.18379999999999999</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E101" s="7"/>
@@ -8266,6 +8835,9 @@
       <c r="K101">
         <v>0.33989999999999998</v>
       </c>
+      <c r="L101">
+        <v>0.34350000000000003</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E102" s="7"/>
@@ -8287,7 +8859,9 @@
       <c r="K102" s="5">
         <v>0.41934199999999999</v>
       </c>
-      <c r="L102" s="5"/>
+      <c r="L102" s="5">
+        <v>0.42182700000000001</v>
+      </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
@@ -8315,7 +8889,9 @@
       <c r="K103" s="5">
         <v>0.728325</v>
       </c>
-      <c r="L103" s="5"/>
+      <c r="L103" s="5">
+        <v>0.73590900000000004</v>
+      </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
@@ -8343,6 +8919,9 @@
       <c r="K104">
         <v>0.77</v>
       </c>
+      <c r="L104">
+        <v>0.76700000000000002</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E105" s="7"/>
@@ -8364,6 +8943,9 @@
       <c r="K105">
         <v>0.74299999999999999</v>
       </c>
+      <c r="L105">
+        <v>0.74099999999999999</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E106" s="7"/>
@@ -8385,6 +8967,9 @@
       <c r="K106">
         <v>0.73499999999999999</v>
       </c>
+      <c r="L106">
+        <v>0.73299999999999998</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E107" s="7"/>
@@ -8406,6 +8991,9 @@
       <c r="K107">
         <v>0.88200000000000001</v>
       </c>
+      <c r="L107">
+        <v>0.879</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E108" s="6">
@@ -8428,6 +9016,9 @@
       </c>
       <c r="K108">
         <v>64.989999999999995</v>
+      </c>
+      <c r="L108">
+        <v>7.16</v>
       </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8450,6 +9041,9 @@
       <c r="K109">
         <v>0.61870000000000003</v>
       </c>
+      <c r="L109">
+        <v>0.60909999999999997</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E110" s="7"/>
@@ -8471,6 +9065,9 @@
       <c r="K110">
         <v>0.1792</v>
       </c>
+      <c r="L110">
+        <v>0.18149999999999999</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E111" s="7"/>
@@ -8492,6 +9089,9 @@
       <c r="K111">
         <v>0.33429999999999999</v>
       </c>
+      <c r="L111">
+        <v>0.34050000000000002</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E112" s="7"/>
@@ -8513,7 +9113,9 @@
       <c r="K112" s="5">
         <v>0.411049</v>
       </c>
-      <c r="L112" s="5"/>
+      <c r="L112" s="5">
+        <v>0.41622799999999999</v>
+      </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
@@ -8541,7 +9143,9 @@
       <c r="K113" s="5">
         <v>0.71600299999999995</v>
       </c>
-      <c r="L113" s="5"/>
+      <c r="L113" s="5">
+        <v>0.72921400000000003</v>
+      </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
@@ -8569,6 +9173,9 @@
       <c r="K114">
         <v>0.77900000000000003</v>
       </c>
+      <c r="L114">
+        <v>0.77200000000000002</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E115" s="7"/>
@@ -8590,6 +9197,9 @@
       <c r="K115">
         <v>0.75</v>
       </c>
+      <c r="L115">
+        <v>0.74399999999999999</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E116" s="7"/>
@@ -8611,6 +9221,9 @@
       <c r="K116">
         <v>0.74299999999999999</v>
       </c>
+      <c r="L116">
+        <v>0.73599999999999999</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E117" s="7"/>
@@ -8632,6 +9245,9 @@
       <c r="K117">
         <v>0.88900000000000001</v>
       </c>
+      <c r="L117">
+        <v>0.88300000000000001</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E118" s="8" t="s">
@@ -8660,9 +9276,9 @@
         <f t="shared" si="0"/>
         <v>78.121818181818171</v>
       </c>
-      <c r="L118" s="4" t="e">
+      <c r="L118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.3918181818181825</v>
       </c>
       <c r="M118" s="4" t="e">
         <f t="shared" si="0"/>
@@ -8710,9 +9326,9 @@
         <f t="shared" si="1"/>
         <v>0.65268181818181825</v>
       </c>
-      <c r="L119" s="4" t="e">
+      <c r="L119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.64586363636363631</v>
       </c>
       <c r="M119" s="4" t="e">
         <f t="shared" si="1"/>
@@ -8760,9 +9376,9 @@
         <f t="shared" si="2"/>
         <v>0.16748181818181818</v>
       </c>
-      <c r="L120" s="4" t="e">
+      <c r="L120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.16899090909090908</v>
       </c>
       <c r="M120" s="4" t="e">
         <f t="shared" si="2"/>
@@ -8810,9 +9426,9 @@
         <f t="shared" si="3"/>
         <v>0.31890909090909086</v>
       </c>
-      <c r="L121" s="4" t="e">
+      <c r="L121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.32370000000000004</v>
       </c>
       <c r="M121" s="4" t="e">
         <f t="shared" si="3"/>
@@ -8860,9 +9476,9 @@
         <f t="shared" si="4"/>
         <v>0.3817968181818181</v>
       </c>
-      <c r="L122" s="5" t="e">
+      <c r="L122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.38523981818181813</v>
       </c>
       <c r="M122" s="5" t="e">
         <f t="shared" si="4"/>
@@ -8910,9 +9526,9 @@
         <f t="shared" si="5"/>
         <v>0.68091409090909094</v>
       </c>
-      <c r="L123" s="5" t="e">
+      <c r="L123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.69112790909090915</v>
       </c>
       <c r="M123" s="5" t="e">
         <f t="shared" si="5"/>
@@ -8960,9 +9576,9 @@
         <f t="shared" si="6"/>
         <v>0.79409090909090918</v>
       </c>
-      <c r="L124" s="4" t="e">
+      <c r="L124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.78800000000000014</v>
       </c>
       <c r="M124" s="4" t="e">
         <f t="shared" si="6"/>
@@ -9010,9 +9626,9 @@
         <f t="shared" si="7"/>
         <v>0.77181818181818185</v>
       </c>
-      <c r="L125" s="4" t="e">
+      <c r="L125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.76736363636363647</v>
       </c>
       <c r="M125" s="4" t="e">
         <f t="shared" si="7"/>
@@ -9060,9 +9676,9 @@
         <f t="shared" si="8"/>
         <v>0.76590909090909098</v>
       </c>
-      <c r="L126" s="4" t="e">
+      <c r="L126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.76118181818181807</v>
       </c>
       <c r="M126" s="4" t="e">
         <f t="shared" si="8"/>
@@ -9110,9 +9726,9 @@
         <f t="shared" si="9"/>
         <v>0.90336363636363626</v>
       </c>
-      <c r="L127" s="4" t="e">
+      <c r="L127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.8989090909090911</v>
       </c>
       <c r="M127" s="4" t="e">
         <f t="shared" si="9"/>
@@ -11756,11 +12372,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E97"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="E108:E117"/>
-    <mergeCell ref="E118:E127"/>
     <mergeCell ref="E58:E67"/>
     <mergeCell ref="E68:E77"/>
     <mergeCell ref="E8:E17"/>
@@ -11768,6 +12379,11 @@
     <mergeCell ref="E28:E37"/>
     <mergeCell ref="E38:E47"/>
     <mergeCell ref="E48:E57"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E88:E97"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="E108:E117"/>
+    <mergeCell ref="E118:E127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
+++ b/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -159,6 +159,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -383,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="N84" sqref="N84"/>
+    <sheetView topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="O109" sqref="O109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -451,7 +452,7 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>2005</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -475,9 +476,12 @@
       <c r="L8">
         <v>11.79</v>
       </c>
+      <c r="M8">
+        <v>5.0199999999999996</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -499,9 +503,12 @@
       <c r="L9">
         <v>0.68520000000000003</v>
       </c>
+      <c r="M9">
+        <v>0.66349999999999998</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -523,9 +530,12 @@
       <c r="L10">
         <v>0.1545</v>
       </c>
+      <c r="M10">
+        <v>0.1973</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
@@ -547,9 +557,12 @@
       <c r="L11">
         <v>0.30570000000000003</v>
       </c>
+      <c r="M11">
+        <v>0.31690000000000002</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
@@ -571,7 +584,9 @@
       <c r="L12" s="5">
         <v>0.34885699999999997</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5">
+        <v>0.44548399999999999</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -579,7 +594,7 @@
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
@@ -601,7 +616,9 @@
       <c r="L13" s="5">
         <v>0.64963800000000005</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5">
+        <v>0.67352800000000002</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -609,7 +626,7 @@
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
@@ -631,9 +648,12 @@
       <c r="L14">
         <v>0.80400000000000005</v>
       </c>
+      <c r="M14">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
@@ -655,9 +675,12 @@
       <c r="L15">
         <v>0.79200000000000004</v>
       </c>
+      <c r="M15">
+        <v>0.77800000000000002</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
@@ -679,9 +702,12 @@
       <c r="L16">
         <v>0.78800000000000003</v>
       </c>
+      <c r="M16">
+        <v>0.77300000000000002</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
@@ -703,9 +729,12 @@
       <c r="L17">
         <v>0.91700000000000004</v>
       </c>
+      <c r="M17">
+        <v>0.89400000000000002</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>2006</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -729,9 +758,12 @@
       <c r="L18">
         <v>11.38</v>
       </c>
+      <c r="M18">
+        <v>5.88</v>
+      </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
@@ -753,9 +785,12 @@
       <c r="L19">
         <v>0.68779999999999997</v>
       </c>
+      <c r="M19">
+        <v>0.66639999999999999</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
@@ -777,9 +812,12 @@
       <c r="L20">
         <v>0.15359999999999999</v>
       </c>
+      <c r="M20">
+        <v>0.1956</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="7"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
@@ -801,9 +839,12 @@
       <c r="L21">
         <v>0.3044</v>
       </c>
+      <c r="M21">
+        <v>0.3135</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
@@ -825,7 +866,9 @@
       <c r="L22" s="5">
         <v>0.34627599999999997</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="5">
+        <v>0.44074099999999999</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -833,7 +876,7 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="7"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -855,7 +898,9 @@
       <c r="L23" s="5">
         <v>0.64622999999999997</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="5">
+        <v>0.66564299999999998</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -863,7 +908,7 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="7"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
@@ -885,9 +930,12 @@
       <c r="L24">
         <v>0.80800000000000005</v>
       </c>
+      <c r="M24">
+        <v>0.79100000000000004</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="7"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
@@ -909,9 +957,12 @@
       <c r="L25">
         <v>0.79300000000000004</v>
       </c>
+      <c r="M25">
+        <v>0.77900000000000003</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="7"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
@@ -933,9 +984,12 @@
       <c r="L26">
         <v>0.78900000000000003</v>
       </c>
+      <c r="M26">
+        <v>0.77500000000000002</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="7"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
@@ -957,9 +1011,12 @@
       <c r="L27">
         <v>0.92</v>
       </c>
+      <c r="M27">
+        <v>0.89900000000000002</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>2007</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -983,9 +1040,12 @@
       <c r="L28">
         <v>11.11</v>
       </c>
+      <c r="M28">
+        <v>6.63</v>
+      </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="7"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1007,9 +1067,12 @@
       <c r="L29">
         <v>0.67579999999999996</v>
       </c>
+      <c r="M29">
+        <v>0.65390000000000004</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="7"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1031,9 +1094,12 @@
       <c r="L30">
         <v>0.1585</v>
       </c>
+      <c r="M30">
+        <v>0.2001</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="7"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1055,9 +1121,12 @@
       <c r="L31">
         <v>0.30869999999999997</v>
       </c>
+      <c r="M31">
+        <v>0.31840000000000002</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="7"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
@@ -1079,7 +1148,9 @@
       <c r="L32" s="5">
         <v>0.35755599999999998</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="5">
+        <v>0.45145000000000002</v>
+      </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -1087,7 +1158,7 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="7"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1180,9 @@
       <c r="L33" s="5">
         <v>0.65567399999999998</v>
       </c>
-      <c r="M33" s="5"/>
+      <c r="M33" s="5">
+        <v>0.67634399999999995</v>
+      </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -1117,7 +1190,7 @@
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="7"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
@@ -1139,9 +1212,12 @@
       <c r="L34">
         <v>0.80200000000000005</v>
       </c>
+      <c r="M34">
+        <v>0.78700000000000003</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="7"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
@@ -1163,9 +1239,12 @@
       <c r="L35">
         <v>0.78500000000000003</v>
       </c>
+      <c r="M35">
+        <v>0.77100000000000002</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="7"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
@@ -1187,9 +1266,12 @@
       <c r="L36">
         <v>0.78100000000000003</v>
       </c>
+      <c r="M36">
+        <v>0.76500000000000001</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="7"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
@@ -1211,9 +1293,12 @@
       <c r="L37">
         <v>0.91400000000000003</v>
       </c>
+      <c r="M37">
+        <v>0.89100000000000001</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>2008</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1237,9 +1322,12 @@
       <c r="L38">
         <v>11.5</v>
       </c>
+      <c r="M38">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="7"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
@@ -1261,9 +1349,12 @@
       <c r="L39">
         <v>0.67030000000000001</v>
       </c>
+      <c r="M39">
+        <v>0.6522</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="7"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
@@ -1285,9 +1376,12 @@
       <c r="L40">
         <v>0.1618</v>
       </c>
+      <c r="M40">
+        <v>0.2011</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="7"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
@@ -1309,9 +1403,12 @@
       <c r="L41">
         <v>0.31080000000000002</v>
       </c>
+      <c r="M41">
+        <v>0.31979999999999997</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="7"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1430,9 @@
       <c r="L42" s="5">
         <v>0.36629200000000001</v>
       </c>
-      <c r="M42" s="5"/>
+      <c r="M42" s="5">
+        <v>0.45549000000000001</v>
+      </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -1341,7 +1440,7 @@
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="7"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -1363,7 +1462,9 @@
       <c r="L43" s="5">
         <v>0.66151899999999997</v>
       </c>
-      <c r="M43" s="5"/>
+      <c r="M43" s="5">
+        <v>0.68054999999999999</v>
+      </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -1371,7 +1472,7 @@
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="7"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
@@ -1393,9 +1494,12 @@
       <c r="L44">
         <v>0.79700000000000004</v>
       </c>
+      <c r="M44">
+        <v>0.78600000000000003</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="7"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
@@ -1417,9 +1521,12 @@
       <c r="L45">
         <v>0.78200000000000003</v>
       </c>
+      <c r="M45">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="7"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
@@ -1441,9 +1548,12 @@
       <c r="L46">
         <v>0.77800000000000002</v>
       </c>
+      <c r="M46">
+        <v>0.76600000000000001</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="7"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
@@ -1465,9 +1575,12 @@
       <c r="L47">
         <v>0.91</v>
       </c>
+      <c r="M47">
+        <v>0.88900000000000001</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="6">
+      <c r="E48" s="7">
         <v>2009</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -1491,9 +1604,12 @@
       <c r="L48">
         <v>9.51</v>
       </c>
+      <c r="M48">
+        <v>4.47</v>
+      </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="7"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
@@ -1515,9 +1631,12 @@
       <c r="L49">
         <v>0.65369999999999995</v>
       </c>
+      <c r="M49">
+        <v>0.6331</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="7"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
@@ -1539,9 +1658,12 @@
       <c r="L50">
         <v>0.16789999999999999</v>
       </c>
+      <c r="M50">
+        <v>0.2097</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="7"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="4" t="s">
         <v>14</v>
       </c>
@@ -1563,9 +1685,12 @@
       <c r="L51">
         <v>0.316</v>
       </c>
+      <c r="M51">
+        <v>0.32490000000000002</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="7"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
@@ -1587,7 +1712,9 @@
       <c r="L52" s="5">
         <v>0.38212699999999999</v>
       </c>
-      <c r="M52" s="5"/>
+      <c r="M52" s="5">
+        <v>0.47708400000000001</v>
+      </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -1595,7 +1722,7 @@
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="7"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
@@ -1617,7 +1744,9 @@
       <c r="L53" s="5">
         <v>0.67403999999999997</v>
       </c>
-      <c r="M53" s="5"/>
+      <c r="M53" s="5">
+        <v>0.69314500000000001</v>
+      </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -1625,7 +1754,7 @@
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="7"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
@@ -1647,9 +1776,12 @@
       <c r="L54">
         <v>0.78800000000000003</v>
       </c>
+      <c r="M54">
+        <v>0.77500000000000002</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="7"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
@@ -1671,9 +1803,12 @@
       <c r="L55">
         <v>0.77200000000000002</v>
       </c>
+      <c r="M55">
+        <v>0.75900000000000001</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="7"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
@@ -1695,9 +1830,12 @@
       <c r="L56">
         <v>0.76800000000000002</v>
       </c>
+      <c r="M56">
+        <v>0.754</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="7"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
@@ -1719,9 +1857,12 @@
       <c r="L57">
         <v>0.90300000000000002</v>
       </c>
+      <c r="M57">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="6">
+      <c r="E58" s="7">
         <v>2010</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -1745,9 +1886,12 @@
       <c r="L58">
         <v>7.03</v>
       </c>
+      <c r="M58">
+        <v>5.94</v>
+      </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="7"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
@@ -1769,9 +1913,12 @@
       <c r="L59">
         <v>0.64349999999999996</v>
       </c>
+      <c r="M59">
+        <v>0.62509999999999999</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="7"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
@@ -1793,9 +1940,12 @@
       <c r="L60">
         <v>0.1731</v>
       </c>
+      <c r="M60">
+        <v>0.2094</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="7"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
@@ -1817,9 +1967,12 @@
       <c r="L61">
         <v>0.31950000000000001</v>
       </c>
+      <c r="M61">
+        <v>0.32500000000000001</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="7"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +1994,9 @@
       <c r="L62" s="5">
         <v>0.39685700000000002</v>
       </c>
-      <c r="M62" s="5"/>
+      <c r="M62" s="5">
+        <v>0.48010900000000001</v>
+      </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
@@ -1849,7 +2004,7 @@
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="7"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -1871,7 +2026,9 @@
       <c r="L63" s="5">
         <v>0.68422400000000005</v>
       </c>
-      <c r="M63" s="5"/>
+      <c r="M63" s="5">
+        <v>0.69595300000000004</v>
+      </c>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
@@ -1879,7 +2036,7 @@
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="7"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
@@ -1901,9 +2058,12 @@
       <c r="L64">
         <v>0.78400000000000003</v>
       </c>
+      <c r="M64">
+        <v>0.77200000000000002</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="7"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
@@ -1925,9 +2085,12 @@
       <c r="L65">
         <v>0.76800000000000002</v>
       </c>
+      <c r="M65">
+        <v>0.75600000000000001</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="7"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="4" t="s">
         <v>19</v>
       </c>
@@ -1949,9 +2112,12 @@
       <c r="L66">
         <v>0.76300000000000001</v>
       </c>
+      <c r="M66">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="7"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
@@ -1973,9 +2139,12 @@
       <c r="L67">
         <v>0.89400000000000002</v>
       </c>
+      <c r="M67">
+        <v>0.879</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="6">
+      <c r="E68" s="7">
         <v>2011</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -1999,9 +2168,12 @@
       <c r="L68">
         <v>7.72</v>
       </c>
+      <c r="M68">
+        <v>4.55</v>
+      </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="7"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
@@ -2023,9 +2195,12 @@
       <c r="L69">
         <v>0.63829999999999998</v>
       </c>
+      <c r="M69" s="6">
+        <v>0.6109</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="7"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="4" t="s">
         <v>13</v>
       </c>
@@ -2047,9 +2222,12 @@
       <c r="L70">
         <v>0.17580000000000001</v>
       </c>
+      <c r="M70" s="6">
+        <v>0.21659999999999999</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="7"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="4" t="s">
         <v>14</v>
       </c>
@@ -2071,9 +2249,12 @@
       <c r="L71">
         <v>0.3206</v>
       </c>
+      <c r="M71" s="6">
+        <v>0.33110000000000001</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="7"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
@@ -2095,7 +2276,9 @@
       <c r="L72" s="5">
         <v>0.40192499999999998</v>
       </c>
-      <c r="M72" s="5"/>
+      <c r="M72" s="5">
+        <v>0.49500300000000003</v>
+      </c>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -2103,7 +2286,7 @@
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="7"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +2308,9 @@
       <c r="L73" s="5">
         <v>0.68554599999999999</v>
       </c>
-      <c r="M73" s="5"/>
+      <c r="M73" s="5">
+        <v>0.70794100000000004</v>
+      </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
@@ -2133,7 +2318,7 @@
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="7"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="4" t="s">
         <v>17</v>
       </c>
@@ -2155,9 +2340,12 @@
       <c r="L74">
         <v>0.77900000000000003</v>
       </c>
+      <c r="M74" s="6">
+        <v>0.76400000000000001</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="7"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
@@ -2179,9 +2367,12 @@
       <c r="L75">
         <v>0.76300000000000001</v>
       </c>
+      <c r="M75" s="6">
+        <v>0.745</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="7"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="4" t="s">
         <v>19</v>
       </c>
@@ -2203,9 +2394,12 @@
       <c r="L76">
         <v>0.75900000000000001</v>
       </c>
+      <c r="M76" s="6">
+        <v>0.73899999999999999</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="7"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
@@ -2227,9 +2421,12 @@
       <c r="L77">
         <v>0.89400000000000002</v>
       </c>
+      <c r="M77" s="6">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="6">
+      <c r="E78" s="7">
         <v>2012</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -2253,9 +2450,12 @@
       <c r="L78">
         <v>6.7</v>
       </c>
+      <c r="M78" s="6">
+        <v>4.1900000000000004</v>
+      </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="7"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="4" t="s">
         <v>12</v>
       </c>
@@ -2277,9 +2477,12 @@
       <c r="L79">
         <v>0.62619999999999998</v>
       </c>
+      <c r="M79" s="6">
+        <v>0.59660000000000002</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="7"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="4" t="s">
         <v>13</v>
       </c>
@@ -2301,9 +2504,12 @@
       <c r="L80">
         <v>0.1794</v>
       </c>
+      <c r="M80" s="6">
+        <v>0.21870000000000001</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="7"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="4" t="s">
         <v>14</v>
       </c>
@@ -2325,9 +2531,12 @@
       <c r="L81">
         <v>0.32500000000000001</v>
       </c>
+      <c r="M81" s="6">
+        <v>0.33239999999999997</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="7"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
@@ -2349,7 +2558,9 @@
       <c r="L82" s="5">
         <v>0.41227900000000001</v>
       </c>
-      <c r="M82" s="5"/>
+      <c r="M82" s="5">
+        <v>0.502722</v>
+      </c>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
@@ -2357,7 +2568,7 @@
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="7"/>
+      <c r="E83" s="8"/>
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
@@ -2379,7 +2590,9 @@
       <c r="L83" s="5">
         <v>0.69672500000000004</v>
       </c>
-      <c r="M83" s="5"/>
+      <c r="M83" s="5">
+        <v>0.71255299999999999</v>
+      </c>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -2387,7 +2600,7 @@
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="7"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="4" t="s">
         <v>17</v>
       </c>
@@ -2409,9 +2622,12 @@
       <c r="L84">
         <v>0.77600000000000002</v>
       </c>
+      <c r="M84" s="6">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="7"/>
+      <c r="E85" s="8"/>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
@@ -2433,9 +2649,12 @@
       <c r="L85">
         <v>0.75600000000000001</v>
       </c>
+      <c r="M85" s="6">
+        <v>0.73599999999999999</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="7"/>
+      <c r="E86" s="8"/>
       <c r="F86" s="4" t="s">
         <v>19</v>
       </c>
@@ -2457,9 +2676,12 @@
       <c r="L86">
         <v>0.751</v>
       </c>
+      <c r="M86" s="6">
+        <v>0.73299999999999998</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="7"/>
+      <c r="E87" s="8"/>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
@@ -2481,9 +2703,12 @@
       <c r="L87">
         <v>0.88800000000000001</v>
       </c>
+      <c r="M87" s="6">
+        <v>0.86599999999999999</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="6">
+      <c r="E88" s="7">
         <v>2013</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -2507,9 +2732,12 @@
       <c r="L88">
         <v>6.46</v>
       </c>
+      <c r="M88" s="6">
+        <v>3.77</v>
+      </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="7"/>
+      <c r="E89" s="8"/>
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
@@ -2531,9 +2759,12 @@
       <c r="L89">
         <v>0.62819999999999998</v>
       </c>
+      <c r="M89" s="6">
+        <v>0.59230000000000005</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="7"/>
+      <c r="E90" s="8"/>
       <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
@@ -2555,9 +2786,12 @@
       <c r="L90">
         <v>0.18010000000000001</v>
       </c>
+      <c r="M90" s="6">
+        <v>0.2233</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="7"/>
+      <c r="E91" s="8"/>
       <c r="F91" s="4" t="s">
         <v>14</v>
       </c>
@@ -2579,9 +2813,12 @@
       <c r="L91">
         <v>0.32419999999999999</v>
       </c>
+      <c r="M91" s="6">
+        <v>0.3342</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="7"/>
+      <c r="E92" s="8"/>
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
@@ -2603,7 +2840,9 @@
       <c r="L92" s="5">
         <v>0.41276099999999999</v>
       </c>
-      <c r="M92" s="5"/>
+      <c r="M92" s="5">
+        <v>0.511544</v>
+      </c>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
@@ -2611,7 +2850,7 @@
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="7"/>
+      <c r="E93" s="8"/>
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
@@ -2633,7 +2872,9 @@
       <c r="L93" s="5">
         <v>0.694021</v>
       </c>
-      <c r="M93" s="5"/>
+      <c r="M93" s="5">
+        <v>0.71540300000000001</v>
+      </c>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
@@ -2641,7 +2882,7 @@
       <c r="R93" s="5"/>
     </row>
     <row r="94" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="7"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="4" t="s">
         <v>17</v>
       </c>
@@ -2663,9 +2904,12 @@
       <c r="L94">
         <v>0.77400000000000002</v>
       </c>
+      <c r="M94" s="6">
+        <v>0.751</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="7"/>
+      <c r="E95" s="8"/>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
@@ -2687,9 +2931,12 @@
       <c r="L95">
         <v>0.75600000000000001</v>
       </c>
+      <c r="M95" s="6">
+        <v>0.73299999999999998</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="7"/>
+      <c r="E96" s="8"/>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
@@ -2711,9 +2958,12 @@
       <c r="L96">
         <v>0.753</v>
       </c>
+      <c r="M96" s="6">
+        <v>0.72699999999999998</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="7"/>
+      <c r="E97" s="8"/>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
@@ -2735,9 +2985,12 @@
       <c r="L97">
         <v>0.88900000000000001</v>
       </c>
+      <c r="M97" s="6">
+        <v>0.86299999999999999</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="6">
+      <c r="E98" s="7">
         <v>2014</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -2761,9 +3014,12 @@
       <c r="L98">
         <v>7.53</v>
       </c>
+      <c r="M98" s="6">
+        <v>5.07</v>
+      </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="7"/>
+      <c r="E99" s="8"/>
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
@@ -2785,9 +3041,12 @@
       <c r="L99">
         <v>0.62109999999999999</v>
       </c>
+      <c r="M99" s="6">
+        <v>0.58950000000000002</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="7"/>
+      <c r="E100" s="8"/>
       <c r="F100" s="4" t="s">
         <v>13</v>
       </c>
@@ -2809,9 +3068,12 @@
       <c r="L100">
         <v>0.1842</v>
       </c>
+      <c r="M100" s="6">
+        <v>0.22720000000000001</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="7"/>
+      <c r="E101" s="8"/>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
@@ -2833,9 +3095,12 @@
       <c r="L101">
         <v>0.32569999999999999</v>
       </c>
+      <c r="M101" s="6">
+        <v>0.3382</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="7"/>
+      <c r="E102" s="8"/>
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
@@ -2857,7 +3122,9 @@
       <c r="L102" s="5">
         <v>0.42283999999999999</v>
       </c>
-      <c r="M102" s="5"/>
+      <c r="M102" s="5">
+        <v>0.52137500000000003</v>
+      </c>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
@@ -2865,7 +3132,7 @@
       <c r="R102" s="5"/>
     </row>
     <row r="103" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="7"/>
+      <c r="E103" s="8"/>
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
@@ -2887,7 +3154,9 @@
       <c r="L103" s="5">
         <v>0.69782</v>
       </c>
-      <c r="M103" s="5"/>
+      <c r="M103" s="5">
+        <v>0.72454099999999999</v>
+      </c>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
@@ -2895,7 +3164,7 @@
       <c r="R103" s="5"/>
     </row>
     <row r="104" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="7"/>
+      <c r="E104" s="8"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
@@ -2917,9 +3186,12 @@
       <c r="L104">
         <v>0.76700000000000002</v>
       </c>
+      <c r="M104" s="6">
+        <v>0.747</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="7"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
@@ -2941,9 +3213,12 @@
       <c r="L105">
         <v>0.752</v>
       </c>
+      <c r="M105" s="6">
+        <v>0.73199999999999998</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="7"/>
+      <c r="E106" s="8"/>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
@@ -2965,9 +3240,12 @@
       <c r="L106">
         <v>0.749</v>
       </c>
+      <c r="M106" s="6">
+        <v>0.72799999999999998</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="7"/>
+      <c r="E107" s="8"/>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
@@ -2989,9 +3267,12 @@
       <c r="L107">
         <v>0.88600000000000001</v>
       </c>
+      <c r="M107" s="6">
+        <v>0.85599999999999998</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="6">
+      <c r="E108" s="7">
         <v>2015</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -3015,9 +3296,12 @@
       <c r="L108">
         <v>6.23</v>
       </c>
+      <c r="M108" s="6">
+        <v>4.1900000000000004</v>
+      </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="7"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
@@ -3039,9 +3323,12 @@
       <c r="L109">
         <v>0.62070000000000003</v>
       </c>
+      <c r="M109" s="6">
+        <v>0.58830000000000005</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="7"/>
+      <c r="E110" s="8"/>
       <c r="F110" s="4" t="s">
         <v>13</v>
       </c>
@@ -3063,9 +3350,12 @@
       <c r="L110">
         <v>0.18340000000000001</v>
       </c>
+      <c r="M110" s="6">
+        <v>0.2261</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="7"/>
+      <c r="E111" s="8"/>
       <c r="F111" s="4" t="s">
         <v>14</v>
       </c>
@@ -3087,9 +3377,12 @@
       <c r="L111">
         <v>0.32550000000000001</v>
       </c>
+      <c r="M111" s="6">
+        <v>0.33689999999999998</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="7"/>
+      <c r="E112" s="8"/>
       <c r="F112" s="4" t="s">
         <v>15</v>
       </c>
@@ -3111,7 +3404,9 @@
       <c r="L112" s="5">
         <v>0.42064499999999999</v>
       </c>
-      <c r="M112" s="5"/>
+      <c r="M112" s="5">
+        <v>0.51843700000000004</v>
+      </c>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
@@ -3119,7 +3414,7 @@
       <c r="R112" s="5"/>
     </row>
     <row r="113" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="7"/>
+      <c r="E113" s="8"/>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -3141,7 +3436,9 @@
       <c r="L113" s="5">
         <v>0.69718999999999998</v>
       </c>
-      <c r="M113" s="5"/>
+      <c r="M113" s="5">
+        <v>0.72147399999999995</v>
+      </c>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
@@ -3149,7 +3446,7 @@
       <c r="R113" s="5"/>
     </row>
     <row r="114" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="7"/>
+      <c r="E114" s="8"/>
       <c r="F114" s="4" t="s">
         <v>17</v>
       </c>
@@ -3171,9 +3468,12 @@
       <c r="L114">
         <v>0.76700000000000002</v>
       </c>
+      <c r="M114" s="6">
+        <v>0.746</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="7"/>
+      <c r="E115" s="8"/>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
@@ -3195,9 +3495,12 @@
       <c r="L115">
         <v>0.752</v>
       </c>
+      <c r="M115" s="6">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="7"/>
+      <c r="E116" s="8"/>
       <c r="F116" s="4" t="s">
         <v>19</v>
       </c>
@@ -3219,9 +3522,12 @@
       <c r="L116">
         <v>0.749</v>
       </c>
+      <c r="M116" s="6">
+        <v>0.72699999999999998</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="7"/>
+      <c r="E117" s="8"/>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
@@ -3243,9 +3549,12 @@
       <c r="L117">
         <v>0.88700000000000001</v>
       </c>
+      <c r="M117" s="6">
+        <v>0.85899999999999999</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -3275,9 +3584,9 @@
         <f t="shared" si="0"/>
         <v>8.8145454545454545</v>
       </c>
-      <c r="M118" s="4" t="e">
+      <c r="M118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.9027272727272724</v>
       </c>
       <c r="N118" s="4" t="e">
         <f t="shared" si="0"/>
@@ -3297,7 +3606,7 @@
       </c>
     </row>
     <row r="119" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="7"/>
+      <c r="E119" s="8"/>
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
@@ -3325,9 +3634,9 @@
         <f t="shared" si="1"/>
         <v>0.65007272727272725</v>
       </c>
-      <c r="M119" s="4" t="e">
+      <c r="M119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.62470909090909088</v>
       </c>
       <c r="N119" s="4" t="e">
         <f t="shared" si="1"/>
@@ -3347,7 +3656,7 @@
       </c>
     </row>
     <row r="120" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="7"/>
+      <c r="E120" s="8"/>
       <c r="F120" s="4" t="s">
         <v>13</v>
       </c>
@@ -3375,9 +3684,9 @@
         <f t="shared" si="2"/>
         <v>0.17020909090909089</v>
       </c>
-      <c r="M120" s="4" t="e">
+      <c r="M120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.21137272727272727</v>
       </c>
       <c r="N120" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3397,7 +3706,7 @@
       </c>
     </row>
     <row r="121" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="7"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="4" t="s">
         <v>14</v>
       </c>
@@ -3425,9 +3734,9 @@
         <f t="shared" si="3"/>
         <v>0.31691818181818177</v>
       </c>
-      <c r="M121" s="4" t="e">
+      <c r="M121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.32648181818181815</v>
       </c>
       <c r="N121" s="4" t="e">
         <f t="shared" si="3"/>
@@ -3447,7 +3756,7 @@
       </c>
     </row>
     <row r="122" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="7"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
@@ -3475,9 +3784,9 @@
         <f t="shared" si="4"/>
         <v>0.38803772727272728</v>
       </c>
-      <c r="M122" s="5" t="e">
+      <c r="M122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.48176718181818179</v>
       </c>
       <c r="N122" s="5" t="e">
         <f t="shared" si="4"/>
@@ -3497,7 +3806,7 @@
       </c>
     </row>
     <row r="123" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="7"/>
+      <c r="E123" s="8"/>
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
@@ -3525,9 +3834,9 @@
         <f t="shared" si="5"/>
         <v>0.67660245454545453</v>
       </c>
-      <c r="M123" s="5" t="e">
+      <c r="M123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.6970068181818182</v>
       </c>
       <c r="N123" s="5" t="e">
         <f t="shared" si="5"/>
@@ -3547,7 +3856,7 @@
       </c>
     </row>
     <row r="124" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="7"/>
+      <c r="E124" s="8"/>
       <c r="F124" s="4" t="s">
         <v>17</v>
       </c>
@@ -3575,9 +3884,9 @@
         <f t="shared" si="6"/>
         <v>0.78600000000000003</v>
       </c>
-      <c r="M124" s="4" t="e">
+      <c r="M124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.76927272727272722</v>
       </c>
       <c r="N124" s="4" t="e">
         <f t="shared" si="6"/>
@@ -3597,7 +3906,7 @@
       </c>
     </row>
     <row r="125" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="7"/>
+      <c r="E125" s="8"/>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
@@ -3625,9 +3934,9 @@
         <f t="shared" si="7"/>
         <v>0.77009090909090905</v>
       </c>
-      <c r="M125" s="4" t="e">
+      <c r="M125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.75354545454545452</v>
       </c>
       <c r="N125" s="4" t="e">
         <f t="shared" si="7"/>
@@ -3647,7 +3956,7 @@
       </c>
     </row>
     <row r="126" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="7"/>
+      <c r="E126" s="8"/>
       <c r="F126" s="4" t="s">
         <v>19</v>
       </c>
@@ -3675,9 +3984,9 @@
         <f t="shared" si="8"/>
         <v>0.7661818181818183</v>
       </c>
-      <c r="M126" s="4" t="e">
+      <c r="M126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.74881818181818183</v>
       </c>
       <c r="N126" s="4" t="e">
         <f t="shared" si="8"/>
@@ -3697,7 +4006,7 @@
       </c>
     </row>
     <row r="127" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="7"/>
+      <c r="E127" s="8"/>
       <c r="F127" s="4" t="s">
         <v>20</v>
       </c>
@@ -3725,9 +4034,9 @@
         <f t="shared" si="9"/>
         <v>0.90018181818181808</v>
       </c>
-      <c r="M127" s="4" t="e">
+      <c r="M127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.87690909090909097</v>
       </c>
       <c r="N127" s="4" t="e">
         <f t="shared" si="9"/>
@@ -6389,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="N115" sqref="N115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O116" sqref="O116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6456,7 +6765,7 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>2005</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -6480,9 +6789,12 @@
       <c r="L8">
         <v>13.92</v>
       </c>
+      <c r="M8">
+        <v>7.67</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -6504,9 +6816,12 @@
       <c r="L9">
         <v>0.68540000000000001</v>
       </c>
+      <c r="M9">
+        <v>0.65920000000000001</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -6528,9 +6843,12 @@
       <c r="L10">
         <v>0.15029999999999999</v>
       </c>
+      <c r="M10">
+        <v>0.19869999999999999</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
@@ -6552,9 +6870,12 @@
       <c r="L11">
         <v>0.312</v>
       </c>
+      <c r="M11">
+        <v>0.31530000000000002</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
@@ -6576,7 +6897,9 @@
       <c r="L12" s="5">
         <v>0.33932200000000001</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5">
+        <v>0.44862000000000002</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -6584,7 +6907,7 @@
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
@@ -6606,7 +6929,9 @@
       <c r="L13" s="5">
         <v>0.66297899999999998</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5">
+        <v>0.66999600000000004</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -6614,7 +6939,7 @@
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
@@ -6636,9 +6961,12 @@
       <c r="L14">
         <v>0.80900000000000005</v>
       </c>
+      <c r="M14">
+        <v>0.79100000000000004</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
@@ -6660,9 +6988,12 @@
       <c r="L15">
         <v>0.79300000000000004</v>
       </c>
+      <c r="M15">
+        <v>0.77500000000000002</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
@@ -6684,9 +7015,12 @@
       <c r="L16">
         <v>0.78600000000000003</v>
       </c>
+      <c r="M16">
+        <v>0.76800000000000002</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
@@ -6708,9 +7042,12 @@
       <c r="L17">
         <v>0.91800000000000004</v>
       </c>
+      <c r="M17">
+        <v>0.89700000000000002</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>2006</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -6734,9 +7071,12 @@
       <c r="L18">
         <v>11.96</v>
       </c>
+      <c r="M18">
+        <v>5.53</v>
+      </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
@@ -6758,9 +7098,12 @@
       <c r="L19">
         <v>0.6905</v>
       </c>
+      <c r="M19">
+        <v>0.67369999999999997</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
@@ -6782,9 +7125,12 @@
       <c r="L20">
         <v>0.1552</v>
       </c>
+      <c r="M20">
+        <v>0.1956</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="7"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
@@ -6806,9 +7152,12 @@
       <c r="L21">
         <v>0.30080000000000001</v>
       </c>
+      <c r="M21">
+        <v>0.31309999999999999</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
@@ -6830,7 +7179,9 @@
       <c r="L22" s="5">
         <v>0.34984399999999999</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="5">
+        <v>0.44092500000000001</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -6838,7 +7189,7 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="7"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -6860,7 +7211,9 @@
       <c r="L23" s="5">
         <v>0.63871500000000003</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="5">
+        <v>0.66467500000000002</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -6868,7 +7221,7 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="7"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
@@ -6890,9 +7243,12 @@
       <c r="L24">
         <v>0.80700000000000005</v>
       </c>
+      <c r="M24">
+        <v>0.79500000000000004</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="7"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
@@ -6914,9 +7270,12 @@
       <c r="L25">
         <v>0.79500000000000004</v>
       </c>
+      <c r="M25">
+        <v>0.78300000000000003</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="7"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
@@ -6938,9 +7297,12 @@
       <c r="L26">
         <v>0.79200000000000004</v>
       </c>
+      <c r="M26">
+        <v>0.78100000000000003</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="7"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
@@ -6962,9 +7324,12 @@
       <c r="L27">
         <v>0.92</v>
       </c>
+      <c r="M27">
+        <v>0.89900000000000002</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>2007</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -6988,9 +7353,12 @@
       <c r="L28">
         <v>10.63</v>
       </c>
+      <c r="M28">
+        <v>4.12</v>
+      </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="7"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
@@ -7012,9 +7380,12 @@
       <c r="L29">
         <v>0.67720000000000002</v>
       </c>
+      <c r="M29">
+        <v>0.6623</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="7"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
@@ -7036,9 +7407,12 @@
       <c r="L30">
         <v>0.16</v>
       </c>
+      <c r="M30">
+        <v>0.20050000000000001</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="7"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
@@ -7060,9 +7434,12 @@
       <c r="L31">
         <v>0.30549999999999999</v>
       </c>
+      <c r="M31">
+        <v>0.31590000000000001</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="7"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
@@ -7084,7 +7461,9 @@
       <c r="L32" s="5">
         <v>0.36101699999999998</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="5">
+        <v>0.45231300000000002</v>
+      </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -7092,7 +7471,7 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="7"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -7114,7 +7493,9 @@
       <c r="L33" s="5">
         <v>0.64908299999999997</v>
       </c>
-      <c r="M33" s="5"/>
+      <c r="M33" s="5">
+        <v>0.67102700000000004</v>
+      </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -7122,7 +7503,7 @@
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="7"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
@@ -7144,9 +7525,12 @@
       <c r="L34">
         <v>0.80200000000000005</v>
       </c>
+      <c r="M34">
+        <v>0.79200000000000004</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="7"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
@@ -7168,9 +7552,12 @@
       <c r="L35">
         <v>0.78600000000000003</v>
       </c>
+      <c r="M35">
+        <v>0.77600000000000002</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="7"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
@@ -7192,9 +7579,12 @@
       <c r="L36">
         <v>0.78200000000000003</v>
       </c>
+      <c r="M36">
+        <v>0.77100000000000002</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="7"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
@@ -7216,9 +7606,12 @@
       <c r="L37">
         <v>0.91400000000000003</v>
       </c>
+      <c r="M37">
+        <v>0.89300000000000002</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>2008</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -7242,9 +7635,12 @@
       <c r="L38">
         <v>10.25</v>
       </c>
+      <c r="M38">
+        <v>23.75</v>
+      </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="7"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
@@ -7266,9 +7662,12 @@
       <c r="L39">
         <v>0.67020000000000002</v>
       </c>
+      <c r="M39">
+        <v>0.64610000000000001</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="7"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
@@ -7290,9 +7689,12 @@
       <c r="L40">
         <v>0.16220000000000001</v>
       </c>
+      <c r="M40">
+        <v>0.2039</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="7"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
@@ -7314,9 +7716,12 @@
       <c r="L41">
         <v>0.311</v>
       </c>
+      <c r="M41">
+        <v>0.32190000000000002</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="7"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
@@ -7338,7 +7743,9 @@
       <c r="L42" s="5">
         <v>0.36740299999999998</v>
       </c>
-      <c r="M42" s="5"/>
+      <c r="M42" s="5">
+        <v>0.46165</v>
+      </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -7346,7 +7753,7 @@
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="7"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -7368,7 +7775,9 @@
       <c r="L43" s="5">
         <v>0.66179500000000002</v>
       </c>
-      <c r="M43" s="5"/>
+      <c r="M43" s="5">
+        <v>0.68498000000000003</v>
+      </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -7376,7 +7785,7 @@
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="7"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
@@ -7398,9 +7807,12 @@
       <c r="L44">
         <v>0.79700000000000004</v>
       </c>
+      <c r="M44">
+        <v>0.78200000000000003</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="7"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
@@ -7422,9 +7834,12 @@
       <c r="L45">
         <v>0.78200000000000003</v>
       </c>
+      <c r="M45">
+        <v>0.76600000000000001</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="7"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
@@ -7446,9 +7861,12 @@
       <c r="L46">
         <v>0.77800000000000002</v>
       </c>
+      <c r="M46">
+        <v>0.76200000000000001</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="7"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
@@ -7470,9 +7888,12 @@
       <c r="L47">
         <v>0.91</v>
       </c>
+      <c r="M47">
+        <v>0.88600000000000001</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="6">
+      <c r="E48" s="7">
         <v>2009</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -7496,9 +7917,12 @@
       <c r="L48">
         <v>10.15</v>
       </c>
+      <c r="M48">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="7"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
@@ -7520,9 +7944,12 @@
       <c r="L49">
         <v>0.65480000000000005</v>
       </c>
+      <c r="M49">
+        <v>0.63329999999999997</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="7"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
@@ -7544,9 +7971,12 @@
       <c r="L50">
         <v>0.16750000000000001</v>
       </c>
+      <c r="M50">
+        <v>0.2082</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="7"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="4" t="s">
         <v>14</v>
       </c>
@@ -7568,9 +7998,12 @@
       <c r="L51">
         <v>0.31559999999999999</v>
       </c>
+      <c r="M51">
+        <v>0.32469999999999999</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="7"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
@@ -7592,7 +8025,9 @@
       <c r="L52" s="5">
         <v>0.381189</v>
       </c>
-      <c r="M52" s="5"/>
+      <c r="M52" s="5">
+        <v>0.47373799999999999</v>
+      </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -7600,7 +8035,7 @@
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="7"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
@@ -7622,7 +8057,9 @@
       <c r="L53" s="5">
         <v>0.67334000000000005</v>
       </c>
-      <c r="M53" s="5"/>
+      <c r="M53" s="5">
+        <v>0.69262000000000001</v>
+      </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -7630,7 +8067,7 @@
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="7"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
@@ -7652,9 +8089,12 @@
       <c r="L54">
         <v>0.77800000000000002</v>
       </c>
+      <c r="M54">
+        <v>0.77400000000000002</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="7"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
@@ -7676,9 +8116,12 @@
       <c r="L55">
         <v>0.77300000000000002</v>
       </c>
+      <c r="M55">
+        <v>0.75900000000000001</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="7"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
@@ -7700,9 +8143,12 @@
       <c r="L56">
         <v>0.76900000000000002</v>
       </c>
+      <c r="M56">
+        <v>0.754</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="7"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
@@ -7724,9 +8170,12 @@
       <c r="L57">
         <v>0.90300000000000002</v>
       </c>
+      <c r="M57">
+        <v>0.88100000000000001</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="6">
+      <c r="E58" s="7">
         <v>2010</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -7750,9 +8199,12 @@
       <c r="L58">
         <v>8.75</v>
       </c>
+      <c r="M58">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="7"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
@@ -7774,9 +8226,12 @@
       <c r="L59">
         <v>0.64500000000000002</v>
       </c>
+      <c r="M59">
+        <v>0.62760000000000005</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="7"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
@@ -7798,9 +8253,12 @@
       <c r="L60">
         <v>0.1726</v>
       </c>
+      <c r="M60">
+        <v>0.20880000000000001</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="7"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
@@ -7822,9 +8280,12 @@
       <c r="L61">
         <v>0.31909999999999999</v>
       </c>
+      <c r="M61">
+        <v>0.32450000000000001</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="7"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
@@ -7846,7 +8307,9 @@
       <c r="L62" s="5">
         <v>0.39580700000000002</v>
       </c>
-      <c r="M62" s="5"/>
+      <c r="M62" s="5">
+        <v>0.47876400000000002</v>
+      </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
@@ -7854,7 +8317,7 @@
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="7"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -7876,7 +8339,9 @@
       <c r="L63" s="5">
         <v>0.68344199999999999</v>
       </c>
-      <c r="M63" s="5"/>
+      <c r="M63" s="5">
+        <v>0.69492699999999996</v>
+      </c>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
@@ -7884,7 +8349,7 @@
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="7"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
@@ -7906,9 +8371,12 @@
       <c r="L64">
         <v>0.78500000000000003</v>
       </c>
+      <c r="M64">
+        <v>0.77300000000000002</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="7"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
@@ -7930,9 +8398,12 @@
       <c r="L65">
         <v>0.76900000000000002</v>
       </c>
+      <c r="M65">
+        <v>0.75800000000000001</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="7"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="4" t="s">
         <v>19</v>
       </c>
@@ -7954,9 +8425,12 @@
       <c r="L66">
         <v>0.76400000000000001</v>
       </c>
+      <c r="M66">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="7"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
@@ -7978,9 +8452,12 @@
       <c r="L67">
         <v>0.89500000000000002</v>
       </c>
+      <c r="M67">
+        <v>0.879</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="6">
+      <c r="E68" s="7">
         <v>2011</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -8004,9 +8481,12 @@
       <c r="L68">
         <v>8.6199999999999992</v>
       </c>
+      <c r="M68">
+        <v>3.66</v>
+      </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="7"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
@@ -8028,9 +8508,12 @@
       <c r="L69">
         <v>0.6351</v>
       </c>
+      <c r="M69">
+        <v>0.60609999999999997</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="7"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="4" t="s">
         <v>13</v>
       </c>
@@ -8052,9 +8535,12 @@
       <c r="L70">
         <v>0.17199999999999999</v>
       </c>
+      <c r="M70">
+        <v>0.217</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="7"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="4" t="s">
         <v>14</v>
       </c>
@@ -8076,9 +8562,12 @@
       <c r="L71">
         <v>0.3286</v>
       </c>
+      <c r="M71">
+        <v>0.32979999999999998</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="7"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
@@ -8100,7 +8589,9 @@
       <c r="L72" s="5">
         <v>0.39311800000000002</v>
       </c>
-      <c r="M72" s="5"/>
+      <c r="M72" s="5">
+        <v>0.49611300000000003</v>
+      </c>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -8108,7 +8599,7 @@
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="7"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
@@ -8130,7 +8621,9 @@
       <c r="L73" s="5">
         <v>0.70252599999999998</v>
       </c>
-      <c r="M73" s="5"/>
+      <c r="M73" s="5">
+        <v>0.70509200000000005</v>
+      </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
@@ -8138,7 +8631,7 @@
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="7"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="4" t="s">
         <v>17</v>
       </c>
@@ -8160,9 +8653,12 @@
       <c r="L74">
         <v>0.78300000000000003</v>
       </c>
+      <c r="M74">
+        <v>0.76600000000000001</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="7"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
@@ -8184,9 +8680,12 @@
       <c r="L75">
         <v>0.76100000000000001</v>
       </c>
+      <c r="M75">
+        <v>0.74199999999999999</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="7"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="4" t="s">
         <v>19</v>
       </c>
@@ -8208,9 +8707,12 @@
       <c r="L76">
         <v>0.755</v>
       </c>
+      <c r="M76">
+        <v>0.73299999999999998</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="7"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
@@ -8232,9 +8734,12 @@
       <c r="L77">
         <v>0.89400000000000002</v>
       </c>
+      <c r="M77">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="6">
+      <c r="E78" s="7">
         <v>2012</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -8258,9 +8763,12 @@
       <c r="L78">
         <v>6.76</v>
       </c>
+      <c r="M78">
+        <v>3.98</v>
+      </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="7"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="4" t="s">
         <v>12</v>
       </c>
@@ -8282,9 +8790,12 @@
       <c r="L79">
         <v>0.61850000000000005</v>
       </c>
+      <c r="M79">
+        <v>0.59099999999999997</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="7"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="4" t="s">
         <v>13</v>
       </c>
@@ -8306,9 +8817,12 @@
       <c r="L80">
         <v>0.1754</v>
       </c>
+      <c r="M80">
+        <v>0.2266</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="7"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="4" t="s">
         <v>14</v>
       </c>
@@ -8330,9 +8844,12 @@
       <c r="L81">
         <v>0.34029999999999999</v>
       </c>
+      <c r="M81">
+        <v>0.33350000000000002</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="7"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
@@ -8354,7 +8871,9 @@
       <c r="L82" s="5">
         <v>0.40301900000000002</v>
       </c>
-      <c r="M82" s="5"/>
+      <c r="M82" s="5">
+        <v>0.52073899999999995</v>
+      </c>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
@@ -8362,7 +8881,7 @@
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="7"/>
+      <c r="E83" s="8"/>
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
@@ -8384,7 +8903,9 @@
       <c r="L83" s="5">
         <v>0.72953400000000002</v>
       </c>
-      <c r="M83" s="5"/>
+      <c r="M83" s="5">
+        <v>0.71508899999999997</v>
+      </c>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -8392,7 +8913,7 @@
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="7"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="4" t="s">
         <v>17</v>
       </c>
@@ -8414,9 +8935,12 @@
       <c r="L84">
         <v>0.78600000000000003</v>
       </c>
+      <c r="M84">
+        <v>0.751</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="7"/>
+      <c r="E85" s="8"/>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
@@ -8438,9 +8962,12 @@
       <c r="L85">
         <v>0.75</v>
       </c>
+      <c r="M85">
+        <v>0.73299999999999998</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="7"/>
+      <c r="E86" s="8"/>
       <c r="F86" s="4" t="s">
         <v>19</v>
       </c>
@@ -8462,9 +8989,12 @@
       <c r="L86">
         <v>0.74099999999999999</v>
       </c>
+      <c r="M86">
+        <v>0.72799999999999998</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="7"/>
+      <c r="E87" s="8"/>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
@@ -8486,9 +9016,12 @@
       <c r="L87">
         <v>0.88700000000000001</v>
       </c>
+      <c r="M87">
+        <v>0.86599999999999999</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="6">
+      <c r="E88" s="7">
         <v>2013</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -8512,9 +9045,12 @@
       <c r="L88">
         <v>7.04</v>
       </c>
+      <c r="M88">
+        <v>3.29</v>
+      </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="7"/>
+      <c r="E89" s="8"/>
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
@@ -8536,9 +9072,12 @@
       <c r="L89">
         <v>0.61450000000000005</v>
       </c>
+      <c r="M89">
+        <v>0.59460000000000002</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="7"/>
+      <c r="E90" s="8"/>
       <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
@@ -8560,9 +9099,12 @@
       <c r="L90">
         <v>0.1784</v>
       </c>
+      <c r="M90">
+        <v>0.22259999999999999</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="7"/>
+      <c r="E91" s="8"/>
       <c r="F91" s="4" t="s">
         <v>14</v>
       </c>
@@ -8584,9 +9126,12 @@
       <c r="L91">
         <v>0.34379999999999999</v>
       </c>
+      <c r="M91">
+        <v>0.33179999999999998</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="7"/>
+      <c r="E92" s="8"/>
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
@@ -8608,7 +9153,9 @@
       <c r="L92" s="5">
         <v>0.40886400000000001</v>
       </c>
-      <c r="M92" s="5"/>
+      <c r="M92" s="5">
+        <v>0.51007400000000003</v>
+      </c>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
@@ -8616,7 +9163,7 @@
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="7"/>
+      <c r="E93" s="8"/>
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
@@ -8638,7 +9185,9 @@
       <c r="L93" s="5">
         <v>0.73587000000000002</v>
       </c>
-      <c r="M93" s="5"/>
+      <c r="M93" s="5">
+        <v>0.71031900000000003</v>
+      </c>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
@@ -8646,7 +9195,7 @@
       <c r="R93" s="5"/>
     </row>
     <row r="94" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="7"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="4" t="s">
         <v>17</v>
       </c>
@@ -8668,9 +9217,12 @@
       <c r="L94">
         <v>0.78200000000000003</v>
       </c>
+      <c r="M94">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="7"/>
+      <c r="E95" s="8"/>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
@@ -8692,9 +9244,12 @@
       <c r="L95">
         <v>0.747</v>
       </c>
+      <c r="M95">
+        <v>0.73399999999999999</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="7"/>
+      <c r="E96" s="8"/>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
@@ -8716,9 +9271,12 @@
       <c r="L96">
         <v>0.73699999999999999</v>
       </c>
+      <c r="M96">
+        <v>0.72899999999999998</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="7"/>
+      <c r="E97" s="8"/>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
@@ -8740,9 +9298,12 @@
       <c r="L97">
         <v>0.88500000000000001</v>
       </c>
+      <c r="M97">
+        <v>0.86799999999999999</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="6">
+      <c r="E98" s="7">
         <v>2014</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -8766,9 +9327,12 @@
       <c r="L98">
         <v>8.07</v>
       </c>
+      <c r="M98">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="7"/>
+      <c r="E99" s="8"/>
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
@@ -8790,9 +9354,12 @@
       <c r="L99">
         <v>0.60419999999999996</v>
       </c>
+      <c r="M99">
+        <v>0.58120000000000005</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="7"/>
+      <c r="E100" s="8"/>
       <c r="F100" s="4" t="s">
         <v>13</v>
       </c>
@@ -8814,9 +9381,12 @@
       <c r="L100">
         <v>0.18379999999999999</v>
       </c>
+      <c r="M100">
+        <v>0.23380000000000001</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="7"/>
+      <c r="E101" s="8"/>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
@@ -8838,9 +9408,12 @@
       <c r="L101">
         <v>0.34350000000000003</v>
       </c>
+      <c r="M101">
+        <v>0.3362</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="7"/>
+      <c r="E102" s="8"/>
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
@@ -8862,7 +9435,9 @@
       <c r="L102" s="5">
         <v>0.42182700000000001</v>
       </c>
-      <c r="M102" s="5"/>
+      <c r="M102" s="5">
+        <v>0.53666199999999997</v>
+      </c>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
@@ -8870,7 +9445,7 @@
       <c r="R102" s="5"/>
     </row>
     <row r="103" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="7"/>
+      <c r="E103" s="8"/>
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
@@ -8892,7 +9467,9 @@
       <c r="L103" s="5">
         <v>0.73590900000000004</v>
       </c>
-      <c r="M103" s="5"/>
+      <c r="M103" s="5">
+        <v>0.72033899999999995</v>
+      </c>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
@@ -8900,7 +9477,7 @@
       <c r="R103" s="5"/>
     </row>
     <row r="104" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="7"/>
+      <c r="E104" s="8"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
@@ -8922,9 +9499,12 @@
       <c r="L104">
         <v>0.76700000000000002</v>
       </c>
+      <c r="M104">
+        <v>0.748</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="7"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
@@ -8946,9 +9526,12 @@
       <c r="L105">
         <v>0.74099999999999999</v>
       </c>
+      <c r="M105">
+        <v>0.72599999999999998</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="7"/>
+      <c r="E106" s="8"/>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
@@ -8970,9 +9553,12 @@
       <c r="L106">
         <v>0.73299999999999998</v>
       </c>
+      <c r="M106">
+        <v>0.71899999999999997</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="7"/>
+      <c r="E107" s="8"/>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
@@ -8994,9 +9580,12 @@
       <c r="L107">
         <v>0.879</v>
       </c>
+      <c r="M107">
+        <v>0.86099999999999999</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="6">
+      <c r="E108" s="7">
         <v>2015</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -9020,9 +9609,12 @@
       <c r="L108">
         <v>7.16</v>
       </c>
+      <c r="M108">
+        <v>3.77</v>
+      </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="7"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
@@ -9044,9 +9636,12 @@
       <c r="L109">
         <v>0.60909999999999997</v>
       </c>
+      <c r="M109">
+        <v>0.57679999999999998</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="7"/>
+      <c r="E110" s="8"/>
       <c r="F110" s="4" t="s">
         <v>13</v>
       </c>
@@ -9068,9 +9663,12 @@
       <c r="L110">
         <v>0.18149999999999999</v>
       </c>
+      <c r="M110">
+        <v>0.22969999999999999</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="7"/>
+      <c r="E111" s="8"/>
       <c r="F111" s="4" t="s">
         <v>14</v>
       </c>
@@ -9092,9 +9690,12 @@
       <c r="L111">
         <v>0.34050000000000002</v>
       </c>
+      <c r="M111">
+        <v>0.33650000000000002</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="7"/>
+      <c r="E112" s="8"/>
       <c r="F112" s="4" t="s">
         <v>15</v>
       </c>
@@ -9116,7 +9717,9 @@
       <c r="L112" s="5">
         <v>0.41622799999999999</v>
       </c>
-      <c r="M112" s="5"/>
+      <c r="M112" s="5">
+        <v>0.57672999999999996</v>
+      </c>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
@@ -9124,7 +9727,7 @@
       <c r="R112" s="5"/>
     </row>
     <row r="113" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="7"/>
+      <c r="E113" s="8"/>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -9146,7 +9749,9 @@
       <c r="L113" s="5">
         <v>0.72921400000000003</v>
       </c>
-      <c r="M113" s="5"/>
+      <c r="M113" s="5">
+        <v>0.72064600000000001</v>
+      </c>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
@@ -9154,7 +9759,7 @@
       <c r="R113" s="5"/>
     </row>
     <row r="114" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="7"/>
+      <c r="E114" s="8"/>
       <c r="F114" s="4" t="s">
         <v>17</v>
       </c>
@@ -9176,9 +9781,12 @@
       <c r="L114">
         <v>0.77200000000000002</v>
       </c>
+      <c r="M114">
+        <v>0.74299999999999999</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="7"/>
+      <c r="E115" s="8"/>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
@@ -9200,9 +9808,12 @@
       <c r="L115">
         <v>0.74399999999999999</v>
       </c>
+      <c r="M115">
+        <v>0.72299999999999998</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="7"/>
+      <c r="E116" s="8"/>
       <c r="F116" s="4" t="s">
         <v>19</v>
       </c>
@@ -9224,9 +9835,12 @@
       <c r="L116">
         <v>0.73599999999999999</v>
       </c>
+      <c r="M116">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="7"/>
+      <c r="E117" s="8"/>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
@@ -9248,9 +9862,12 @@
       <c r="L117">
         <v>0.88300000000000001</v>
       </c>
+      <c r="M117">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -9280,9 +9897,9 @@
         <f t="shared" si="0"/>
         <v>9.3918181818181825</v>
       </c>
-      <c r="M118" s="4" t="e">
+      <c r="M118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.7018181818181821</v>
       </c>
       <c r="N118" s="4" t="e">
         <f t="shared" si="0"/>
@@ -9302,7 +9919,7 @@
       </c>
     </row>
     <row r="119" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="7"/>
+      <c r="E119" s="8"/>
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
@@ -9330,9 +9947,9 @@
         <f t="shared" si="1"/>
         <v>0.64586363636363631</v>
       </c>
-      <c r="M119" s="4" t="e">
+      <c r="M119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.62290000000000001</v>
       </c>
       <c r="N119" s="4" t="e">
         <f t="shared" si="1"/>
@@ -9352,7 +9969,7 @@
       </c>
     </row>
     <row r="120" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="7"/>
+      <c r="E120" s="8"/>
       <c r="F120" s="4" t="s">
         <v>13</v>
       </c>
@@ -9380,9 +9997,9 @@
         <f t="shared" si="2"/>
         <v>0.16899090909090908</v>
       </c>
-      <c r="M120" s="4" t="e">
+      <c r="M120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.21321818181818178</v>
       </c>
       <c r="N120" s="4" t="e">
         <f t="shared" si="2"/>
@@ -9402,7 +10019,7 @@
       </c>
     </row>
     <row r="121" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="7"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="4" t="s">
         <v>14</v>
       </c>
@@ -9430,9 +10047,9 @@
         <f t="shared" si="3"/>
         <v>0.32370000000000004</v>
       </c>
-      <c r="M121" s="4" t="e">
+      <c r="M121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.3257454545454545</v>
       </c>
       <c r="N121" s="4" t="e">
         <f t="shared" si="3"/>
@@ -9452,7 +10069,7 @@
       </c>
     </row>
     <row r="122" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="7"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
@@ -9480,9 +10097,9 @@
         <f t="shared" si="4"/>
         <v>0.38523981818181813</v>
       </c>
-      <c r="M122" s="5" t="e">
+      <c r="M122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.49057527272727275</v>
       </c>
       <c r="N122" s="5" t="e">
         <f t="shared" si="4"/>
@@ -9502,7 +10119,7 @@
       </c>
     </row>
     <row r="123" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="7"/>
+      <c r="E123" s="8"/>
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
@@ -9530,9 +10147,9 @@
         <f t="shared" si="5"/>
         <v>0.69112790909090915</v>
       </c>
-      <c r="M123" s="5" t="e">
+      <c r="M123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.69542818181818189</v>
       </c>
       <c r="N123" s="5" t="e">
         <f t="shared" si="5"/>
@@ -9552,7 +10169,7 @@
       </c>
     </row>
     <row r="124" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="7"/>
+      <c r="E124" s="8"/>
       <c r="F124" s="4" t="s">
         <v>17</v>
       </c>
@@ -9580,9 +10197,9 @@
         <f t="shared" si="6"/>
         <v>0.78800000000000014</v>
       </c>
-      <c r="M124" s="4" t="e">
+      <c r="M124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.76972727272727282</v>
       </c>
       <c r="N124" s="4" t="e">
         <f t="shared" si="6"/>
@@ -9602,7 +10219,7 @@
       </c>
     </row>
     <row r="125" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="7"/>
+      <c r="E125" s="8"/>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
@@ -9630,9 +10247,9 @@
         <f t="shared" si="7"/>
         <v>0.76736363636363647</v>
       </c>
-      <c r="M125" s="4" t="e">
+      <c r="M125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.75227272727272732</v>
       </c>
       <c r="N125" s="4" t="e">
         <f t="shared" si="7"/>
@@ -9652,7 +10269,7 @@
       </c>
     </row>
     <row r="126" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="7"/>
+      <c r="E126" s="8"/>
       <c r="F126" s="4" t="s">
         <v>19</v>
       </c>
@@ -9680,9 +10297,9 @@
         <f t="shared" si="8"/>
         <v>0.76118181818181807</v>
       </c>
-      <c r="M126" s="4" t="e">
+      <c r="M126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.74663636363636354</v>
       </c>
       <c r="N126" s="4" t="e">
         <f t="shared" si="8"/>
@@ -9702,7 +10319,7 @@
       </c>
     </row>
     <row r="127" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="7"/>
+      <c r="E127" s="8"/>
       <c r="F127" s="4" t="s">
         <v>20</v>
       </c>
@@ -9730,9 +10347,9 @@
         <f t="shared" si="9"/>
         <v>0.8989090909090911</v>
       </c>
-      <c r="M127" s="4" t="e">
+      <c r="M127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.87818181818181817</v>
       </c>
       <c r="N127" s="4" t="e">
         <f t="shared" si="9"/>

--- a/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
+++ b/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -159,6 +159,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -384,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="O109" sqref="O109"/>
+    <sheetView topLeftCell="B91" workbookViewId="0">
+      <selection activeCell="Q110" sqref="Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -452,7 +453,7 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>2005</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -479,9 +480,12 @@
       <c r="M8">
         <v>5.0199999999999996</v>
       </c>
+      <c r="N8">
+        <v>89.58</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="8"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -506,9 +510,12 @@
       <c r="M9">
         <v>0.66349999999999998</v>
       </c>
+      <c r="N9">
+        <v>0.61699999999999999</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -533,9 +540,12 @@
       <c r="M10">
         <v>0.1973</v>
       </c>
+      <c r="N10">
+        <v>0.18679999999999999</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
@@ -560,9 +570,12 @@
       <c r="M11">
         <v>0.31690000000000002</v>
       </c>
+      <c r="N11">
+        <v>0.35830000000000001</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
@@ -587,14 +600,16 @@
       <c r="M12" s="5">
         <v>0.44548399999999999</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5">
+        <v>0.421736</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
@@ -619,14 +634,16 @@
       <c r="M13" s="5">
         <v>0.67352800000000002</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="5">
+        <v>0.76140600000000003</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
@@ -651,9 +668,12 @@
       <c r="M14">
         <v>0.79</v>
       </c>
+      <c r="N14">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
@@ -678,9 +698,12 @@
       <c r="M15">
         <v>0.77800000000000002</v>
       </c>
+      <c r="N15">
+        <v>0.747</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
@@ -705,9 +728,12 @@
       <c r="M16">
         <v>0.77300000000000002</v>
       </c>
+      <c r="N16">
+        <v>0.746</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
@@ -732,9 +758,12 @@
       <c r="M17">
         <v>0.89400000000000002</v>
       </c>
+      <c r="N17">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>2006</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -761,9 +790,12 @@
       <c r="M18">
         <v>5.88</v>
       </c>
+      <c r="N18">
+        <v>79.599999999999994</v>
+      </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="8"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
@@ -788,9 +820,12 @@
       <c r="M19">
         <v>0.66639999999999999</v>
       </c>
+      <c r="N19">
+        <v>0.62660000000000005</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="8"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
@@ -815,9 +850,12 @@
       <c r="M20">
         <v>0.1956</v>
       </c>
+      <c r="N20">
+        <v>0.1832</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="8"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
@@ -842,9 +880,12 @@
       <c r="M21">
         <v>0.3135</v>
       </c>
+      <c r="N21">
+        <v>0.35520000000000002</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
@@ -869,14 +910,16 @@
       <c r="M22" s="5">
         <v>0.44074099999999999</v>
       </c>
-      <c r="N22" s="5"/>
+      <c r="N22" s="5">
+        <v>0.41289399999999998</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="8"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -901,14 +944,16 @@
       <c r="M23" s="5">
         <v>0.66564299999999998</v>
       </c>
-      <c r="N23" s="5"/>
+      <c r="N23" s="5">
+        <v>0.75423399999999996</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="8"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
@@ -933,9 +978,12 @@
       <c r="M24">
         <v>0.79100000000000004</v>
       </c>
+      <c r="N24">
+        <v>0.75800000000000001</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="8"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
@@ -960,9 +1008,12 @@
       <c r="M25">
         <v>0.77900000000000003</v>
       </c>
+      <c r="N25">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="8"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
@@ -987,9 +1038,12 @@
       <c r="M26">
         <v>0.77500000000000002</v>
       </c>
+      <c r="N26">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="8"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1014,9 +1068,12 @@
       <c r="M27">
         <v>0.89900000000000002</v>
       </c>
+      <c r="N27">
+        <v>0.86499999999999999</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>2007</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1043,9 +1100,12 @@
       <c r="M28">
         <v>6.63</v>
       </c>
+      <c r="N28">
+        <v>65.010000000000005</v>
+      </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="8"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1070,9 +1130,12 @@
       <c r="M29">
         <v>0.65390000000000004</v>
       </c>
+      <c r="N29">
+        <v>0.6139</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="8"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1097,9 +1160,12 @@
       <c r="M30">
         <v>0.2001</v>
       </c>
+      <c r="N30">
+        <v>0.18920000000000001</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="8"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1124,9 +1190,12 @@
       <c r="M31">
         <v>0.31840000000000002</v>
       </c>
+      <c r="N31">
+        <v>0.36030000000000001</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="8"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
@@ -1151,14 +1220,16 @@
       <c r="M32" s="5">
         <v>0.45145000000000002</v>
       </c>
-      <c r="N32" s="5"/>
+      <c r="N32" s="5">
+        <v>0.42687199999999997</v>
+      </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="8"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -1183,14 +1254,16 @@
       <c r="M33" s="5">
         <v>0.67634399999999995</v>
       </c>
-      <c r="N33" s="5"/>
+      <c r="N33" s="5">
+        <v>0.76533399999999996</v>
+      </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="8"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
@@ -1215,9 +1288,12 @@
       <c r="M34">
         <v>0.78700000000000003</v>
       </c>
+      <c r="N34">
+        <v>0.749</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="8"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
@@ -1242,9 +1318,12 @@
       <c r="M35">
         <v>0.77100000000000002</v>
       </c>
+      <c r="N35">
+        <v>0.74399999999999999</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="8"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
@@ -1269,9 +1348,12 @@
       <c r="M36">
         <v>0.76500000000000001</v>
       </c>
+      <c r="N36">
+        <v>0.74399999999999999</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="8"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
@@ -1296,9 +1378,12 @@
       <c r="M37">
         <v>0.89100000000000001</v>
       </c>
+      <c r="N37">
+        <v>0.85799999999999998</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <v>2008</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1325,9 +1410,12 @@
       <c r="M38">
         <v>4.22</v>
       </c>
+      <c r="N38">
+        <v>73.680000000000007</v>
+      </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="8"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
@@ -1352,9 +1440,12 @@
       <c r="M39">
         <v>0.6522</v>
       </c>
+      <c r="N39">
+        <v>0.59109999999999996</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="8"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
@@ -1379,9 +1470,12 @@
       <c r="M40">
         <v>0.2011</v>
       </c>
+      <c r="N40">
+        <v>0.1961</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="8"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
@@ -1406,9 +1500,12 @@
       <c r="M41">
         <v>0.31979999999999997</v>
       </c>
+      <c r="N41">
+        <v>0.37219999999999998</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="8"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1433,14 +1530,16 @@
       <c r="M42" s="5">
         <v>0.45549000000000001</v>
       </c>
-      <c r="N42" s="5"/>
+      <c r="N42" s="5">
+        <v>0.443994</v>
+      </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="8"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -1465,14 +1564,16 @@
       <c r="M43" s="5">
         <v>0.68054999999999999</v>
       </c>
-      <c r="N43" s="5"/>
+      <c r="N43" s="5">
+        <v>0.79210800000000003</v>
+      </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="8"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
@@ -1497,9 +1598,12 @@
       <c r="M44">
         <v>0.78600000000000003</v>
       </c>
+      <c r="N44">
+        <v>0.73499999999999999</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="8"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
@@ -1524,9 +1628,12 @@
       <c r="M45">
         <v>0.77</v>
       </c>
+      <c r="N45">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="8"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
@@ -1551,9 +1658,12 @@
       <c r="M46">
         <v>0.76600000000000001</v>
       </c>
+      <c r="N46">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="8"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
@@ -1578,9 +1688,12 @@
       <c r="M47">
         <v>0.88900000000000001</v>
       </c>
+      <c r="N47">
+        <v>0.84399999999999997</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="7">
+      <c r="E48" s="8">
         <v>2009</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -1607,9 +1720,12 @@
       <c r="M48">
         <v>4.47</v>
       </c>
+      <c r="N48">
+        <v>67.930000000000007</v>
+      </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="8"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
@@ -1634,9 +1750,12 @@
       <c r="M49">
         <v>0.6331</v>
       </c>
+      <c r="N49">
+        <v>0.5877</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="8"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
@@ -1661,9 +1780,12 @@
       <c r="M50">
         <v>0.2097</v>
       </c>
+      <c r="N50">
+        <v>0.1973</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="8"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="4" t="s">
         <v>14</v>
       </c>
@@ -1688,9 +1810,12 @@
       <c r="M51">
         <v>0.32490000000000002</v>
       </c>
+      <c r="N51">
+        <v>0.36840000000000001</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="8"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
@@ -1715,14 +1840,16 @@
       <c r="M52" s="5">
         <v>0.47708400000000001</v>
       </c>
-      <c r="N52" s="5"/>
+      <c r="N52" s="5">
+        <v>0.448876</v>
+      </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="8"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
@@ -1747,14 +1874,16 @@
       <c r="M53" s="5">
         <v>0.69314500000000001</v>
       </c>
-      <c r="N53" s="5"/>
+      <c r="N53" s="5">
+        <v>0.78595700000000002</v>
+      </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="8"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
@@ -1779,9 +1908,12 @@
       <c r="M54">
         <v>0.77500000000000002</v>
       </c>
+      <c r="N54">
+        <v>0.73299999999999998</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="8"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
@@ -1806,9 +1938,12 @@
       <c r="M55">
         <v>0.75900000000000001</v>
       </c>
+      <c r="N55">
+        <v>0.72899999999999998</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="8"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
@@ -1833,9 +1968,12 @@
       <c r="M56">
         <v>0.754</v>
       </c>
+      <c r="N56">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="8"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
@@ -1860,9 +1998,12 @@
       <c r="M57">
         <v>0.88</v>
       </c>
+      <c r="N57">
+        <v>0.84399999999999997</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="7">
+      <c r="E58" s="8">
         <v>2010</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -1889,9 +2030,12 @@
       <c r="M58">
         <v>5.94</v>
       </c>
+      <c r="N58">
+        <v>54.48</v>
+      </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="8"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
@@ -1916,9 +2060,12 @@
       <c r="M59">
         <v>0.62509999999999999</v>
       </c>
+      <c r="N59">
+        <v>0.8518</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="8"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
@@ -1943,9 +2090,12 @@
       <c r="M60">
         <v>0.2094</v>
       </c>
+      <c r="N60">
+        <v>7.2900000000000006E-2</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="8"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
@@ -1970,9 +2120,12 @@
       <c r="M61">
         <v>0.32500000000000001</v>
       </c>
+      <c r="N61">
+        <v>0.24310000000000001</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="8"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
@@ -1997,14 +2150,16 @@
       <c r="M62" s="5">
         <v>0.48010900000000001</v>
       </c>
-      <c r="N62" s="5"/>
+      <c r="N62" s="5">
+        <v>0.167103</v>
+      </c>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="8"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -2029,14 +2184,16 @@
       <c r="M63" s="5">
         <v>0.69595300000000004</v>
       </c>
-      <c r="N63" s="5"/>
+      <c r="N63" s="5">
+        <v>0.52072499999999999</v>
+      </c>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="8"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
@@ -2061,9 +2218,12 @@
       <c r="M64">
         <v>0.77200000000000002</v>
       </c>
+      <c r="N64">
+        <v>0.91200000000000003</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="8"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
@@ -2088,9 +2248,12 @@
       <c r="M65">
         <v>0.75600000000000001</v>
       </c>
+      <c r="N65">
+        <v>0.90300000000000002</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="8"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="4" t="s">
         <v>19</v>
       </c>
@@ -2115,9 +2278,12 @@
       <c r="M66">
         <v>0.75</v>
       </c>
+      <c r="N66">
+        <v>0.90300000000000002</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="8"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
@@ -2142,9 +2308,12 @@
       <c r="M67">
         <v>0.879</v>
       </c>
+      <c r="N67">
+        <v>0.94599999999999995</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="7">
+      <c r="E68" s="8">
         <v>2011</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -2171,9 +2340,12 @@
       <c r="M68">
         <v>4.55</v>
       </c>
+      <c r="N68">
+        <v>32.07</v>
+      </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="8"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
@@ -2198,9 +2370,12 @@
       <c r="M69" s="6">
         <v>0.6109</v>
       </c>
+      <c r="N69" s="7">
+        <v>0.56579999999999997</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="8"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="4" t="s">
         <v>13</v>
       </c>
@@ -2225,9 +2400,12 @@
       <c r="M70" s="6">
         <v>0.21659999999999999</v>
       </c>
+      <c r="N70" s="7">
+        <v>0.2072</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="8"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="4" t="s">
         <v>14</v>
       </c>
@@ -2252,9 +2430,12 @@
       <c r="M71" s="6">
         <v>0.33110000000000001</v>
       </c>
+      <c r="N71" s="7">
+        <v>0.37390000000000001</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="8"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
@@ -2279,14 +2460,16 @@
       <c r="M72" s="5">
         <v>0.49500300000000003</v>
       </c>
-      <c r="N72" s="5"/>
+      <c r="N72" s="5">
+        <v>0.47360099999999999</v>
+      </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="8"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
@@ -2311,14 +2494,16 @@
       <c r="M73" s="5">
         <v>0.70794100000000004</v>
       </c>
-      <c r="N73" s="5"/>
+      <c r="N73" s="5">
+        <v>0.79937800000000003</v>
+      </c>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="8"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="4" t="s">
         <v>17</v>
       </c>
@@ -2343,9 +2528,12 @@
       <c r="M74" s="6">
         <v>0.76400000000000001</v>
       </c>
+      <c r="N74" s="7">
+        <v>0.72099999999999997</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="8"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
@@ -2370,9 +2558,12 @@
       <c r="M75" s="6">
         <v>0.745</v>
       </c>
+      <c r="N75" s="7">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="8"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="4" t="s">
         <v>19</v>
       </c>
@@ -2397,9 +2588,12 @@
       <c r="M76" s="6">
         <v>0.73899999999999999</v>
       </c>
+      <c r="N76" s="7">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="8"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
@@ -2424,9 +2618,12 @@
       <c r="M77" s="6">
         <v>0.87</v>
       </c>
+      <c r="N77" s="7">
+        <v>0.83199999999999996</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="7">
+      <c r="E78" s="8">
         <v>2012</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -2453,9 +2650,12 @@
       <c r="M78" s="6">
         <v>4.1900000000000004</v>
       </c>
+      <c r="N78" s="7">
+        <v>32.119999999999997</v>
+      </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="8"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="4" t="s">
         <v>12</v>
       </c>
@@ -2480,9 +2680,12 @@
       <c r="M79" s="6">
         <v>0.59660000000000002</v>
       </c>
+      <c r="N79" s="7">
+        <v>0.55600000000000005</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="8"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="4" t="s">
         <v>13</v>
       </c>
@@ -2507,9 +2710,12 @@
       <c r="M80" s="6">
         <v>0.21870000000000001</v>
       </c>
+      <c r="N80" s="7">
+        <v>0.2094</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="8"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="4" t="s">
         <v>14</v>
       </c>
@@ -2534,9 +2740,12 @@
       <c r="M81" s="6">
         <v>0.33239999999999997</v>
       </c>
+      <c r="N81" s="7">
+        <v>0.37990000000000002</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="8"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
@@ -2561,14 +2770,16 @@
       <c r="M82" s="5">
         <v>0.502722</v>
       </c>
-      <c r="N82" s="5"/>
+      <c r="N82" s="5">
+        <v>0.48119699999999999</v>
+      </c>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="8"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
@@ -2593,14 +2804,16 @@
       <c r="M83" s="5">
         <v>0.71255299999999999</v>
       </c>
-      <c r="N83" s="5"/>
+      <c r="N83" s="5">
+        <v>0.81445699999999999</v>
+      </c>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="8"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="4" t="s">
         <v>17</v>
       </c>
@@ -2625,9 +2838,12 @@
       <c r="M84" s="6">
         <v>0.753</v>
       </c>
+      <c r="N84" s="7">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="8"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
@@ -2652,9 +2868,12 @@
       <c r="M85" s="6">
         <v>0.73599999999999999</v>
       </c>
+      <c r="N85" s="7">
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="8"/>
+      <c r="E86" s="9"/>
       <c r="F86" s="4" t="s">
         <v>19</v>
       </c>
@@ -2679,9 +2898,12 @@
       <c r="M86" s="6">
         <v>0.73299999999999998</v>
       </c>
+      <c r="N86" s="7">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="8"/>
+      <c r="E87" s="9"/>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
@@ -2706,9 +2928,12 @@
       <c r="M87" s="6">
         <v>0.86599999999999999</v>
       </c>
+      <c r="N87" s="7">
+        <v>0.82499999999999996</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="7">
+      <c r="E88" s="8">
         <v>2013</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -2735,9 +2960,12 @@
       <c r="M88" s="6">
         <v>3.77</v>
       </c>
+      <c r="N88" s="7">
+        <v>130.78</v>
+      </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="8"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
@@ -2762,9 +2990,12 @@
       <c r="M89" s="6">
         <v>0.59230000000000005</v>
       </c>
+      <c r="N89" s="7">
+        <v>0.55479999999999996</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="8"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
@@ -2789,9 +3020,12 @@
       <c r="M90" s="6">
         <v>0.2233</v>
       </c>
+      <c r="N90" s="7">
+        <v>0.21049999999999999</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="8"/>
+      <c r="E91" s="9"/>
       <c r="F91" s="4" t="s">
         <v>14</v>
       </c>
@@ -2816,9 +3050,12 @@
       <c r="M91" s="6">
         <v>0.3342</v>
       </c>
+      <c r="N91" s="7">
+        <v>0.378</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="8"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
@@ -2843,14 +3080,16 @@
       <c r="M92" s="5">
         <v>0.511544</v>
       </c>
-      <c r="N92" s="5"/>
+      <c r="N92" s="5">
+        <v>0.48227300000000001</v>
+      </c>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="8"/>
+      <c r="E93" s="9"/>
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
@@ -2875,14 +3114,16 @@
       <c r="M93" s="5">
         <v>0.71540300000000001</v>
       </c>
-      <c r="N93" s="5"/>
+      <c r="N93" s="5">
+        <v>0.80926100000000001</v>
+      </c>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
     <row r="94" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="8"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="4" t="s">
         <v>17</v>
       </c>
@@ -2907,9 +3148,12 @@
       <c r="M94" s="6">
         <v>0.751</v>
       </c>
+      <c r="N94" s="7">
+        <v>0.71399999999999997</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="8"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
@@ -2934,9 +3178,12 @@
       <c r="M95" s="6">
         <v>0.73299999999999998</v>
       </c>
+      <c r="N95" s="7">
+        <v>0.70899999999999996</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="8"/>
+      <c r="E96" s="9"/>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
@@ -2961,9 +3208,12 @@
       <c r="M96" s="6">
         <v>0.72699999999999998</v>
       </c>
+      <c r="N96" s="7">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="8"/>
+      <c r="E97" s="9"/>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
@@ -2988,9 +3238,12 @@
       <c r="M97" s="6">
         <v>0.86299999999999999</v>
       </c>
+      <c r="N97" s="7">
+        <v>0.82699999999999996</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="7">
+      <c r="E98" s="8">
         <v>2014</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -3017,9 +3270,12 @@
       <c r="M98" s="6">
         <v>5.07</v>
       </c>
+      <c r="N98" s="7">
+        <v>114.31</v>
+      </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="8"/>
+      <c r="E99" s="9"/>
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
@@ -3044,9 +3300,12 @@
       <c r="M99" s="6">
         <v>0.58950000000000002</v>
       </c>
+      <c r="N99" s="7">
+        <v>0.54169999999999996</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="8"/>
+      <c r="E100" s="9"/>
       <c r="F100" s="4" t="s">
         <v>13</v>
       </c>
@@ -3071,9 +3330,12 @@
       <c r="M100" s="6">
         <v>0.22720000000000001</v>
       </c>
+      <c r="N100" s="7">
+        <v>0.21679999999999999</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="8"/>
+      <c r="E101" s="9"/>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
@@ -3098,9 +3360,12 @@
       <c r="M101" s="6">
         <v>0.3382</v>
       </c>
+      <c r="N101" s="7">
+        <v>0.38419999999999999</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="8"/>
+      <c r="E102" s="9"/>
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
@@ -3125,14 +3390,16 @@
       <c r="M102" s="5">
         <v>0.52137500000000003</v>
       </c>
-      <c r="N102" s="5"/>
+      <c r="N102" s="5">
+        <v>0.49762200000000001</v>
+      </c>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
     <row r="103" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="8"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
@@ -3157,14 +3424,16 @@
       <c r="M103" s="5">
         <v>0.72454099999999999</v>
       </c>
-      <c r="N103" s="5"/>
+      <c r="N103" s="5">
+        <v>0.82325700000000002</v>
+      </c>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
     <row r="104" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="8"/>
+      <c r="E104" s="9"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
@@ -3189,9 +3458,12 @@
       <c r="M104" s="6">
         <v>0.747</v>
       </c>
+      <c r="N104" s="7">
+        <v>0.70599999999999996</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="8"/>
+      <c r="E105" s="9"/>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
@@ -3216,9 +3488,12 @@
       <c r="M105" s="6">
         <v>0.73199999999999998</v>
       </c>
+      <c r="N105" s="7">
+        <v>0.70099999999999996</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="8"/>
+      <c r="E106" s="9"/>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
@@ -3243,9 +3518,12 @@
       <c r="M106" s="6">
         <v>0.72799999999999998</v>
       </c>
+      <c r="N106" s="7">
+        <v>0.70199999999999996</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="8"/>
+      <c r="E107" s="9"/>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
@@ -3270,9 +3548,12 @@
       <c r="M107" s="6">
         <v>0.85599999999999998</v>
       </c>
+      <c r="N107" s="7">
+        <v>0.81699999999999995</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="7">
+      <c r="E108" s="8">
         <v>2015</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -3299,9 +3580,12 @@
       <c r="M108" s="6">
         <v>4.1900000000000004</v>
       </c>
+      <c r="N108" s="7">
+        <v>61.69</v>
+      </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="8"/>
+      <c r="E109" s="9"/>
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
@@ -3326,9 +3610,12 @@
       <c r="M109" s="6">
         <v>0.58830000000000005</v>
       </c>
+      <c r="N109" s="7">
+        <v>0.55859999999999999</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="8"/>
+      <c r="E110" s="9"/>
       <c r="F110" s="4" t="s">
         <v>13</v>
       </c>
@@ -3353,9 +3640,12 @@
       <c r="M110" s="6">
         <v>0.2261</v>
       </c>
+      <c r="N110" s="7">
+        <v>0.21079999999999999</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="8"/>
+      <c r="E111" s="9"/>
       <c r="F111" s="4" t="s">
         <v>14</v>
       </c>
@@ -3380,9 +3670,12 @@
       <c r="M111" s="6">
         <v>0.33689999999999998</v>
       </c>
+      <c r="N111" s="7">
+        <v>0.378</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="8"/>
+      <c r="E112" s="9"/>
       <c r="F112" s="4" t="s">
         <v>15</v>
       </c>
@@ -3407,14 +3700,16 @@
       <c r="M112" s="5">
         <v>0.51843700000000004</v>
       </c>
-      <c r="N112" s="5"/>
+      <c r="N112" s="5">
+        <v>0.48338599999999998</v>
+      </c>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
     <row r="113" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="8"/>
+      <c r="E113" s="9"/>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -3439,14 +3734,16 @@
       <c r="M113" s="5">
         <v>0.72147399999999995</v>
       </c>
-      <c r="N113" s="5"/>
+      <c r="N113" s="5">
+        <v>0.80945</v>
+      </c>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
     <row r="114" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="8"/>
+      <c r="E114" s="9"/>
       <c r="F114" s="4" t="s">
         <v>17</v>
       </c>
@@ -3471,9 +3768,12 @@
       <c r="M114" s="6">
         <v>0.746</v>
       </c>
+      <c r="N114" s="7">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="8"/>
+      <c r="E115" s="9"/>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
@@ -3498,9 +3798,12 @@
       <c r="M115" s="6">
         <v>0.73</v>
       </c>
+      <c r="N115" s="7">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="8"/>
+      <c r="E116" s="9"/>
       <c r="F116" s="4" t="s">
         <v>19</v>
       </c>
@@ -3525,9 +3828,12 @@
       <c r="M116" s="6">
         <v>0.72699999999999998</v>
       </c>
+      <c r="N116" s="7">
+        <v>0.71299999999999997</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="8"/>
+      <c r="E117" s="9"/>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
@@ -3552,9 +3858,12 @@
       <c r="M117" s="6">
         <v>0.85899999999999999</v>
       </c>
+      <c r="N117" s="7">
+        <v>0.82699999999999996</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -3588,9 +3897,9 @@
         <f t="shared" si="0"/>
         <v>4.9027272727272724</v>
       </c>
-      <c r="N118" s="4" t="e">
+      <c r="N118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>72.840909090909093</v>
       </c>
       <c r="O118" s="4" t="e">
         <f t="shared" si="0"/>
@@ -3606,7 +3915,7 @@
       </c>
     </row>
     <row r="119" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="8"/>
+      <c r="E119" s="9"/>
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
@@ -3638,9 +3947,9 @@
         <f t="shared" si="1"/>
         <v>0.62470909090909088</v>
       </c>
-      <c r="N119" s="4" t="e">
+      <c r="N119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.60590909090909095</v>
       </c>
       <c r="O119" s="4" t="e">
         <f t="shared" si="1"/>
@@ -3656,7 +3965,7 @@
       </c>
     </row>
     <row r="120" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="8"/>
+      <c r="E120" s="9"/>
       <c r="F120" s="4" t="s">
         <v>13</v>
       </c>
@@ -3688,9 +3997,9 @@
         <f t="shared" si="2"/>
         <v>0.21137272727272727</v>
       </c>
-      <c r="N120" s="4" t="e">
+      <c r="N120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.18910909090909092</v>
       </c>
       <c r="O120" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3706,7 +4015,7 @@
       </c>
     </row>
     <row r="121" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="8"/>
+      <c r="E121" s="9"/>
       <c r="F121" s="4" t="s">
         <v>14</v>
       </c>
@@ -3738,9 +4047,9 @@
         <f t="shared" si="3"/>
         <v>0.32648181818181815</v>
       </c>
-      <c r="N121" s="4" t="e">
+      <c r="N121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.35922727272727273</v>
       </c>
       <c r="O121" s="4" t="e">
         <f t="shared" si="3"/>
@@ -3756,7 +4065,7 @@
       </c>
     </row>
     <row r="122" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="8"/>
+      <c r="E122" s="9"/>
       <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
@@ -3788,9 +4097,9 @@
         <f t="shared" si="4"/>
         <v>0.48176718181818179</v>
       </c>
-      <c r="N122" s="5" t="e">
+      <c r="N122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.43086854545454545</v>
       </c>
       <c r="O122" s="5" t="e">
         <f t="shared" si="4"/>
@@ -3806,7 +4115,7 @@
       </c>
     </row>
     <row r="123" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="8"/>
+      <c r="E123" s="9"/>
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
@@ -3838,9 +4147,9 @@
         <f t="shared" si="5"/>
         <v>0.6970068181818182</v>
       </c>
-      <c r="N123" s="5" t="e">
+      <c r="N123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.76686972727272718</v>
       </c>
       <c r="O123" s="5" t="e">
         <f t="shared" si="5"/>
@@ -3856,7 +4165,7 @@
       </c>
     </row>
     <row r="124" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="8"/>
+      <c r="E124" s="9"/>
       <c r="F124" s="4" t="s">
         <v>17</v>
       </c>
@@ -3888,9 +4197,9 @@
         <f t="shared" si="6"/>
         <v>0.76927272727272722</v>
       </c>
-      <c r="N124" s="4" t="e">
+      <c r="N124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.74636363636363623</v>
       </c>
       <c r="O124" s="4" t="e">
         <f t="shared" si="6"/>
@@ -3906,7 +4215,7 @@
       </c>
     </row>
     <row r="125" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="8"/>
+      <c r="E125" s="9"/>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
@@ -3938,9 +4247,9 @@
         <f t="shared" si="7"/>
         <v>0.75354545454545452</v>
       </c>
-      <c r="N125" s="4" t="e">
+      <c r="N125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.74127272727272731</v>
       </c>
       <c r="O125" s="4" t="e">
         <f t="shared" si="7"/>
@@ -3956,7 +4265,7 @@
       </c>
     </row>
     <row r="126" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="8"/>
+      <c r="E126" s="9"/>
       <c r="F126" s="4" t="s">
         <v>19</v>
       </c>
@@ -3988,9 +4297,9 @@
         <f t="shared" si="8"/>
         <v>0.74881818181818183</v>
       </c>
-      <c r="N126" s="4" t="e">
+      <c r="N126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.74163636363636354</v>
       </c>
       <c r="O126" s="4" t="e">
         <f t="shared" si="8"/>
@@ -4006,7 +4315,7 @@
       </c>
     </row>
     <row r="127" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="8"/>
+      <c r="E127" s="9"/>
       <c r="F127" s="4" t="s">
         <v>20</v>
       </c>
@@ -4038,9 +4347,9 @@
         <f t="shared" si="9"/>
         <v>0.87690909090909097</v>
       </c>
-      <c r="N127" s="4" t="e">
+      <c r="N127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.84954545454545449</v>
       </c>
       <c r="O127" s="4" t="e">
         <f t="shared" si="9"/>
@@ -6676,6 +6985,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E88:E97"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="E108:E117"/>
+    <mergeCell ref="E118:E127"/>
     <mergeCell ref="E58:E67"/>
     <mergeCell ref="E68:E77"/>
     <mergeCell ref="E8:E17"/>
@@ -6683,11 +6997,6 @@
     <mergeCell ref="E28:E37"/>
     <mergeCell ref="E38:E47"/>
     <mergeCell ref="E48:E57"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E97"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="E108:E117"/>
-    <mergeCell ref="E118:E127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6698,8 +7007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O116" sqref="O116"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="P116" sqref="P116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6765,7 +7074,7 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>2005</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -6792,9 +7101,12 @@
       <c r="M8">
         <v>7.67</v>
       </c>
+      <c r="N8">
+        <v>49.77</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="8"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -6819,9 +7131,12 @@
       <c r="M9">
         <v>0.65920000000000001</v>
       </c>
+      <c r="N9">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -6846,9 +7161,12 @@
       <c r="M10">
         <v>0.19869999999999999</v>
       </c>
+      <c r="N10">
+        <v>0.18729999999999999</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
@@ -6873,9 +7191,12 @@
       <c r="M11">
         <v>0.31530000000000002</v>
       </c>
+      <c r="N11">
+        <v>0.35899999999999999</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
@@ -6900,14 +7221,16 @@
       <c r="M12" s="5">
         <v>0.44862000000000002</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5">
+        <v>0.42286099999999999</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
@@ -6932,14 +7255,16 @@
       <c r="M13" s="5">
         <v>0.66999600000000004</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="5">
+        <v>0.76298299999999997</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
@@ -6964,9 +7289,12 @@
       <c r="M14">
         <v>0.79100000000000004</v>
       </c>
+      <c r="N14">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
@@ -6991,9 +7319,12 @@
       <c r="M15">
         <v>0.77500000000000002</v>
       </c>
+      <c r="N15">
+        <v>0.749</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
@@ -7018,9 +7349,12 @@
       <c r="M16">
         <v>0.76800000000000002</v>
       </c>
+      <c r="N16">
+        <v>0.748</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
@@ -7045,9 +7379,12 @@
       <c r="M17">
         <v>0.89700000000000002</v>
       </c>
+      <c r="N17">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>2006</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -7074,9 +7411,12 @@
       <c r="M18">
         <v>5.53</v>
       </c>
+      <c r="N18">
+        <v>51.55</v>
+      </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="8"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
@@ -7101,9 +7441,12 @@
       <c r="M19">
         <v>0.67369999999999997</v>
       </c>
+      <c r="N19">
+        <v>0.62170000000000003</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="8"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
@@ -7128,9 +7471,12 @@
       <c r="M20">
         <v>0.1956</v>
       </c>
+      <c r="N20">
+        <v>0.1855</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="8"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
@@ -7155,9 +7501,12 @@
       <c r="M21">
         <v>0.31309999999999999</v>
       </c>
+      <c r="N21">
+        <v>0.35720000000000002</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
@@ -7182,14 +7531,16 @@
       <c r="M22" s="5">
         <v>0.44092500000000001</v>
       </c>
-      <c r="N22" s="5"/>
+      <c r="N22" s="5">
+        <v>0.418045</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="8"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -7214,14 +7565,16 @@
       <c r="M23" s="5">
         <v>0.66467500000000002</v>
       </c>
-      <c r="N23" s="5"/>
+      <c r="N23" s="5">
+        <v>0.75846199999999997</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="8"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
@@ -7246,9 +7599,12 @@
       <c r="M24">
         <v>0.79500000000000004</v>
       </c>
+      <c r="N24">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="8"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
@@ -7273,9 +7629,12 @@
       <c r="M25">
         <v>0.78300000000000003</v>
       </c>
+      <c r="N25">
+        <v>0.749</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="8"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
@@ -7300,9 +7659,12 @@
       <c r="M26">
         <v>0.78100000000000003</v>
       </c>
+      <c r="N26">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="8"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
@@ -7327,9 +7689,12 @@
       <c r="M27">
         <v>0.89900000000000002</v>
       </c>
+      <c r="N27">
+        <v>0.86499999999999999</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>2007</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -7356,9 +7721,12 @@
       <c r="M28">
         <v>4.12</v>
       </c>
+      <c r="N28">
+        <v>97.74</v>
+      </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="8"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
@@ -7383,9 +7751,12 @@
       <c r="M29">
         <v>0.6623</v>
       </c>
+      <c r="N29">
+        <v>0.60929999999999995</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="8"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
@@ -7410,9 +7781,12 @@
       <c r="M30">
         <v>0.20050000000000001</v>
       </c>
+      <c r="N30">
+        <v>0.18820000000000001</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="8"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
@@ -7437,9 +7811,12 @@
       <c r="M31">
         <v>0.31590000000000001</v>
       </c>
+      <c r="N31">
+        <v>0.3594</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="8"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
@@ -7464,14 +7841,16 @@
       <c r="M32" s="5">
         <v>0.45231300000000002</v>
       </c>
-      <c r="N32" s="5"/>
+      <c r="N32" s="5">
+        <v>0.424678</v>
+      </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="8"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -7496,14 +7875,16 @@
       <c r="M33" s="5">
         <v>0.67102700000000004</v>
       </c>
-      <c r="N33" s="5"/>
+      <c r="N33" s="5">
+        <v>0.76352200000000003</v>
+      </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="8"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
@@ -7528,9 +7909,12 @@
       <c r="M34">
         <v>0.79200000000000004</v>
       </c>
+      <c r="N34">
+        <v>0.746</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="8"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
@@ -7555,9 +7939,12 @@
       <c r="M35">
         <v>0.77600000000000002</v>
       </c>
+      <c r="N35">
+        <v>0.74099999999999999</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="8"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
@@ -7582,9 +7969,12 @@
       <c r="M36">
         <v>0.77100000000000002</v>
       </c>
+      <c r="N36">
+        <v>0.74199999999999999</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="8"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
@@ -7609,9 +7999,12 @@
       <c r="M37">
         <v>0.89300000000000002</v>
       </c>
+      <c r="N37">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <v>2008</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -7638,9 +8031,12 @@
       <c r="M38">
         <v>23.75</v>
       </c>
+      <c r="N38">
+        <v>44.98</v>
+      </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="8"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
@@ -7665,9 +8061,12 @@
       <c r="M39">
         <v>0.64610000000000001</v>
       </c>
+      <c r="N39">
+        <v>0.60840000000000005</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="8"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
@@ -7692,9 +8091,12 @@
       <c r="M40">
         <v>0.2039</v>
       </c>
+      <c r="N40">
+        <v>0.19289999999999999</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="8"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
@@ -7719,9 +8121,12 @@
       <c r="M41">
         <v>0.32190000000000002</v>
       </c>
+      <c r="N41">
+        <v>0.35730000000000001</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="8"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
@@ -7746,14 +8151,16 @@
       <c r="M42" s="5">
         <v>0.46165</v>
       </c>
-      <c r="N42" s="5"/>
+      <c r="N42" s="5">
+        <v>0.43673499999999998</v>
+      </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="8"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -7778,14 +8185,16 @@
       <c r="M43" s="5">
         <v>0.68498000000000003</v>
       </c>
-      <c r="N43" s="5"/>
+      <c r="N43" s="5">
+        <v>0.76048199999999999</v>
+      </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="8"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
@@ -7810,9 +8219,12 @@
       <c r="M44">
         <v>0.78200000000000003</v>
       </c>
+      <c r="N44">
+        <v>0.747</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="8"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
@@ -7837,9 +8249,12 @@
       <c r="M45">
         <v>0.76600000000000001</v>
       </c>
+      <c r="N45">
+        <v>0.74099999999999999</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="8"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
@@ -7864,9 +8279,12 @@
       <c r="M46">
         <v>0.76200000000000001</v>
       </c>
+      <c r="N46">
+        <v>0.74099999999999999</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="8"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
@@ -7891,9 +8309,12 @@
       <c r="M47">
         <v>0.88600000000000001</v>
       </c>
+      <c r="N47">
+        <v>0.85799999999999998</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="7">
+      <c r="E48" s="8">
         <v>2009</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -7920,9 +8341,12 @@
       <c r="M48">
         <v>11.04</v>
       </c>
+      <c r="N48">
+        <v>49.56</v>
+      </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="8"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
@@ -7947,9 +8371,12 @@
       <c r="M49">
         <v>0.63329999999999997</v>
       </c>
+      <c r="N49">
+        <v>0.58530000000000004</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="8"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
@@ -7974,9 +8401,12 @@
       <c r="M50">
         <v>0.2082</v>
       </c>
+      <c r="N50">
+        <v>0.19839999999999999</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="8"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="4" t="s">
         <v>14</v>
       </c>
@@ -8001,9 +8431,12 @@
       <c r="M51">
         <v>0.32469999999999999</v>
       </c>
+      <c r="N51">
+        <v>0.37769999999999998</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="8"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
@@ -8028,14 +8461,16 @@
       <c r="M52" s="5">
         <v>0.47373799999999999</v>
       </c>
-      <c r="N52" s="5"/>
+      <c r="N52" s="5">
+        <v>0.45143299999999997</v>
+      </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="8"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
@@ -8060,14 +8495,16 @@
       <c r="M53" s="5">
         <v>0.69262000000000001</v>
       </c>
-      <c r="N53" s="5"/>
+      <c r="N53" s="5">
+        <v>0.80569299999999999</v>
+      </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="8"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
@@ -8092,9 +8529,12 @@
       <c r="M54">
         <v>0.77400000000000002</v>
       </c>
+      <c r="N54">
+        <v>0.73099999999999998</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="8"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
@@ -8119,9 +8559,12 @@
       <c r="M55">
         <v>0.75900000000000001</v>
       </c>
+      <c r="N55">
+        <v>0.72699999999999998</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="8"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
@@ -8146,9 +8589,12 @@
       <c r="M56">
         <v>0.754</v>
       </c>
+      <c r="N56">
+        <v>0.72799999999999998</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="8"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
@@ -8173,9 +8619,12 @@
       <c r="M57">
         <v>0.88100000000000001</v>
       </c>
+      <c r="N57">
+        <v>0.83499999999999996</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="7">
+      <c r="E58" s="8">
         <v>2010</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -8202,9 +8651,12 @@
       <c r="M58">
         <v>3.6</v>
       </c>
+      <c r="N58">
+        <v>54.07</v>
+      </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="8"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
@@ -8229,9 +8681,12 @@
       <c r="M59">
         <v>0.62760000000000005</v>
       </c>
+      <c r="N59">
+        <v>0.84640000000000004</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="8"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
@@ -8256,9 +8711,12 @@
       <c r="M60">
         <v>0.20880000000000001</v>
       </c>
+      <c r="N60">
+        <v>7.5300000000000006E-2</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="8"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
@@ -8283,9 +8741,12 @@
       <c r="M61">
         <v>0.32450000000000001</v>
       </c>
+      <c r="N61">
+        <v>0.24610000000000001</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="8"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
@@ -8310,14 +8771,16 @@
       <c r="M62" s="5">
         <v>0.47876400000000002</v>
       </c>
-      <c r="N62" s="5"/>
+      <c r="N62" s="5">
+        <v>0.172705</v>
+      </c>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="8"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -8342,14 +8805,16 @@
       <c r="M63" s="5">
         <v>0.69492699999999996</v>
       </c>
-      <c r="N63" s="5"/>
+      <c r="N63" s="5">
+        <v>0.52715000000000001</v>
+      </c>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="8"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
@@ -8374,9 +8839,12 @@
       <c r="M64">
         <v>0.77300000000000002</v>
       </c>
+      <c r="N64">
+        <v>0.90900000000000003</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="8"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
@@ -8401,9 +8869,12 @@
       <c r="M65">
         <v>0.75800000000000001</v>
       </c>
+      <c r="N65">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="8"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="4" t="s">
         <v>19</v>
       </c>
@@ -8428,9 +8899,12 @@
       <c r="M66">
         <v>0.752</v>
       </c>
+      <c r="N66">
+        <v>0.89900000000000002</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="8"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
@@ -8455,9 +8929,12 @@
       <c r="M67">
         <v>0.879</v>
       </c>
+      <c r="N67">
+        <v>0.94399999999999995</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="7">
+      <c r="E68" s="8">
         <v>2011</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -8484,9 +8961,12 @@
       <c r="M68">
         <v>3.66</v>
       </c>
+      <c r="N68">
+        <v>50.38</v>
+      </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="8"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
@@ -8511,9 +8991,12 @@
       <c r="M69">
         <v>0.60609999999999997</v>
       </c>
+      <c r="N69">
+        <v>0.5665</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="8"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="4" t="s">
         <v>13</v>
       </c>
@@ -8538,9 +9021,12 @@
       <c r="M70">
         <v>0.217</v>
       </c>
+      <c r="N70">
+        <v>0.20760000000000001</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="8"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="4" t="s">
         <v>14</v>
       </c>
@@ -8565,9 +9051,12 @@
       <c r="M71">
         <v>0.32979999999999998</v>
       </c>
+      <c r="N71">
+        <v>0.37440000000000001</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="8"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
@@ -8592,14 +9081,16 @@
       <c r="M72" s="5">
         <v>0.49611300000000003</v>
       </c>
-      <c r="N72" s="5"/>
+      <c r="N72" s="5">
+        <v>0.47451399999999999</v>
+      </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="8"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
@@ -8624,14 +9115,16 @@
       <c r="M73" s="5">
         <v>0.70509200000000005</v>
       </c>
-      <c r="N73" s="5"/>
+      <c r="N73" s="5">
+        <v>0.80058399999999996</v>
+      </c>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="8"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="4" t="s">
         <v>17</v>
       </c>
@@ -8656,9 +9149,12 @@
       <c r="M74">
         <v>0.76600000000000001</v>
       </c>
+      <c r="N74">
+        <v>0.72099999999999997</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="8"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
@@ -8683,9 +9179,12 @@
       <c r="M75">
         <v>0.74199999999999999</v>
       </c>
+      <c r="N75">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="8"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="4" t="s">
         <v>19</v>
       </c>
@@ -8710,9 +9209,12 @@
       <c r="M76">
         <v>0.73299999999999998</v>
       </c>
+      <c r="N76">
+        <v>0.71699999999999997</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="8"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
@@ -8737,9 +9239,12 @@
       <c r="M77">
         <v>0.87</v>
       </c>
+      <c r="N77">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="7">
+      <c r="E78" s="8">
         <v>2012</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -8766,9 +9271,12 @@
       <c r="M78">
         <v>3.98</v>
       </c>
+      <c r="N78">
+        <v>39.700000000000003</v>
+      </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="8"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="4" t="s">
         <v>12</v>
       </c>
@@ -8793,9 +9301,12 @@
       <c r="M79">
         <v>0.59099999999999997</v>
       </c>
+      <c r="N79">
+        <v>0.57089999999999996</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="8"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="4" t="s">
         <v>13</v>
       </c>
@@ -8820,9 +9331,12 @@
       <c r="M80">
         <v>0.2266</v>
       </c>
+      <c r="N80">
+        <v>0.2104</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="8"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="4" t="s">
         <v>14</v>
       </c>
@@ -8847,9 +9361,12 @@
       <c r="M81">
         <v>0.33350000000000002</v>
       </c>
+      <c r="N81">
+        <v>0.36520000000000002</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="8"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
@@ -8874,14 +9391,16 @@
       <c r="M82" s="5">
         <v>0.52073899999999995</v>
       </c>
-      <c r="N82" s="5"/>
+      <c r="N82" s="5">
+        <v>0.48348400000000002</v>
+      </c>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="8"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
@@ -8906,14 +9425,16 @@
       <c r="M83" s="5">
         <v>0.71508899999999997</v>
       </c>
-      <c r="N83" s="5"/>
+      <c r="N83" s="5">
+        <v>0.78296900000000003</v>
+      </c>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="8"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="4" t="s">
         <v>17</v>
       </c>
@@ -8938,9 +9459,12 @@
       <c r="M84">
         <v>0.751</v>
       </c>
+      <c r="N84">
+        <v>0.72699999999999998</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="8"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
@@ -8965,9 +9489,12 @@
       <c r="M85">
         <v>0.73299999999999998</v>
       </c>
+      <c r="N85">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="8"/>
+      <c r="E86" s="9"/>
       <c r="F86" s="4" t="s">
         <v>19</v>
       </c>
@@ -8992,9 +9519,12 @@
       <c r="M86">
         <v>0.72799999999999998</v>
       </c>
+      <c r="N86">
+        <v>0.72099999999999997</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="8"/>
+      <c r="E87" s="9"/>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
@@ -9019,9 +9549,12 @@
       <c r="M87">
         <v>0.86599999999999999</v>
       </c>
+      <c r="N87">
+        <v>0.83599999999999997</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="7">
+      <c r="E88" s="8">
         <v>2013</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -9048,9 +9581,12 @@
       <c r="M88">
         <v>3.29</v>
       </c>
+      <c r="N88">
+        <v>51.67</v>
+      </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="8"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
@@ -9075,9 +9611,12 @@
       <c r="M89">
         <v>0.59460000000000002</v>
       </c>
+      <c r="N89">
+        <v>0.55900000000000005</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="8"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
@@ -9102,9 +9641,12 @@
       <c r="M90">
         <v>0.22259999999999999</v>
       </c>
+      <c r="N90">
+        <v>0.21099999999999999</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="8"/>
+      <c r="E91" s="9"/>
       <c r="F91" s="4" t="s">
         <v>14</v>
       </c>
@@ -9129,9 +9671,12 @@
       <c r="M91">
         <v>0.33179999999999998</v>
       </c>
+      <c r="N91">
+        <v>0.3755</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="8"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
@@ -9156,14 +9701,16 @@
       <c r="M92" s="5">
         <v>0.51007400000000003</v>
       </c>
-      <c r="N92" s="5"/>
+      <c r="N92" s="5">
+        <v>0.48339700000000002</v>
+      </c>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="8"/>
+      <c r="E93" s="9"/>
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
@@ -9188,14 +9735,16 @@
       <c r="M93" s="5">
         <v>0.71031900000000003</v>
       </c>
-      <c r="N93" s="5"/>
+      <c r="N93" s="5">
+        <v>0.80381599999999997</v>
+      </c>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
     <row r="94" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="8"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="4" t="s">
         <v>17</v>
       </c>
@@ -9220,9 +9769,12 @@
       <c r="M94">
         <v>0.752</v>
       </c>
+      <c r="N94">
+        <v>0.71799999999999997</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="8"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
@@ -9247,9 +9799,12 @@
       <c r="M95">
         <v>0.73399999999999999</v>
       </c>
+      <c r="N95">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="8"/>
+      <c r="E96" s="9"/>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
@@ -9274,9 +9829,12 @@
       <c r="M96">
         <v>0.72899999999999998</v>
       </c>
+      <c r="N96">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="8"/>
+      <c r="E97" s="9"/>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
@@ -9301,9 +9859,12 @@
       <c r="M97">
         <v>0.86799999999999999</v>
       </c>
+      <c r="N97">
+        <v>0.82699999999999996</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="7">
+      <c r="E98" s="8">
         <v>2014</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -9330,9 +9891,12 @@
       <c r="M98">
         <v>3.31</v>
       </c>
+      <c r="N98">
+        <v>46.55</v>
+      </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="8"/>
+      <c r="E99" s="9"/>
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
@@ -9357,9 +9921,12 @@
       <c r="M99">
         <v>0.58120000000000005</v>
       </c>
+      <c r="N99">
+        <v>0.55459999999999998</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="8"/>
+      <c r="E100" s="9"/>
       <c r="F100" s="4" t="s">
         <v>13</v>
       </c>
@@ -9384,9 +9951,12 @@
       <c r="M100">
         <v>0.23380000000000001</v>
       </c>
+      <c r="N100">
+        <v>0.21560000000000001</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="8"/>
+      <c r="E101" s="9"/>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
@@ -9411,9 +9981,12 @@
       <c r="M101">
         <v>0.3362</v>
       </c>
+      <c r="N101">
+        <v>0.37080000000000002</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="8"/>
+      <c r="E102" s="9"/>
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
@@ -9438,14 +10011,16 @@
       <c r="M102" s="5">
         <v>0.53666199999999997</v>
       </c>
-      <c r="N102" s="5"/>
+      <c r="N102" s="5">
+        <v>0.49494500000000002</v>
+      </c>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
     <row r="103" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="8"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
@@ -9470,14 +10045,16 @@
       <c r="M103" s="5">
         <v>0.72033899999999995</v>
       </c>
-      <c r="N103" s="5"/>
+      <c r="N103" s="5">
+        <v>0.794489</v>
+      </c>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
     <row r="104" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="8"/>
+      <c r="E104" s="9"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
@@ -9502,9 +10079,12 @@
       <c r="M104">
         <v>0.748</v>
       </c>
+      <c r="N104">
+        <v>0.71499999999999997</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="8"/>
+      <c r="E105" s="9"/>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
@@ -9529,9 +10109,12 @@
       <c r="M105">
         <v>0.72599999999999998</v>
       </c>
+      <c r="N105">
+        <v>0.70899999999999996</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="8"/>
+      <c r="E106" s="9"/>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
@@ -9556,9 +10139,12 @@
       <c r="M106">
         <v>0.71899999999999997</v>
       </c>
+      <c r="N106">
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="8"/>
+      <c r="E107" s="9"/>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
@@ -9583,9 +10169,12 @@
       <c r="M107">
         <v>0.86099999999999999</v>
       </c>
+      <c r="N107">
+        <v>0.82899999999999996</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="7">
+      <c r="E108" s="8">
         <v>2015</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -9612,9 +10201,12 @@
       <c r="M108">
         <v>3.77</v>
       </c>
+      <c r="N108">
+        <v>43.92</v>
+      </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="8"/>
+      <c r="E109" s="9"/>
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
@@ -9639,9 +10231,12 @@
       <c r="M109">
         <v>0.57679999999999998</v>
       </c>
+      <c r="N109">
+        <v>0.55379999999999996</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="8"/>
+      <c r="E110" s="9"/>
       <c r="F110" s="4" t="s">
         <v>13</v>
       </c>
@@ -9666,9 +10261,12 @@
       <c r="M110">
         <v>0.22969999999999999</v>
       </c>
+      <c r="N110">
+        <v>0.21110000000000001</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="8"/>
+      <c r="E111" s="9"/>
       <c r="F111" s="4" t="s">
         <v>14</v>
       </c>
@@ -9693,9 +10291,12 @@
       <c r="M111">
         <v>0.33650000000000002</v>
       </c>
+      <c r="N111">
+        <v>0.3795</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="8"/>
+      <c r="E112" s="9"/>
       <c r="F112" s="4" t="s">
         <v>15</v>
       </c>
@@ -9720,14 +10321,16 @@
       <c r="M112" s="5">
         <v>0.57672999999999996</v>
       </c>
-      <c r="N112" s="5"/>
+      <c r="N112" s="5">
+        <v>0.48419899999999999</v>
+      </c>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
     <row r="113" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="8"/>
+      <c r="E113" s="9"/>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -9752,14 +10355,16 @@
       <c r="M113" s="5">
         <v>0.72064600000000001</v>
       </c>
-      <c r="N113" s="5"/>
+      <c r="N113" s="5">
+        <v>0.81272699999999998</v>
+      </c>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
     <row r="114" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="8"/>
+      <c r="E114" s="9"/>
       <c r="F114" s="4" t="s">
         <v>17</v>
       </c>
@@ -9784,9 +10389,12 @@
       <c r="M114">
         <v>0.74299999999999999</v>
       </c>
+      <c r="N114">
+        <v>0.71299999999999997</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="8"/>
+      <c r="E115" s="9"/>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
@@ -9811,9 +10419,12 @@
       <c r="M115">
         <v>0.72299999999999998</v>
       </c>
+      <c r="N115">
+        <v>0.70899999999999996</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="8"/>
+      <c r="E116" s="9"/>
       <c r="F116" s="4" t="s">
         <v>19</v>
       </c>
@@ -9838,9 +10449,12 @@
       <c r="M116">
         <v>0.71599999999999997</v>
       </c>
+      <c r="N116">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="8"/>
+      <c r="E117" s="9"/>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
@@ -9865,9 +10479,12 @@
       <c r="M117">
         <v>0.86</v>
       </c>
+      <c r="N117">
+        <v>0.82399999999999995</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -9901,9 +10518,9 @@
         <f t="shared" si="0"/>
         <v>6.7018181818181821</v>
       </c>
-      <c r="N118" s="4" t="e">
+      <c r="N118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>52.717272727272729</v>
       </c>
       <c r="O118" s="4" t="e">
         <f t="shared" si="0"/>
@@ -9919,7 +10536,7 @@
       </c>
     </row>
     <row r="119" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="8"/>
+      <c r="E119" s="9"/>
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
@@ -9951,9 +10568,9 @@
         <f t="shared" si="1"/>
         <v>0.62290000000000001</v>
       </c>
-      <c r="N119" s="4" t="e">
+      <c r="N119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.60871818181818182</v>
       </c>
       <c r="O119" s="4" t="e">
         <f t="shared" si="1"/>
@@ -9969,7 +10586,7 @@
       </c>
     </row>
     <row r="120" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="8"/>
+      <c r="E120" s="9"/>
       <c r="F120" s="4" t="s">
         <v>13</v>
       </c>
@@ -10001,9 +10618,9 @@
         <f t="shared" si="2"/>
         <v>0.21321818181818178</v>
       </c>
-      <c r="N120" s="4" t="e">
+      <c r="N120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.18939090909090908</v>
       </c>
       <c r="O120" s="4" t="e">
         <f t="shared" si="2"/>
@@ -10019,7 +10636,7 @@
       </c>
     </row>
     <row r="121" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="8"/>
+      <c r="E121" s="9"/>
       <c r="F121" s="4" t="s">
         <v>14</v>
       </c>
@@ -10051,9 +10668,9 @@
         <f t="shared" si="3"/>
         <v>0.3257454545454545</v>
       </c>
-      <c r="N121" s="4" t="e">
+      <c r="N121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.35655454545454551</v>
       </c>
       <c r="O121" s="4" t="e">
         <f t="shared" si="3"/>
@@ -10069,7 +10686,7 @@
       </c>
     </row>
     <row r="122" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="8"/>
+      <c r="E122" s="9"/>
       <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
@@ -10101,9 +10718,9 @@
         <f t="shared" si="4"/>
         <v>0.49057527272727275</v>
       </c>
-      <c r="N122" s="5" t="e">
+      <c r="N122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.43154509090909099</v>
       </c>
       <c r="O122" s="5" t="e">
         <f t="shared" si="4"/>
@@ -10119,7 +10736,7 @@
       </c>
     </row>
     <row r="123" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="8"/>
+      <c r="E123" s="9"/>
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
@@ -10151,9 +10768,9 @@
         <f t="shared" si="5"/>
         <v>0.69542818181818189</v>
       </c>
-      <c r="N123" s="5" t="e">
+      <c r="N123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.76117063636363647</v>
       </c>
       <c r="O123" s="5" t="e">
         <f t="shared" si="5"/>
@@ -10169,7 +10786,7 @@
       </c>
     </row>
     <row r="124" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="8"/>
+      <c r="E124" s="9"/>
       <c r="F124" s="4" t="s">
         <v>17</v>
       </c>
@@ -10201,9 +10818,9 @@
         <f t="shared" si="6"/>
         <v>0.76972727272727282</v>
       </c>
-      <c r="N124" s="4" t="e">
+      <c r="N124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.74845454545454537</v>
       </c>
       <c r="O124" s="4" t="e">
         <f t="shared" si="6"/>
@@ -10219,7 +10836,7 @@
       </c>
     </row>
     <row r="125" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="8"/>
+      <c r="E125" s="9"/>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
@@ -10251,9 +10868,9 @@
         <f t="shared" si="7"/>
         <v>0.75227272727272732</v>
       </c>
-      <c r="N125" s="4" t="e">
+      <c r="N125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="O125" s="4" t="e">
         <f t="shared" si="7"/>
@@ -10269,7 +10886,7 @@
       </c>
     </row>
     <row r="126" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="8"/>
+      <c r="E126" s="9"/>
       <c r="F126" s="4" t="s">
         <v>19</v>
       </c>
@@ -10301,9 +10918,9 @@
         <f t="shared" si="8"/>
         <v>0.74663636363636354</v>
       </c>
-      <c r="N126" s="4" t="e">
+      <c r="N126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.74354545454545462</v>
       </c>
       <c r="O126" s="4" t="e">
         <f t="shared" si="8"/>
@@ -10319,7 +10936,7 @@
       </c>
     </row>
     <row r="127" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="8"/>
+      <c r="E127" s="9"/>
       <c r="F127" s="4" t="s">
         <v>20</v>
       </c>
@@ -10351,9 +10968,9 @@
         <f t="shared" si="9"/>
         <v>0.87818181818181817</v>
       </c>
-      <c r="N127" s="4" t="e">
+      <c r="N127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.85163636363636364</v>
       </c>
       <c r="O127" s="4" t="e">
         <f t="shared" si="9"/>
@@ -12989,6 +13606,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E88:E97"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="E108:E117"/>
+    <mergeCell ref="E118:E127"/>
     <mergeCell ref="E58:E67"/>
     <mergeCell ref="E68:E77"/>
     <mergeCell ref="E8:E17"/>
@@ -12996,11 +13618,6 @@
     <mergeCell ref="E28:E37"/>
     <mergeCell ref="E38:E47"/>
     <mergeCell ref="E48:E57"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E97"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="E108:E117"/>
-    <mergeCell ref="E118:E127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
+++ b/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -159,6 +159,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -385,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="Q110" sqref="Q110"/>
+    <sheetView topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="Q116" sqref="Q116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -453,7 +454,7 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>2005</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -483,9 +484,12 @@
       <c r="N8">
         <v>89.58</v>
       </c>
+      <c r="O8">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -513,9 +517,12 @@
       <c r="N9">
         <v>0.61699999999999999</v>
       </c>
+      <c r="O9">
+        <v>0.62709999999999999</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -543,9 +550,12 @@
       <c r="N10">
         <v>0.18679999999999999</v>
       </c>
+      <c r="O10">
+        <v>0.189</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
@@ -573,9 +583,12 @@
       <c r="N11">
         <v>0.35830000000000001</v>
       </c>
+      <c r="O11">
+        <v>0.35149999999999998</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
@@ -603,13 +616,15 @@
       <c r="N12" s="5">
         <v>0.421736</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="O12" s="5">
+        <v>0.42686800000000003</v>
+      </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
@@ -637,13 +652,15 @@
       <c r="N13" s="5">
         <v>0.76140600000000003</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5">
+        <v>0.74706700000000004</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
@@ -671,9 +688,12 @@
       <c r="N14">
         <v>0.75</v>
       </c>
+      <c r="O14">
+        <v>0.75800000000000001</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
@@ -701,9 +721,12 @@
       <c r="N15">
         <v>0.747</v>
       </c>
+      <c r="O15">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
@@ -731,9 +754,12 @@
       <c r="N16">
         <v>0.746</v>
       </c>
+      <c r="O16">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
@@ -761,9 +787,12 @@
       <c r="N17">
         <v>0.86</v>
       </c>
+      <c r="O17">
+        <v>0.86199999999999999</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>2006</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -793,9 +822,12 @@
       <c r="N18">
         <v>79.599999999999994</v>
       </c>
+      <c r="O18">
+        <v>3.24</v>
+      </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="9"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
@@ -823,9 +855,12 @@
       <c r="N19">
         <v>0.62660000000000005</v>
       </c>
+      <c r="O19">
+        <v>0.62749999999999995</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
@@ -853,9 +888,12 @@
       <c r="N20">
         <v>0.1832</v>
       </c>
+      <c r="O20">
+        <v>0.18659999999999999</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="9"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
@@ -883,9 +921,12 @@
       <c r="N21">
         <v>0.35520000000000002</v>
       </c>
+      <c r="O21">
+        <v>0.35089999999999999</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="9"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
@@ -913,13 +954,15 @@
       <c r="N22" s="5">
         <v>0.41289399999999998</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5">
+        <v>0.42053800000000002</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="9"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -947,13 +990,15 @@
       <c r="N23" s="5">
         <v>0.75423399999999996</v>
       </c>
-      <c r="O23" s="5"/>
+      <c r="O23" s="5">
+        <v>0.74499800000000005</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="9"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
@@ -981,9 +1026,12 @@
       <c r="N24">
         <v>0.75800000000000001</v>
       </c>
+      <c r="O24">
+        <v>0.75700000000000001</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="9"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1011,9 +1059,12 @@
       <c r="N25">
         <v>0.752</v>
       </c>
+      <c r="O25">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="9"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1041,9 +1092,12 @@
       <c r="N26">
         <v>0.752</v>
       </c>
+      <c r="O26">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="9"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1071,9 +1125,12 @@
       <c r="N27">
         <v>0.86499999999999999</v>
       </c>
+      <c r="O27">
+        <v>0.86499999999999999</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="8">
+      <c r="E28" s="9">
         <v>2007</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1103,9 +1160,12 @@
       <c r="N28">
         <v>65.010000000000005</v>
       </c>
+      <c r="O28">
+        <v>3.32</v>
+      </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="9"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1133,9 +1193,12 @@
       <c r="N29">
         <v>0.6139</v>
       </c>
+      <c r="O29">
+        <v>0.61660000000000004</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="9"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1163,9 +1226,12 @@
       <c r="N30">
         <v>0.18920000000000001</v>
       </c>
+      <c r="O30">
+        <v>0.19289999999999999</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="9"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1193,9 +1259,12 @@
       <c r="N31">
         <v>0.36030000000000001</v>
       </c>
+      <c r="O31">
+        <v>0.35680000000000001</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="9"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
@@ -1223,13 +1292,15 @@
       <c r="N32" s="5">
         <v>0.42687199999999997</v>
       </c>
-      <c r="O32" s="5"/>
+      <c r="O32" s="5">
+        <v>0.43532999999999999</v>
+      </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="9"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -1257,13 +1328,15 @@
       <c r="N33" s="5">
         <v>0.76533399999999996</v>
       </c>
-      <c r="O33" s="5"/>
+      <c r="O33" s="5">
+        <v>0.757884</v>
+      </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="9"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
@@ -1291,9 +1364,12 @@
       <c r="N34">
         <v>0.749</v>
       </c>
+      <c r="O34">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
@@ -1321,9 +1397,12 @@
       <c r="N35">
         <v>0.74399999999999999</v>
       </c>
+      <c r="O35">
+        <v>0.746</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="9"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
@@ -1351,9 +1430,12 @@
       <c r="N36">
         <v>0.74399999999999999</v>
       </c>
+      <c r="O36">
+        <v>0.746</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="9"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
@@ -1381,9 +1463,12 @@
       <c r="N37">
         <v>0.85799999999999998</v>
       </c>
+      <c r="O37">
+        <v>0.85799999999999998</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="8">
+      <c r="E38" s="9">
         <v>2008</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1413,9 +1498,12 @@
       <c r="N38">
         <v>73.680000000000007</v>
       </c>
+      <c r="O38">
+        <v>2.91</v>
+      </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="9"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
@@ -1443,9 +1531,12 @@
       <c r="N39">
         <v>0.59109999999999996</v>
       </c>
+      <c r="O39">
+        <v>0.60599999999999998</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="9"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
@@ -1473,9 +1564,12 @@
       <c r="N40">
         <v>0.1961</v>
       </c>
+      <c r="O40">
+        <v>0.19539999999999999</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="9"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
@@ -1503,9 +1597,12 @@
       <c r="N41">
         <v>0.37219999999999998</v>
       </c>
+      <c r="O41">
+        <v>0.3604</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="9"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1533,13 +1630,15 @@
       <c r="N42" s="5">
         <v>0.443994</v>
       </c>
-      <c r="O42" s="5"/>
+      <c r="O42" s="5">
+        <v>0.44244800000000001</v>
+      </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="9"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -1567,13 +1666,15 @@
       <c r="N43" s="5">
         <v>0.79210800000000003</v>
       </c>
-      <c r="O43" s="5"/>
+      <c r="O43" s="5">
+        <v>0.76701799999999998</v>
+      </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="9"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
@@ -1601,9 +1702,12 @@
       <c r="N44">
         <v>0.73499999999999999</v>
       </c>
+      <c r="O44">
+        <v>0.745</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="9"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
@@ -1631,9 +1735,12 @@
       <c r="N45">
         <v>0.73</v>
       </c>
+      <c r="O45">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="9"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
@@ -1661,9 +1768,12 @@
       <c r="N46">
         <v>0.73</v>
       </c>
+      <c r="O46">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="9"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
@@ -1691,9 +1801,12 @@
       <c r="N47">
         <v>0.84399999999999997</v>
       </c>
+      <c r="O47">
+        <v>0.85299999999999998</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="8">
+      <c r="E48" s="9">
         <v>2009</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -1723,9 +1836,12 @@
       <c r="N48">
         <v>67.930000000000007</v>
       </c>
+      <c r="O48">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="9"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
@@ -1753,9 +1869,12 @@
       <c r="N49">
         <v>0.5877</v>
       </c>
+      <c r="O49">
+        <v>0.59160000000000001</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="9"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
@@ -1783,9 +1902,12 @@
       <c r="N50">
         <v>0.1973</v>
       </c>
+      <c r="O50">
+        <v>0.2009</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="9"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="4" t="s">
         <v>14</v>
       </c>
@@ -1813,9 +1935,12 @@
       <c r="N51">
         <v>0.36840000000000001</v>
       </c>
+      <c r="O51">
+        <v>0.36459999999999998</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="9"/>
+      <c r="E52" s="10"/>
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
@@ -1843,13 +1968,15 @@
       <c r="N52" s="5">
         <v>0.448876</v>
       </c>
-      <c r="O52" s="5"/>
+      <c r="O52" s="5">
+        <v>0.45719300000000002</v>
+      </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="9"/>
+      <c r="E53" s="10"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
@@ -1877,13 +2004,15 @@
       <c r="N53" s="5">
         <v>0.78595700000000002</v>
       </c>
-      <c r="O53" s="5"/>
+      <c r="O53" s="5">
+        <v>0.77771900000000005</v>
+      </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="9"/>
+      <c r="E54" s="10"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
@@ -1911,9 +2040,12 @@
       <c r="N54">
         <v>0.73299999999999998</v>
       </c>
+      <c r="O54">
+        <v>0.73599999999999999</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="9"/>
+      <c r="E55" s="10"/>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
@@ -1941,9 +2073,12 @@
       <c r="N55">
         <v>0.72899999999999998</v>
       </c>
+      <c r="O55">
+        <v>0.73199999999999998</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="9"/>
+      <c r="E56" s="10"/>
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
@@ -1971,9 +2106,12 @@
       <c r="N56">
         <v>0.73</v>
       </c>
+      <c r="O56">
+        <v>0.73199999999999998</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="9"/>
+      <c r="E57" s="10"/>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
@@ -2001,9 +2139,12 @@
       <c r="N57">
         <v>0.84399999999999997</v>
       </c>
+      <c r="O57">
+        <v>0.84499999999999997</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="8">
+      <c r="E58" s="9">
         <v>2010</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -2033,9 +2174,12 @@
       <c r="N58">
         <v>54.48</v>
       </c>
+      <c r="O58">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="9"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
@@ -2063,9 +2207,12 @@
       <c r="N59">
         <v>0.8518</v>
       </c>
+      <c r="O59">
+        <v>0.83350000000000002</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="9"/>
+      <c r="E60" s="10"/>
       <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
@@ -2093,9 +2240,12 @@
       <c r="N60">
         <v>7.2900000000000006E-2</v>
       </c>
+      <c r="O60">
+        <v>8.3199999999999996E-2</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="9"/>
+      <c r="E61" s="10"/>
       <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
@@ -2123,9 +2273,12 @@
       <c r="N61">
         <v>0.24310000000000001</v>
       </c>
+      <c r="O61">
+        <v>0.25629999999999997</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="9"/>
+      <c r="E62" s="10"/>
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
@@ -2153,13 +2306,15 @@
       <c r="N62" s="5">
         <v>0.167103</v>
       </c>
-      <c r="O62" s="5"/>
+      <c r="O62" s="5">
+        <v>0.19086800000000001</v>
+      </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="9"/>
+      <c r="E63" s="10"/>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -2187,13 +2342,15 @@
       <c r="N63" s="5">
         <v>0.52072499999999999</v>
       </c>
-      <c r="O63" s="5"/>
+      <c r="O63" s="5">
+        <v>0.54899100000000001</v>
+      </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="9"/>
+      <c r="E64" s="10"/>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
@@ -2221,9 +2378,12 @@
       <c r="N64">
         <v>0.91200000000000003</v>
       </c>
+      <c r="O64">
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="9"/>
+      <c r="E65" s="10"/>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
@@ -2251,9 +2411,12 @@
       <c r="N65">
         <v>0.90300000000000002</v>
       </c>
+      <c r="O65">
+        <v>0.89100000000000001</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="9"/>
+      <c r="E66" s="10"/>
       <c r="F66" s="4" t="s">
         <v>19</v>
       </c>
@@ -2281,9 +2444,12 @@
       <c r="N66">
         <v>0.90300000000000002</v>
       </c>
+      <c r="O66">
+        <v>0.89100000000000001</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="9"/>
+      <c r="E67" s="10"/>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
@@ -2311,9 +2477,12 @@
       <c r="N67">
         <v>0.94599999999999995</v>
       </c>
+      <c r="O67">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="8">
+      <c r="E68" s="9">
         <v>2011</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -2343,9 +2512,12 @@
       <c r="N68">
         <v>32.07</v>
       </c>
+      <c r="O68">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="9"/>
+      <c r="E69" s="10"/>
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
@@ -2373,9 +2545,12 @@
       <c r="N69" s="7">
         <v>0.56579999999999997</v>
       </c>
+      <c r="O69" s="8">
+        <v>0.56720000000000004</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="9"/>
+      <c r="E70" s="10"/>
       <c r="F70" s="4" t="s">
         <v>13</v>
       </c>
@@ -2403,9 +2578,12 @@
       <c r="N70" s="7">
         <v>0.2072</v>
       </c>
+      <c r="O70" s="8">
+        <v>0.2092</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="9"/>
+      <c r="E71" s="10"/>
       <c r="F71" s="4" t="s">
         <v>14</v>
       </c>
@@ -2433,9 +2611,12 @@
       <c r="N71" s="7">
         <v>0.37390000000000001</v>
       </c>
+      <c r="O71" s="8">
+        <v>0.3705</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="9"/>
+      <c r="E72" s="10"/>
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
@@ -2463,13 +2644,15 @@
       <c r="N72" s="5">
         <v>0.47360099999999999</v>
       </c>
-      <c r="O72" s="5"/>
+      <c r="O72" s="5">
+        <v>0.47812900000000003</v>
+      </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="9"/>
+      <c r="E73" s="10"/>
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
@@ -2497,13 +2680,15 @@
       <c r="N73" s="5">
         <v>0.79937800000000003</v>
       </c>
-      <c r="O73" s="5"/>
+      <c r="O73" s="5">
+        <v>0.79217599999999999</v>
+      </c>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="9"/>
+      <c r="E74" s="10"/>
       <c r="F74" s="4" t="s">
         <v>17</v>
       </c>
@@ -2531,9 +2716,12 @@
       <c r="N74" s="7">
         <v>0.72099999999999997</v>
       </c>
+      <c r="O74" s="8">
+        <v>0.72199999999999998</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="9"/>
+      <c r="E75" s="10"/>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
@@ -2561,9 +2749,12 @@
       <c r="N75" s="7">
         <v>0.71599999999999997</v>
       </c>
+      <c r="O75" s="8">
+        <v>0.71699999999999997</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="9"/>
+      <c r="E76" s="10"/>
       <c r="F76" s="4" t="s">
         <v>19</v>
       </c>
@@ -2591,9 +2782,12 @@
       <c r="N76" s="7">
         <v>0.71599999999999997</v>
       </c>
+      <c r="O76" s="8">
+        <v>0.71799999999999997</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="9"/>
+      <c r="E77" s="10"/>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
@@ -2621,9 +2815,12 @@
       <c r="N77" s="7">
         <v>0.83199999999999996</v>
       </c>
+      <c r="O77" s="8">
+        <v>0.83099999999999996</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="8">
+      <c r="E78" s="9">
         <v>2012</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -2653,9 +2850,12 @@
       <c r="N78" s="7">
         <v>32.119999999999997</v>
       </c>
+      <c r="O78" s="8">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="9"/>
+      <c r="E79" s="10"/>
       <c r="F79" s="4" t="s">
         <v>12</v>
       </c>
@@ -2683,9 +2883,12 @@
       <c r="N79" s="7">
         <v>0.55600000000000005</v>
       </c>
+      <c r="O79" s="8">
+        <v>0.56950000000000001</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="9"/>
+      <c r="E80" s="10"/>
       <c r="F80" s="4" t="s">
         <v>13</v>
       </c>
@@ -2713,9 +2916,12 @@
       <c r="N80" s="7">
         <v>0.2094</v>
       </c>
+      <c r="O80" s="8">
+        <v>0.2089</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="9"/>
+      <c r="E81" s="10"/>
       <c r="F81" s="4" t="s">
         <v>14</v>
       </c>
@@ -2743,9 +2949,12 @@
       <c r="N81" s="7">
         <v>0.37990000000000002</v>
       </c>
+      <c r="O81" s="8">
+        <v>0.37569999999999998</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="9"/>
+      <c r="E82" s="10"/>
       <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
@@ -2773,13 +2982,15 @@
       <c r="N82" s="5">
         <v>0.48119699999999999</v>
       </c>
-      <c r="O82" s="5"/>
+      <c r="O82" s="5">
+        <v>0.48008600000000001</v>
+      </c>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="9"/>
+      <c r="E83" s="10"/>
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
@@ -2807,13 +3018,15 @@
       <c r="N83" s="5">
         <v>0.81445699999999999</v>
       </c>
-      <c r="O83" s="5"/>
+      <c r="O83" s="5">
+        <v>0.80547000000000002</v>
+      </c>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="9"/>
+      <c r="E84" s="10"/>
       <c r="F84" s="4" t="s">
         <v>17</v>
       </c>
@@ -2841,9 +3054,12 @@
       <c r="N84" s="7">
         <v>0.71599999999999997</v>
       </c>
+      <c r="O84" s="8">
+        <v>0.72499999999999998</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="9"/>
+      <c r="E85" s="10"/>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
@@ -2871,9 +3087,12 @@
       <c r="N85" s="7">
         <v>0.71099999999999997</v>
       </c>
+      <c r="O85" s="8">
+        <v>0.71899999999999997</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="9"/>
+      <c r="E86" s="10"/>
       <c r="F86" s="4" t="s">
         <v>19</v>
       </c>
@@ -2901,9 +3120,12 @@
       <c r="N86" s="7">
         <v>0.71199999999999997</v>
       </c>
+      <c r="O86" s="8">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="9"/>
+      <c r="E87" s="10"/>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
@@ -2931,9 +3153,12 @@
       <c r="N87" s="7">
         <v>0.82499999999999996</v>
       </c>
+      <c r="O87" s="8">
+        <v>0.82599999999999996</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="8">
+      <c r="E88" s="9">
         <v>2013</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -2963,9 +3188,12 @@
       <c r="N88" s="7">
         <v>130.78</v>
       </c>
+      <c r="O88" s="8">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="9"/>
+      <c r="E89" s="10"/>
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
@@ -2993,9 +3221,12 @@
       <c r="N89" s="7">
         <v>0.55479999999999996</v>
       </c>
+      <c r="O89" s="8">
+        <v>0.56310000000000004</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="9"/>
+      <c r="E90" s="10"/>
       <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
@@ -3023,9 +3254,12 @@
       <c r="N90" s="7">
         <v>0.21049999999999999</v>
       </c>
+      <c r="O90" s="8">
+        <v>0.21060000000000001</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="9"/>
+      <c r="E91" s="10"/>
       <c r="F91" s="4" t="s">
         <v>14</v>
       </c>
@@ -3053,9 +3287,12 @@
       <c r="N91" s="7">
         <v>0.378</v>
       </c>
+      <c r="O91" s="8">
+        <v>0.37340000000000001</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="9"/>
+      <c r="E92" s="10"/>
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
@@ -3083,13 +3320,15 @@
       <c r="N92" s="5">
         <v>0.48227300000000001</v>
       </c>
-      <c r="O92" s="5"/>
+      <c r="O92" s="5">
+        <v>0.48258299999999998</v>
+      </c>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="9"/>
+      <c r="E93" s="10"/>
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
@@ -3117,13 +3356,15 @@
       <c r="N93" s="5">
         <v>0.80926100000000001</v>
       </c>
-      <c r="O93" s="5"/>
+      <c r="O93" s="5">
+        <v>0.79936099999999999</v>
+      </c>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
     <row r="94" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="9"/>
+      <c r="E94" s="10"/>
       <c r="F94" s="4" t="s">
         <v>17</v>
       </c>
@@ -3151,9 +3392,12 @@
       <c r="N94" s="7">
         <v>0.71399999999999997</v>
       </c>
+      <c r="O94" s="8">
+        <v>0.71899999999999997</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="9"/>
+      <c r="E95" s="10"/>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
@@ -3181,9 +3425,12 @@
       <c r="N95" s="7">
         <v>0.70899999999999996</v>
       </c>
+      <c r="O95" s="8">
+        <v>0.71399999999999997</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="9"/>
+      <c r="E96" s="10"/>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
@@ -3211,9 +3458,12 @@
       <c r="N96" s="7">
         <v>0.71</v>
       </c>
+      <c r="O96" s="8">
+        <v>0.71499999999999997</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="9"/>
+      <c r="E97" s="10"/>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
@@ -3241,9 +3491,12 @@
       <c r="N97" s="7">
         <v>0.82699999999999996</v>
       </c>
+      <c r="O97" s="8">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="8">
+      <c r="E98" s="9">
         <v>2014</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -3273,9 +3526,12 @@
       <c r="N98" s="7">
         <v>114.31</v>
       </c>
+      <c r="O98" s="8">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="9"/>
+      <c r="E99" s="10"/>
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
@@ -3303,9 +3559,12 @@
       <c r="N99" s="7">
         <v>0.54169999999999996</v>
       </c>
+      <c r="O99" s="8">
+        <v>0.55620000000000003</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="9"/>
+      <c r="E100" s="10"/>
       <c r="F100" s="4" t="s">
         <v>13</v>
       </c>
@@ -3333,9 +3592,12 @@
       <c r="N100" s="7">
         <v>0.21679999999999999</v>
       </c>
+      <c r="O100" s="8">
+        <v>0.21779999999999999</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="9"/>
+      <c r="E101" s="10"/>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
@@ -3363,9 +3625,12 @@
       <c r="N101" s="7">
         <v>0.38419999999999999</v>
       </c>
+      <c r="O101" s="8">
+        <v>0.37569999999999998</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="9"/>
+      <c r="E102" s="10"/>
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
@@ -3393,13 +3658,15 @@
       <c r="N102" s="5">
         <v>0.49762200000000001</v>
       </c>
-      <c r="O102" s="5"/>
+      <c r="O102" s="5">
+        <v>0.50001200000000001</v>
+      </c>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
     <row r="103" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="9"/>
+      <c r="E103" s="10"/>
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
@@ -3427,13 +3694,15 @@
       <c r="N103" s="5">
         <v>0.82325700000000002</v>
       </c>
-      <c r="O103" s="5"/>
+      <c r="O103" s="5">
+        <v>0.80506299999999997</v>
+      </c>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
     <row r="104" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="9"/>
+      <c r="E104" s="10"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
@@ -3461,9 +3730,12 @@
       <c r="N104" s="7">
         <v>0.70599999999999996</v>
       </c>
+      <c r="O104" s="8">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="9"/>
+      <c r="E105" s="10"/>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
@@ -3491,9 +3763,12 @@
       <c r="N105" s="7">
         <v>0.70099999999999996</v>
       </c>
+      <c r="O105" s="8">
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="9"/>
+      <c r="E106" s="10"/>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
@@ -3521,9 +3796,12 @@
       <c r="N106" s="7">
         <v>0.70199999999999996</v>
       </c>
+      <c r="O106">
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="9"/>
+      <c r="E107" s="10"/>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
@@ -3551,9 +3829,12 @@
       <c r="N107" s="7">
         <v>0.81699999999999995</v>
       </c>
+      <c r="O107" s="8">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="8">
+      <c r="E108" s="9">
         <v>2015</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -3583,9 +3864,12 @@
       <c r="N108" s="7">
         <v>61.69</v>
       </c>
+      <c r="O108" s="8">
+        <v>2.09</v>
+      </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="9"/>
+      <c r="E109" s="10"/>
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
@@ -3613,9 +3897,12 @@
       <c r="N109" s="7">
         <v>0.55859999999999999</v>
       </c>
+      <c r="O109" s="8">
+        <v>0.55710000000000004</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="9"/>
+      <c r="E110" s="10"/>
       <c r="F110" s="4" t="s">
         <v>13</v>
       </c>
@@ -3643,9 +3930,12 @@
       <c r="N110" s="7">
         <v>0.21079999999999999</v>
       </c>
+      <c r="O110" s="8">
+        <v>0.21410000000000001</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="9"/>
+      <c r="E111" s="10"/>
       <c r="F111" s="4" t="s">
         <v>14</v>
       </c>
@@ -3673,9 +3963,12 @@
       <c r="N111" s="7">
         <v>0.378</v>
       </c>
+      <c r="O111" s="8">
+        <v>0.377</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="9"/>
+      <c r="E112" s="10"/>
       <c r="F112" s="4" t="s">
         <v>15</v>
       </c>
@@ -3703,13 +3996,15 @@
       <c r="N112" s="5">
         <v>0.48338599999999998</v>
       </c>
-      <c r="O112" s="5"/>
+      <c r="O112" s="5">
+        <v>0.49090499999999998</v>
+      </c>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
     <row r="113" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="9"/>
+      <c r="E113" s="10"/>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -3737,13 +4032,15 @@
       <c r="N113" s="5">
         <v>0.80945</v>
       </c>
-      <c r="O113" s="5"/>
+      <c r="O113" s="5">
+        <v>0.80732999999999999</v>
+      </c>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
     <row r="114" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="9"/>
+      <c r="E114" s="10"/>
       <c r="F114" s="4" t="s">
         <v>17</v>
       </c>
@@ -3771,9 +4068,12 @@
       <c r="N114" s="7">
         <v>0.71599999999999997</v>
       </c>
+      <c r="O114" s="8">
+        <v>0.71699999999999997</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="9"/>
+      <c r="E115" s="10"/>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
@@ -3801,9 +4101,12 @@
       <c r="N115" s="7">
         <v>0.71199999999999997</v>
       </c>
+      <c r="O115" s="8">
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="9"/>
+      <c r="E116" s="10"/>
       <c r="F116" s="4" t="s">
         <v>19</v>
       </c>
@@ -3831,9 +4134,12 @@
       <c r="N116" s="7">
         <v>0.71299999999999997</v>
       </c>
+      <c r="O116" s="8">
+        <v>0.71299999999999997</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="9"/>
+      <c r="E117" s="10"/>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
@@ -3861,9 +4167,12 @@
       <c r="N117" s="7">
         <v>0.82699999999999996</v>
       </c>
+      <c r="O117" s="8">
+        <v>0.82299999999999995</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="10" t="s">
+      <c r="E118" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -3901,9 +4210,9 @@
         <f t="shared" si="0"/>
         <v>72.840909090909093</v>
       </c>
-      <c r="O118" s="4" t="e">
+      <c r="O118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.3181818181818183</v>
       </c>
       <c r="P118" s="4" t="e">
         <f t="shared" si="0"/>
@@ -3915,7 +4224,7 @@
       </c>
     </row>
     <row r="119" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="9"/>
+      <c r="E119" s="10"/>
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
@@ -3951,9 +4260,9 @@
         <f t="shared" si="1"/>
         <v>0.60590909090909095</v>
       </c>
-      <c r="O119" s="4" t="e">
+      <c r="O119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.6104909090909092</v>
       </c>
       <c r="P119" s="4" t="e">
         <f t="shared" si="1"/>
@@ -3965,7 +4274,7 @@
       </c>
     </row>
     <row r="120" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="9"/>
+      <c r="E120" s="10"/>
       <c r="F120" s="4" t="s">
         <v>13</v>
       </c>
@@ -4001,9 +4310,9 @@
         <f t="shared" si="2"/>
         <v>0.18910909090909092</v>
       </c>
-      <c r="O120" s="4" t="e">
+      <c r="O120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.19169090909090913</v>
       </c>
       <c r="P120" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4015,7 +4324,7 @@
       </c>
     </row>
     <row r="121" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="9"/>
+      <c r="E121" s="10"/>
       <c r="F121" s="4" t="s">
         <v>14</v>
       </c>
@@ -4051,9 +4360,9 @@
         <f t="shared" si="3"/>
         <v>0.35922727272727273</v>
       </c>
-      <c r="O121" s="4" t="e">
+      <c r="O121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.35570909090909092</v>
       </c>
       <c r="P121" s="4" t="e">
         <f t="shared" si="3"/>
@@ -4065,7 +4374,7 @@
       </c>
     </row>
     <row r="122" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="9"/>
+      <c r="E122" s="10"/>
       <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
@@ -4101,9 +4410,9 @@
         <f t="shared" si="4"/>
         <v>0.43086854545454545</v>
       </c>
-      <c r="O122" s="5" t="e">
+      <c r="O122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.43681454545454551</v>
       </c>
       <c r="P122" s="5" t="e">
         <f t="shared" si="4"/>
@@ -4115,7 +4424,7 @@
       </c>
     </row>
     <row r="123" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="9"/>
+      <c r="E123" s="10"/>
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
@@ -4151,9 +4460,9 @@
         <f t="shared" si="5"/>
         <v>0.76686972727272718</v>
       </c>
-      <c r="O123" s="5" t="e">
+      <c r="O123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.75937063636363644</v>
       </c>
       <c r="P123" s="5" t="e">
         <f t="shared" si="5"/>
@@ -4165,7 +4474,7 @@
       </c>
     </row>
     <row r="124" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="9"/>
+      <c r="E124" s="10"/>
       <c r="F124" s="4" t="s">
         <v>17</v>
       </c>
@@ -4201,9 +4510,9 @@
         <f t="shared" si="6"/>
         <v>0.74636363636363623</v>
       </c>
-      <c r="O124" s="4" t="e">
+      <c r="O124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.74981818181818194</v>
       </c>
       <c r="P124" s="4" t="e">
         <f t="shared" si="6"/>
@@ -4215,7 +4524,7 @@
       </c>
     </row>
     <row r="125" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="9"/>
+      <c r="E125" s="10"/>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
@@ -4251,9 +4560,9 @@
         <f t="shared" si="7"/>
         <v>0.74127272727272731</v>
       </c>
-      <c r="O125" s="4" t="e">
+      <c r="O125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.74427272727272742</v>
       </c>
       <c r="P125" s="4" t="e">
         <f t="shared" si="7"/>
@@ -4265,7 +4574,7 @@
       </c>
     </row>
     <row r="126" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="9"/>
+      <c r="E126" s="10"/>
       <c r="F126" s="4" t="s">
         <v>19</v>
       </c>
@@ -4301,9 +4610,9 @@
         <f t="shared" si="8"/>
         <v>0.74163636363636354</v>
       </c>
-      <c r="O126" s="4" t="e">
+      <c r="O126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.74472727272727279</v>
       </c>
       <c r="P126" s="4" t="e">
         <f t="shared" si="8"/>
@@ -4315,7 +4624,7 @@
       </c>
     </row>
     <row r="127" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="9"/>
+      <c r="E127" s="10"/>
       <c r="F127" s="4" t="s">
         <v>20</v>
       </c>
@@ -4351,9 +4660,9 @@
         <f t="shared" si="9"/>
         <v>0.84954545454545449</v>
       </c>
-      <c r="O127" s="4" t="e">
+      <c r="O127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.85027272727272707</v>
       </c>
       <c r="P127" s="4" t="e">
         <f t="shared" si="9"/>
@@ -7007,8 +7316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="P116" sqref="P116"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q112" sqref="Q112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7074,7 +7383,7 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>2005</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -7104,9 +7413,12 @@
       <c r="N8">
         <v>49.77</v>
       </c>
+      <c r="O8">
+        <v>2.69</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -7134,9 +7446,12 @@
       <c r="N9">
         <v>0.62</v>
       </c>
+      <c r="O9">
+        <v>0.62480000000000002</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -7164,9 +7479,12 @@
       <c r="N10">
         <v>0.18729999999999999</v>
       </c>
+      <c r="O10">
+        <v>0.18890000000000001</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
@@ -7194,9 +7512,12 @@
       <c r="N11">
         <v>0.35899999999999999</v>
       </c>
+      <c r="O11">
+        <v>0.35339999999999999</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
@@ -7224,13 +7545,15 @@
       <c r="N12" s="5">
         <v>0.42286099999999999</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="O12" s="5">
+        <v>0.426541</v>
+      </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
@@ -7258,13 +7581,15 @@
       <c r="N13" s="5">
         <v>0.76298299999999997</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5">
+        <v>0.75108799999999998</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
@@ -7292,9 +7617,12 @@
       <c r="N14">
         <v>0.753</v>
       </c>
+      <c r="O14">
+        <v>0.75600000000000001</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
@@ -7322,9 +7650,12 @@
       <c r="N15">
         <v>0.749</v>
       </c>
+      <c r="O15">
+        <v>0.751</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
@@ -7352,9 +7683,12 @@
       <c r="N16">
         <v>0.748</v>
       </c>
+      <c r="O16">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
@@ -7382,9 +7716,12 @@
       <c r="N17">
         <v>0.86</v>
       </c>
+      <c r="O17">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>2006</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -7414,9 +7751,12 @@
       <c r="N18">
         <v>51.55</v>
       </c>
+      <c r="O18">
+        <v>3.62</v>
+      </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="9"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
@@ -7444,9 +7784,12 @@
       <c r="N19">
         <v>0.62170000000000003</v>
       </c>
+      <c r="O19">
+        <v>0.62619999999999998</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
@@ -7474,9 +7817,12 @@
       <c r="N20">
         <v>0.1855</v>
       </c>
+      <c r="O20">
+        <v>0.18759999999999999</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="9"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
@@ -7504,9 +7850,12 @@
       <c r="N21">
         <v>0.35720000000000002</v>
       </c>
+      <c r="O21">
+        <v>0.35070000000000001</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="9"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
@@ -7534,13 +7883,15 @@
       <c r="N22" s="5">
         <v>0.418045</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5">
+        <v>0.42278399999999999</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="9"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -7568,13 +7919,15 @@
       <c r="N23" s="5">
         <v>0.75846199999999997</v>
       </c>
-      <c r="O23" s="5"/>
+      <c r="O23" s="5">
+        <v>0.74454699999999996</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="9"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
@@ -7602,9 +7955,12 @@
       <c r="N24">
         <v>0.753</v>
       </c>
+      <c r="O24">
+        <v>0.75600000000000001</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="9"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
@@ -7632,9 +7988,12 @@
       <c r="N25">
         <v>0.749</v>
       </c>
+      <c r="O25">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="9"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
@@ -7662,9 +8021,12 @@
       <c r="N26">
         <v>0.75</v>
       </c>
+      <c r="O26">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="9"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
@@ -7692,9 +8054,12 @@
       <c r="N27">
         <v>0.86499999999999999</v>
       </c>
+      <c r="O27">
+        <v>0.86599999999999999</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="8">
+      <c r="E28" s="9">
         <v>2007</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -7724,9 +8089,12 @@
       <c r="N28">
         <v>97.74</v>
       </c>
+      <c r="O28">
+        <v>3.56</v>
+      </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="9"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
@@ -7754,9 +8122,12 @@
       <c r="N29">
         <v>0.60929999999999995</v>
       </c>
+      <c r="O29">
+        <v>0.62260000000000004</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="9"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
@@ -7784,9 +8155,12 @@
       <c r="N30">
         <v>0.18820000000000001</v>
       </c>
+      <c r="O30">
+        <v>0.192</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="9"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
@@ -7814,9 +8188,12 @@
       <c r="N31">
         <v>0.3594</v>
       </c>
+      <c r="O31">
+        <v>0.34939999999999999</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="9"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
@@ -7844,13 +8221,15 @@
       <c r="N32" s="5">
         <v>0.424678</v>
       </c>
-      <c r="O32" s="5"/>
+      <c r="O32" s="5">
+        <v>0.43321399999999999</v>
+      </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="9"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -7878,13 +8257,15 @@
       <c r="N33" s="5">
         <v>0.76352200000000003</v>
       </c>
-      <c r="O33" s="5"/>
+      <c r="O33" s="5">
+        <v>0.742143</v>
+      </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="9"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
@@ -7912,9 +8293,12 @@
       <c r="N34">
         <v>0.746</v>
       </c>
+      <c r="O34">
+        <v>0.75700000000000001</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
@@ -7942,9 +8326,12 @@
       <c r="N35">
         <v>0.74099999999999999</v>
       </c>
+      <c r="O35">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="9"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
@@ -7972,9 +8359,12 @@
       <c r="N36">
         <v>0.74199999999999999</v>
       </c>
+      <c r="O36">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="9"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
@@ -8002,9 +8392,12 @@
       <c r="N37">
         <v>0.86</v>
       </c>
+      <c r="O37">
+        <v>0.86499999999999999</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="8">
+      <c r="E38" s="9">
         <v>2008</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -8034,9 +8427,12 @@
       <c r="N38">
         <v>44.98</v>
       </c>
+      <c r="O38">
+        <v>2.4700000000000002</v>
+      </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="9"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
@@ -8064,9 +8460,12 @@
       <c r="N39">
         <v>0.60840000000000005</v>
       </c>
+      <c r="O39">
+        <v>0.61499999999999999</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="9"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
@@ -8094,9 +8493,12 @@
       <c r="N40">
         <v>0.19289999999999999</v>
       </c>
+      <c r="O40">
+        <v>0.19620000000000001</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="9"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
@@ -8124,9 +8526,12 @@
       <c r="N41">
         <v>0.35730000000000001</v>
       </c>
+      <c r="O41">
+        <v>0.35089999999999999</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="9"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
@@ -8154,13 +8559,15 @@
       <c r="N42" s="5">
         <v>0.43673499999999998</v>
       </c>
-      <c r="O42" s="5"/>
+      <c r="O42" s="5">
+        <v>0.44438899999999998</v>
+      </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="9"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -8188,13 +8595,15 @@
       <c r="N43" s="5">
         <v>0.76048199999999999</v>
       </c>
-      <c r="O43" s="5"/>
+      <c r="O43" s="5">
+        <v>0.74677300000000002</v>
+      </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="9"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
@@ -8222,9 +8631,12 @@
       <c r="N44">
         <v>0.747</v>
       </c>
+      <c r="O44">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="9"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
@@ -8252,9 +8664,12 @@
       <c r="N45">
         <v>0.74099999999999999</v>
       </c>
+      <c r="O45">
+        <v>0.746</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="9"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
@@ -8282,9 +8697,12 @@
       <c r="N46">
         <v>0.74099999999999999</v>
       </c>
+      <c r="O46">
+        <v>0.745</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="9"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
@@ -8312,9 +8730,12 @@
       <c r="N47">
         <v>0.85799999999999998</v>
       </c>
+      <c r="O47">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="8">
+      <c r="E48" s="9">
         <v>2009</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -8344,9 +8765,12 @@
       <c r="N48">
         <v>49.56</v>
       </c>
+      <c r="O48">
+        <v>2.91</v>
+      </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="9"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
@@ -8374,9 +8798,12 @@
       <c r="N49">
         <v>0.58530000000000004</v>
       </c>
+      <c r="O49">
+        <v>0.58630000000000004</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="9"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
@@ -8404,9 +8831,12 @@
       <c r="N50">
         <v>0.19839999999999999</v>
       </c>
+      <c r="O50">
+        <v>0.2019</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="9"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="4" t="s">
         <v>14</v>
       </c>
@@ -8434,9 +8864,12 @@
       <c r="N51">
         <v>0.37769999999999998</v>
       </c>
+      <c r="O51">
+        <v>0.37409999999999999</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="9"/>
+      <c r="E52" s="10"/>
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
@@ -8464,13 +8897,15 @@
       <c r="N52" s="5">
         <v>0.45143299999999997</v>
       </c>
-      <c r="O52" s="5"/>
+      <c r="O52" s="5">
+        <v>0.45947100000000002</v>
+      </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="9"/>
+      <c r="E53" s="10"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
@@ -8498,13 +8933,15 @@
       <c r="N53" s="5">
         <v>0.80569299999999999</v>
       </c>
-      <c r="O53" s="5"/>
+      <c r="O53" s="5">
+        <v>0.79807899999999998</v>
+      </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="9"/>
+      <c r="E54" s="10"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
@@ -8532,9 +8969,12 @@
       <c r="N54">
         <v>0.73099999999999998</v>
       </c>
+      <c r="O54">
+        <v>0.73199999999999998</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="9"/>
+      <c r="E55" s="10"/>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
@@ -8562,9 +9002,12 @@
       <c r="N55">
         <v>0.72699999999999998</v>
       </c>
+      <c r="O55">
+        <v>0.72799999999999998</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="9"/>
+      <c r="E56" s="10"/>
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
@@ -8592,9 +9035,12 @@
       <c r="N56">
         <v>0.72799999999999998</v>
       </c>
+      <c r="O56">
+        <v>0.72799999999999998</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="9"/>
+      <c r="E57" s="10"/>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
@@ -8622,9 +9068,12 @@
       <c r="N57">
         <v>0.83499999999999996</v>
       </c>
+      <c r="O57">
+        <v>0.83499999999999996</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="8">
+      <c r="E58" s="9">
         <v>2010</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -8654,9 +9103,12 @@
       <c r="N58">
         <v>54.07</v>
       </c>
+      <c r="O58">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="9"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
@@ -8684,9 +9136,12 @@
       <c r="N59">
         <v>0.84640000000000004</v>
       </c>
+      <c r="O59">
+        <v>0.8347</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="9"/>
+      <c r="E60" s="10"/>
       <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
@@ -8714,9 +9169,12 @@
       <c r="N60">
         <v>7.5300000000000006E-2</v>
       </c>
+      <c r="O60">
+        <v>8.2500000000000004E-2</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="9"/>
+      <c r="E61" s="10"/>
       <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
@@ -8744,9 +9202,12 @@
       <c r="N61">
         <v>0.24610000000000001</v>
       </c>
+      <c r="O61">
+        <v>0.25600000000000001</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="9"/>
+      <c r="E62" s="10"/>
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
@@ -8774,13 +9235,15 @@
       <c r="N62" s="5">
         <v>0.172705</v>
       </c>
-      <c r="O62" s="5"/>
+      <c r="O62" s="5">
+        <v>0.18914600000000001</v>
+      </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="9"/>
+      <c r="E63" s="10"/>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -8808,13 +9271,15 @@
       <c r="N63" s="5">
         <v>0.52715000000000001</v>
       </c>
-      <c r="O63" s="5"/>
+      <c r="O63" s="5">
+        <v>0.54814600000000002</v>
+      </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="9"/>
+      <c r="E64" s="10"/>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
@@ -8842,9 +9307,12 @@
       <c r="N64">
         <v>0.90900000000000003</v>
       </c>
+      <c r="O64">
+        <v>0.90200000000000002</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="9"/>
+      <c r="E65" s="10"/>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
@@ -8872,9 +9340,12 @@
       <c r="N65">
         <v>0.9</v>
       </c>
+      <c r="O65">
+        <v>0.89200000000000002</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="9"/>
+      <c r="E66" s="10"/>
       <c r="F66" s="4" t="s">
         <v>19</v>
       </c>
@@ -8902,9 +9373,12 @@
       <c r="N66">
         <v>0.89900000000000002</v>
       </c>
+      <c r="O66">
+        <v>0.89200000000000002</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="9"/>
+      <c r="E67" s="10"/>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
@@ -8932,9 +9406,12 @@
       <c r="N67">
         <v>0.94399999999999995</v>
       </c>
+      <c r="O67">
+        <v>0.94099999999999995</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="8">
+      <c r="E68" s="9">
         <v>2011</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -8964,9 +9441,12 @@
       <c r="N68">
         <v>50.38</v>
       </c>
+      <c r="O68">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="9"/>
+      <c r="E69" s="10"/>
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
@@ -8994,9 +9474,12 @@
       <c r="N69">
         <v>0.5665</v>
       </c>
+      <c r="O69">
+        <v>0.56789999999999996</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="9"/>
+      <c r="E70" s="10"/>
       <c r="F70" s="4" t="s">
         <v>13</v>
       </c>
@@ -9024,9 +9507,12 @@
       <c r="N70">
         <v>0.20760000000000001</v>
       </c>
+      <c r="O70">
+        <v>0.20910000000000001</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="9"/>
+      <c r="E71" s="10"/>
       <c r="F71" s="4" t="s">
         <v>14</v>
       </c>
@@ -9054,9 +9540,12 @@
       <c r="N71">
         <v>0.37440000000000001</v>
       </c>
+      <c r="O71">
+        <v>0.37219999999999998</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="9"/>
+      <c r="E72" s="10"/>
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
@@ -9084,13 +9573,15 @@
       <c r="N72" s="5">
         <v>0.47451399999999999</v>
       </c>
-      <c r="O72" s="5"/>
+      <c r="O72" s="5">
+        <v>0.47805399999999998</v>
+      </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="9"/>
+      <c r="E73" s="10"/>
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
@@ -9118,13 +9609,15 @@
       <c r="N73" s="5">
         <v>0.80058399999999996</v>
       </c>
-      <c r="O73" s="5"/>
+      <c r="O73" s="5">
+        <v>0.79577399999999998</v>
+      </c>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="9"/>
+      <c r="E74" s="10"/>
       <c r="F74" s="4" t="s">
         <v>17</v>
       </c>
@@ -9152,9 +9645,12 @@
       <c r="N74">
         <v>0.72099999999999997</v>
       </c>
+      <c r="O74">
+        <v>0.72299999999999998</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="9"/>
+      <c r="E75" s="10"/>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
@@ -9182,9 +9678,12 @@
       <c r="N75">
         <v>0.71599999999999997</v>
       </c>
+      <c r="O75">
+        <v>0.71699999999999997</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="9"/>
+      <c r="E76" s="10"/>
       <c r="F76" s="4" t="s">
         <v>19</v>
       </c>
@@ -9212,9 +9711,12 @@
       <c r="N76">
         <v>0.71699999999999997</v>
       </c>
+      <c r="O76">
+        <v>0.71799999999999997</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="9"/>
+      <c r="E77" s="10"/>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
@@ -9242,9 +9744,12 @@
       <c r="N77">
         <v>0.83</v>
       </c>
+      <c r="O77">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="8">
+      <c r="E78" s="9">
         <v>2012</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -9274,9 +9779,12 @@
       <c r="N78">
         <v>39.700000000000003</v>
       </c>
+      <c r="O78">
+        <v>2.0499999999999998</v>
+      </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="9"/>
+      <c r="E79" s="10"/>
       <c r="F79" s="4" t="s">
         <v>12</v>
       </c>
@@ -9304,9 +9812,12 @@
       <c r="N79">
         <v>0.57089999999999996</v>
       </c>
+      <c r="O79">
+        <v>0.56899999999999995</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="9"/>
+      <c r="E80" s="10"/>
       <c r="F80" s="4" t="s">
         <v>13</v>
       </c>
@@ -9334,9 +9845,12 @@
       <c r="N80">
         <v>0.2104</v>
       </c>
+      <c r="O80">
+        <v>0.21010000000000001</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="9"/>
+      <c r="E81" s="10"/>
       <c r="F81" s="4" t="s">
         <v>14</v>
       </c>
@@ -9364,9 +9878,12 @@
       <c r="N81">
         <v>0.36520000000000002</v>
       </c>
+      <c r="O81">
+        <v>0.3679</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="9"/>
+      <c r="E82" s="10"/>
       <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
@@ -9394,13 +9911,15 @@
       <c r="N82" s="5">
         <v>0.48348400000000002</v>
       </c>
-      <c r="O82" s="5"/>
+      <c r="O82" s="5">
+        <v>0.48286499999999999</v>
+      </c>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="9"/>
+      <c r="E83" s="10"/>
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
@@ -9428,13 +9947,15 @@
       <c r="N83" s="5">
         <v>0.78296900000000003</v>
       </c>
-      <c r="O83" s="5"/>
+      <c r="O83" s="5">
+        <v>0.78880399999999995</v>
+      </c>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="9"/>
+      <c r="E84" s="10"/>
       <c r="F84" s="4" t="s">
         <v>17</v>
       </c>
@@ -9462,9 +9983,12 @@
       <c r="N84">
         <v>0.72699999999999998</v>
       </c>
+      <c r="O84">
+        <v>0.72599999999999998</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="9"/>
+      <c r="E85" s="10"/>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
@@ -9492,9 +10016,12 @@
       <c r="N85">
         <v>0.72</v>
       </c>
+      <c r="O85">
+        <v>0.71899999999999997</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="9"/>
+      <c r="E86" s="10"/>
       <c r="F86" s="4" t="s">
         <v>19</v>
       </c>
@@ -9522,9 +10049,12 @@
       <c r="N86">
         <v>0.72099999999999997</v>
       </c>
+      <c r="O86">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="9"/>
+      <c r="E87" s="10"/>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
@@ -9552,9 +10082,12 @@
       <c r="N87">
         <v>0.83599999999999997</v>
       </c>
+      <c r="O87">
+        <v>0.83199999999999996</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="8">
+      <c r="E88" s="9">
         <v>2013</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -9584,9 +10117,12 @@
       <c r="N88">
         <v>51.67</v>
       </c>
+      <c r="O88">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="9"/>
+      <c r="E89" s="10"/>
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
@@ -9614,9 +10150,12 @@
       <c r="N89">
         <v>0.55900000000000005</v>
       </c>
+      <c r="O89">
+        <v>0.55779999999999996</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="9"/>
+      <c r="E90" s="10"/>
       <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
@@ -9644,9 +10183,12 @@
       <c r="N90">
         <v>0.21099999999999999</v>
       </c>
+      <c r="O90">
+        <v>0.21340000000000001</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="9"/>
+      <c r="E91" s="10"/>
       <c r="F91" s="4" t="s">
         <v>14</v>
       </c>
@@ -9674,9 +10216,12 @@
       <c r="N91">
         <v>0.3755</v>
       </c>
+      <c r="O91">
+        <v>0.37169999999999997</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="9"/>
+      <c r="E92" s="10"/>
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
@@ -9704,13 +10249,15 @@
       <c r="N92" s="5">
         <v>0.48339700000000002</v>
       </c>
-      <c r="O92" s="5"/>
+      <c r="O92" s="5">
+        <v>0.48900900000000003</v>
+      </c>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="9"/>
+      <c r="E93" s="10"/>
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
@@ -9738,13 +10285,15 @@
       <c r="N93" s="5">
         <v>0.80381599999999997</v>
       </c>
-      <c r="O93" s="5"/>
+      <c r="O93" s="5">
+        <v>0.79571000000000003</v>
+      </c>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
     <row r="94" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="9"/>
+      <c r="E94" s="10"/>
       <c r="F94" s="4" t="s">
         <v>17</v>
       </c>
@@ -9772,9 +10321,12 @@
       <c r="N94">
         <v>0.71799999999999997</v>
       </c>
+      <c r="O94">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="9"/>
+      <c r="E95" s="10"/>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
@@ -9802,9 +10354,12 @@
       <c r="N95">
         <v>0.71199999999999997</v>
       </c>
+      <c r="O95">
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="9"/>
+      <c r="E96" s="10"/>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
@@ -9832,9 +10387,12 @@
       <c r="N96">
         <v>0.71199999999999997</v>
       </c>
+      <c r="O96">
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="9"/>
+      <c r="E97" s="10"/>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
@@ -9862,9 +10420,12 @@
       <c r="N97">
         <v>0.82699999999999996</v>
       </c>
+      <c r="O97">
+        <v>0.82899999999999996</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="8">
+      <c r="E98" s="9">
         <v>2014</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -9894,9 +10455,12 @@
       <c r="N98">
         <v>46.55</v>
       </c>
+      <c r="O98">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="9"/>
+      <c r="E99" s="10"/>
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
@@ -9924,9 +10488,12 @@
       <c r="N99">
         <v>0.55459999999999998</v>
       </c>
+      <c r="O99">
+        <v>0.55789999999999995</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="9"/>
+      <c r="E100" s="10"/>
       <c r="F100" s="4" t="s">
         <v>13</v>
       </c>
@@ -9954,9 +10521,12 @@
       <c r="N100">
         <v>0.21560000000000001</v>
       </c>
+      <c r="O100">
+        <v>0.21790000000000001</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="9"/>
+      <c r="E101" s="10"/>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
@@ -9984,9 +10554,12 @@
       <c r="N101">
         <v>0.37080000000000002</v>
       </c>
+      <c r="O101">
+        <v>0.3669</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="9"/>
+      <c r="E102" s="10"/>
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
@@ -10014,13 +10587,15 @@
       <c r="N102" s="5">
         <v>0.49494500000000002</v>
       </c>
-      <c r="O102" s="5"/>
+      <c r="O102" s="5">
+        <v>0.50004300000000002</v>
+      </c>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
     <row r="103" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="9"/>
+      <c r="E103" s="10"/>
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
@@ -10048,13 +10623,15 @@
       <c r="N103" s="5">
         <v>0.794489</v>
       </c>
-      <c r="O103" s="5"/>
+      <c r="O103" s="5">
+        <v>0.78617000000000004</v>
+      </c>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
     <row r="104" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="9"/>
+      <c r="E104" s="10"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
@@ -10082,9 +10659,12 @@
       <c r="N104">
         <v>0.71499999999999997</v>
       </c>
+      <c r="O104">
+        <v>0.71799999999999997</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="9"/>
+      <c r="E105" s="10"/>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
@@ -10112,9 +10692,12 @@
       <c r="N105">
         <v>0.70899999999999996</v>
       </c>
+      <c r="O105">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="9"/>
+      <c r="E106" s="10"/>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
@@ -10142,9 +10725,12 @@
       <c r="N106">
         <v>0.71099999999999997</v>
       </c>
+      <c r="O106">
+        <v>0.71299999999999997</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="9"/>
+      <c r="E107" s="10"/>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
@@ -10172,9 +10758,12 @@
       <c r="N107">
         <v>0.82899999999999996</v>
       </c>
+      <c r="O107">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="8">
+      <c r="E108" s="9">
         <v>2015</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -10204,9 +10793,12 @@
       <c r="N108">
         <v>43.92</v>
       </c>
+      <c r="O108">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="9"/>
+      <c r="E109" s="10"/>
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
@@ -10234,9 +10826,12 @@
       <c r="N109">
         <v>0.55379999999999996</v>
       </c>
+      <c r="O109">
+        <v>0.55659999999999998</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="9"/>
+      <c r="E110" s="10"/>
       <c r="F110" s="4" t="s">
         <v>13</v>
       </c>
@@ -10264,9 +10859,12 @@
       <c r="N110">
         <v>0.21110000000000001</v>
       </c>
+      <c r="O110">
+        <v>0.21299999999999999</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="9"/>
+      <c r="E111" s="10"/>
       <c r="F111" s="4" t="s">
         <v>14</v>
       </c>
@@ -10294,9 +10892,12 @@
       <c r="N111">
         <v>0.3795</v>
       </c>
+      <c r="O111">
+        <v>0.379</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="9"/>
+      <c r="E112" s="10"/>
       <c r="F112" s="4" t="s">
         <v>15</v>
       </c>
@@ -10324,13 +10925,15 @@
       <c r="N112" s="5">
         <v>0.48419899999999999</v>
       </c>
-      <c r="O112" s="5"/>
+      <c r="O112" s="5">
+        <v>0.48835299999999998</v>
+      </c>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
     <row r="113" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="9"/>
+      <c r="E113" s="10"/>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -10358,13 +10961,15 @@
       <c r="N113" s="5">
         <v>0.81272699999999998</v>
       </c>
-      <c r="O113" s="5"/>
+      <c r="O113" s="5">
+        <v>0.81169899999999995</v>
+      </c>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
     <row r="114" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="9"/>
+      <c r="E114" s="10"/>
       <c r="F114" s="4" t="s">
         <v>17</v>
       </c>
@@ -10392,9 +10997,12 @@
       <c r="N114">
         <v>0.71299999999999997</v>
       </c>
+      <c r="O114">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="9"/>
+      <c r="E115" s="10"/>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
@@ -10422,9 +11030,12 @@
       <c r="N115">
         <v>0.70899999999999996</v>
       </c>
+      <c r="O115">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="9"/>
+      <c r="E116" s="10"/>
       <c r="F116" s="4" t="s">
         <v>19</v>
       </c>
@@ -10452,9 +11063,12 @@
       <c r="N116">
         <v>0.71</v>
       </c>
+      <c r="O116">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="9"/>
+      <c r="E117" s="10"/>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
@@ -10482,9 +11096,12 @@
       <c r="N117">
         <v>0.82399999999999995</v>
       </c>
+      <c r="O117">
+        <v>0.82199999999999995</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="10" t="s">
+      <c r="E118" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -10522,9 +11139,9 @@
         <f t="shared" si="0"/>
         <v>52.717272727272729</v>
       </c>
-      <c r="O118" s="4" t="e">
+      <c r="O118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.3636363636363638</v>
       </c>
       <c r="P118" s="4" t="e">
         <f t="shared" si="0"/>
@@ -10536,7 +11153,7 @@
       </c>
     </row>
     <row r="119" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="9"/>
+      <c r="E119" s="10"/>
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
@@ -10572,9 +11189,9 @@
         <f t="shared" si="1"/>
         <v>0.60871818181818182</v>
       </c>
-      <c r="O119" s="4" t="e">
+      <c r="O119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.61080000000000001</v>
       </c>
       <c r="P119" s="4" t="e">
         <f t="shared" si="1"/>
@@ -10586,7 +11203,7 @@
       </c>
     </row>
     <row r="120" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="9"/>
+      <c r="E120" s="10"/>
       <c r="F120" s="4" t="s">
         <v>13</v>
       </c>
@@ -10622,9 +11239,9 @@
         <f t="shared" si="2"/>
         <v>0.18939090909090908</v>
       </c>
-      <c r="O120" s="4" t="e">
+      <c r="O120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.19205454545454545</v>
       </c>
       <c r="P120" s="4" t="e">
         <f t="shared" si="2"/>
@@ -10636,7 +11253,7 @@
       </c>
     </row>
     <row r="121" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="9"/>
+      <c r="E121" s="10"/>
       <c r="F121" s="4" t="s">
         <v>14</v>
       </c>
@@ -10672,9 +11289,9 @@
         <f t="shared" si="3"/>
         <v>0.35655454545454551</v>
       </c>
-      <c r="O121" s="4" t="e">
+      <c r="O121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.35383636363636356</v>
       </c>
       <c r="P121" s="4" t="e">
         <f t="shared" si="3"/>
@@ -10686,7 +11303,7 @@
       </c>
     </row>
     <row r="122" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="9"/>
+      <c r="E122" s="10"/>
       <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
@@ -10722,9 +11339,9 @@
         <f t="shared" si="4"/>
         <v>0.43154509090909099</v>
       </c>
-      <c r="O122" s="5" t="e">
+      <c r="O122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.43762445454545451</v>
       </c>
       <c r="P122" s="5" t="e">
         <f t="shared" si="4"/>
@@ -10736,7 +11353,7 @@
       </c>
     </row>
     <row r="123" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="9"/>
+      <c r="E123" s="10"/>
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
@@ -10772,9 +11389,9 @@
         <f t="shared" si="5"/>
         <v>0.76117063636363647</v>
       </c>
-      <c r="O123" s="5" t="e">
+      <c r="O123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.75535754545454548</v>
       </c>
       <c r="P123" s="5" t="e">
         <f t="shared" si="5"/>
@@ -10786,7 +11403,7 @@
       </c>
     </row>
     <row r="124" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="9"/>
+      <c r="E124" s="10"/>
       <c r="F124" s="4" t="s">
         <v>17</v>
       </c>
@@ -10822,9 +11439,9 @@
         <f t="shared" si="6"/>
         <v>0.74845454545454537</v>
       </c>
-      <c r="O124" s="4" t="e">
+      <c r="O124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.75045454545454549</v>
       </c>
       <c r="P124" s="4" t="e">
         <f t="shared" si="6"/>
@@ -10836,7 +11453,7 @@
       </c>
     </row>
     <row r="125" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="9"/>
+      <c r="E125" s="10"/>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
@@ -10872,9 +11489,9 @@
         <f t="shared" si="7"/>
         <v>0.74299999999999999</v>
       </c>
-      <c r="O125" s="4" t="e">
+      <c r="O125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.74436363636363645</v>
       </c>
       <c r="P125" s="4" t="e">
         <f t="shared" si="7"/>
@@ -10886,7 +11503,7 @@
       </c>
     </row>
     <row r="126" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="9"/>
+      <c r="E126" s="10"/>
       <c r="F126" s="4" t="s">
         <v>19</v>
       </c>
@@ -10922,9 +11539,9 @@
         <f t="shared" si="8"/>
         <v>0.74354545454545462</v>
       </c>
-      <c r="O126" s="4" t="e">
+      <c r="O126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.74481818181818193</v>
       </c>
       <c r="P126" s="4" t="e">
         <f t="shared" si="8"/>
@@ -10936,7 +11553,7 @@
       </c>
     </row>
     <row r="127" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="9"/>
+      <c r="E127" s="10"/>
       <c r="F127" s="4" t="s">
         <v>20</v>
       </c>
@@ -10972,9 +11589,9 @@
         <f t="shared" si="9"/>
         <v>0.85163636363636364</v>
       </c>
-      <c r="O127" s="4" t="e">
+      <c r="O127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.85181818181818159</v>
       </c>
       <c r="P127" s="4" t="e">
         <f t="shared" si="9"/>

--- a/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
+++ b/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Our Algo" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -159,6 +159,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -386,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="Q116" sqref="Q116"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -454,7 +455,7 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>2005</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -487,9 +488,12 @@
       <c r="O8">
         <v>2.63</v>
       </c>
+      <c r="P8">
+        <v>41.89</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="10"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -520,9 +524,12 @@
       <c r="O9">
         <v>0.62709999999999999</v>
       </c>
+      <c r="P9">
+        <v>0.4879</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -553,9 +560,12 @@
       <c r="O10">
         <v>0.189</v>
       </c>
+      <c r="P10">
+        <v>0.27439999999999998</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="10"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
@@ -586,9 +596,12 @@
       <c r="O11">
         <v>0.35149999999999998</v>
       </c>
+      <c r="P11">
+        <v>0.37840000000000001</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="10"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
@@ -619,12 +632,14 @@
       <c r="O12" s="5">
         <v>0.42686800000000003</v>
       </c>
-      <c r="P12" s="5"/>
+      <c r="P12" s="5">
+        <v>0.61951599999999996</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="10"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
@@ -655,12 +670,14 @@
       <c r="O13" s="5">
         <v>0.74706700000000004</v>
       </c>
-      <c r="P13" s="5"/>
+      <c r="P13" s="5">
+        <v>0.80418999999999996</v>
+      </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="10"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
@@ -691,9 +708,12 @@
       <c r="O14">
         <v>0.75800000000000001</v>
       </c>
+      <c r="P14">
+        <v>0.66600000000000004</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="10"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
@@ -724,9 +744,12 @@
       <c r="O15">
         <v>0.753</v>
       </c>
+      <c r="P15">
+        <v>0.66200000000000003</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="10"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
@@ -757,9 +780,12 @@
       <c r="O16">
         <v>0.753</v>
       </c>
+      <c r="P16">
+        <v>0.65900000000000003</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="10"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
@@ -790,9 +816,12 @@
       <c r="O17">
         <v>0.86199999999999999</v>
       </c>
+      <c r="P17">
+        <v>0.83499999999999996</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="9">
+      <c r="E18" s="10">
         <v>2006</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -825,9 +854,12 @@
       <c r="O18">
         <v>3.24</v>
       </c>
+      <c r="P18">
+        <v>40.950000000000003</v>
+      </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="10"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
@@ -858,9 +890,12 @@
       <c r="O19">
         <v>0.62749999999999995</v>
       </c>
+      <c r="P19">
+        <v>0.50729999999999997</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="10"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
@@ -891,9 +926,12 @@
       <c r="O20">
         <v>0.18659999999999999</v>
       </c>
+      <c r="P20">
+        <v>0.26690000000000003</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
@@ -924,9 +962,12 @@
       <c r="O21">
         <v>0.35089999999999999</v>
       </c>
+      <c r="P21">
+        <v>0.37190000000000001</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="10"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
@@ -957,12 +998,14 @@
       <c r="O22" s="5">
         <v>0.42053800000000002</v>
       </c>
-      <c r="P22" s="5"/>
+      <c r="P22" s="5">
+        <v>0.60160000000000002</v>
+      </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="10"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -993,12 +1036,14 @@
       <c r="O23" s="5">
         <v>0.74499800000000005</v>
       </c>
-      <c r="P23" s="5"/>
+      <c r="P23" s="5">
+        <v>0.78958899999999999</v>
+      </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="10"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
@@ -1029,9 +1074,12 @@
       <c r="O24">
         <v>0.75700000000000001</v>
       </c>
+      <c r="P24">
+        <v>0.69099999999999995</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1062,9 +1110,12 @@
       <c r="O25">
         <v>0.753</v>
       </c>
+      <c r="P25">
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="10"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1095,9 +1146,12 @@
       <c r="O26">
         <v>0.753</v>
       </c>
+      <c r="P26">
+        <v>0.66300000000000003</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="10"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1128,9 +1182,12 @@
       <c r="O27">
         <v>0.86499999999999999</v>
       </c>
+      <c r="P27">
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="9">
+      <c r="E28" s="10">
         <v>2007</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1163,9 +1220,12 @@
       <c r="O28">
         <v>3.32</v>
       </c>
+      <c r="P28">
+        <v>40.21</v>
+      </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="10"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1196,9 +1256,12 @@
       <c r="O29">
         <v>0.61660000000000004</v>
       </c>
+      <c r="P29">
+        <v>0.50229999999999997</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="10"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1229,9 +1292,12 @@
       <c r="O30">
         <v>0.19289999999999999</v>
       </c>
+      <c r="P30">
+        <v>0.27060000000000001</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="10"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1262,9 +1328,12 @@
       <c r="O31">
         <v>0.35680000000000001</v>
       </c>
+      <c r="P31">
+        <v>0.37130000000000002</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="10"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
@@ -1295,12 +1364,14 @@
       <c r="O32" s="5">
         <v>0.43532999999999999</v>
       </c>
-      <c r="P32" s="5"/>
+      <c r="P32" s="5">
+        <v>0.61053500000000005</v>
+      </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="10"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -1331,12 +1402,14 @@
       <c r="O33" s="5">
         <v>0.757884</v>
       </c>
-      <c r="P33" s="5"/>
+      <c r="P33" s="5">
+        <v>0.78876299999999999</v>
+      </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="10"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
@@ -1367,9 +1440,12 @@
       <c r="O34">
         <v>0.752</v>
       </c>
+      <c r="P34">
+        <v>0.68600000000000005</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
@@ -1400,9 +1476,12 @@
       <c r="O35">
         <v>0.746</v>
       </c>
+      <c r="P35">
+        <v>0.67100000000000004</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="10"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
@@ -1433,9 +1512,12 @@
       <c r="O36">
         <v>0.746</v>
       </c>
+      <c r="P36">
+        <v>0.66600000000000004</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="10"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
@@ -1466,9 +1548,12 @@
       <c r="O37">
         <v>0.85799999999999998</v>
       </c>
+      <c r="P37">
+        <v>0.83899999999999997</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="9">
+      <c r="E38" s="10">
         <v>2008</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1501,9 +1586,12 @@
       <c r="O38">
         <v>2.91</v>
       </c>
+      <c r="P38">
+        <v>39.700000000000003</v>
+      </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="10"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
@@ -1534,9 +1622,12 @@
       <c r="O39">
         <v>0.60599999999999998</v>
       </c>
+      <c r="P39">
+        <v>0.50260000000000005</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="10"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
@@ -1567,9 +1658,12 @@
       <c r="O40">
         <v>0.19539999999999999</v>
       </c>
+      <c r="P40">
+        <v>0.26800000000000002</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="10"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
@@ -1600,9 +1694,12 @@
       <c r="O41">
         <v>0.3604</v>
       </c>
+      <c r="P41">
+        <v>0.37230000000000002</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="10"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1633,12 +1730,14 @@
       <c r="O42" s="5">
         <v>0.44244800000000001</v>
       </c>
-      <c r="P42" s="5"/>
+      <c r="P42" s="5">
+        <v>0.60684099999999996</v>
+      </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="10"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -1669,12 +1768,14 @@
       <c r="O43" s="5">
         <v>0.76701799999999998</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="5">
+        <v>0.79223200000000005</v>
+      </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="10"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
@@ -1705,9 +1806,12 @@
       <c r="O44">
         <v>0.745</v>
       </c>
+      <c r="P44">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="10"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
@@ -1738,9 +1842,12 @@
       <c r="O45">
         <v>0.74</v>
       </c>
+      <c r="P45">
+        <v>0.67300000000000004</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="10"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
@@ -1771,9 +1878,12 @@
       <c r="O46">
         <v>0.74</v>
       </c>
+      <c r="P46">
+        <v>0.67100000000000004</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="10"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
@@ -1804,9 +1914,12 @@
       <c r="O47">
         <v>0.85299999999999998</v>
       </c>
+      <c r="P47">
+        <v>0.83899999999999997</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="9">
+      <c r="E48" s="10">
         <v>2009</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -1839,9 +1952,12 @@
       <c r="O48">
         <v>1.75</v>
       </c>
+      <c r="P48">
+        <v>33.4</v>
+      </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="10"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
@@ -1872,9 +1988,12 @@
       <c r="O49">
         <v>0.59160000000000001</v>
       </c>
+      <c r="P49">
+        <v>0.4889</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="10"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
@@ -1905,9 +2024,12 @@
       <c r="O50">
         <v>0.2009</v>
       </c>
+      <c r="P50">
+        <v>0.27250000000000002</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="10"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="4" t="s">
         <v>14</v>
       </c>
@@ -1938,9 +2060,12 @@
       <c r="O51">
         <v>0.36459999999999998</v>
       </c>
+      <c r="P51">
+        <v>0.37619999999999998</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="10"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
@@ -1971,12 +2096,14 @@
       <c r="O52" s="5">
         <v>0.45719300000000002</v>
       </c>
-      <c r="P52" s="5"/>
+      <c r="P52" s="5">
+        <v>0.62005100000000002</v>
+      </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="10"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
@@ -2007,12 +2134,14 @@
       <c r="O53" s="5">
         <v>0.77771900000000005</v>
       </c>
-      <c r="P53" s="5"/>
+      <c r="P53" s="5">
+        <v>0.80260200000000004</v>
+      </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="10"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
@@ -2043,9 +2172,12 @@
       <c r="O54">
         <v>0.73599999999999999</v>
       </c>
+      <c r="P54">
+        <v>0.68200000000000005</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="10"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
@@ -2076,9 +2208,12 @@
       <c r="O55">
         <v>0.73199999999999998</v>
       </c>
+      <c r="P55">
+        <v>0.66700000000000004</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="10"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
@@ -2109,9 +2244,12 @@
       <c r="O56">
         <v>0.73199999999999998</v>
       </c>
+      <c r="P56">
+        <v>0.66700000000000004</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="10"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
@@ -2142,9 +2280,12 @@
       <c r="O57">
         <v>0.84499999999999997</v>
       </c>
+      <c r="P57">
+        <v>0.82899999999999996</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="9">
+      <c r="E58" s="10">
         <v>2010</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -2177,9 +2318,12 @@
       <c r="O58">
         <v>1.8</v>
       </c>
+      <c r="P58">
+        <v>28.75</v>
+      </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="10"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
@@ -2210,9 +2354,12 @@
       <c r="O59">
         <v>0.83350000000000002</v>
       </c>
+      <c r="P59">
+        <v>0.44919999999999999</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="10"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
@@ -2243,9 +2390,12 @@
       <c r="O60">
         <v>8.3199999999999996E-2</v>
       </c>
+      <c r="P60">
+        <v>0.28410000000000002</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="10"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
@@ -2276,9 +2426,12 @@
       <c r="O61">
         <v>0.25629999999999997</v>
       </c>
+      <c r="P61">
+        <v>0.38419999999999999</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="10"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
@@ -2309,12 +2462,14 @@
       <c r="O62" s="5">
         <v>0.19086800000000001</v>
       </c>
-      <c r="P62" s="5"/>
+      <c r="P62" s="5">
+        <v>0.65151800000000004</v>
+      </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="10"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -2345,12 +2500,14 @@
       <c r="O63" s="5">
         <v>0.54899100000000001</v>
       </c>
-      <c r="P63" s="5"/>
+      <c r="P63" s="5">
+        <v>0.822801</v>
+      </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="10"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
@@ -2381,9 +2538,12 @@
       <c r="O64">
         <v>0.90100000000000002</v>
       </c>
+      <c r="P64">
+        <v>0.65100000000000002</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="10"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
@@ -2414,9 +2574,12 @@
       <c r="O65">
         <v>0.89100000000000001</v>
       </c>
+      <c r="P65">
+        <v>0.64300000000000002</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="10"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="4" t="s">
         <v>19</v>
       </c>
@@ -2447,9 +2610,12 @@
       <c r="O66">
         <v>0.89100000000000001</v>
       </c>
+      <c r="P66">
+        <v>0.64500000000000002</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="10"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
@@ -2480,9 +2646,12 @@
       <c r="O67">
         <v>0.94</v>
       </c>
+      <c r="P67">
+        <v>0.81699999999999995</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="9">
+      <c r="E68" s="10">
         <v>2011</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -2515,9 +2684,12 @@
       <c r="O68">
         <v>2.31</v>
       </c>
+      <c r="P68">
+        <v>28.54</v>
+      </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="10"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
@@ -2548,9 +2720,12 @@
       <c r="O69" s="8">
         <v>0.56720000000000004</v>
       </c>
+      <c r="P69" s="9">
+        <v>0.4627</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="10"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="4" t="s">
         <v>13</v>
       </c>
@@ -2581,9 +2756,12 @@
       <c r="O70" s="8">
         <v>0.2092</v>
       </c>
+      <c r="P70" s="9">
+        <v>0.27629999999999999</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="10"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="4" t="s">
         <v>14</v>
       </c>
@@ -2614,9 +2792,12 @@
       <c r="O71" s="8">
         <v>0.3705</v>
       </c>
+      <c r="P71" s="9">
+        <v>0.37919999999999998</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="10"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
@@ -2647,12 +2828,14 @@
       <c r="O72" s="5">
         <v>0.47812900000000003</v>
       </c>
-      <c r="P72" s="5"/>
+      <c r="P72" s="5">
+        <v>0.631498</v>
+      </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="10"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
@@ -2683,12 +2866,14 @@
       <c r="O73" s="5">
         <v>0.79217599999999999</v>
       </c>
-      <c r="P73" s="5"/>
+      <c r="P73" s="5">
+        <v>0.81072699999999998</v>
+      </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="10"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="4" t="s">
         <v>17</v>
       </c>
@@ -2719,9 +2904,12 @@
       <c r="O74" s="8">
         <v>0.72199999999999998</v>
       </c>
+      <c r="P74" s="9">
+        <v>0.66700000000000004</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="10"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
@@ -2752,9 +2940,12 @@
       <c r="O75" s="8">
         <v>0.71699999999999997</v>
       </c>
+      <c r="P75" s="9">
+        <v>0.65100000000000002</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="10"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="4" t="s">
         <v>19</v>
       </c>
@@ -2785,9 +2976,12 @@
       <c r="O76" s="8">
         <v>0.71799999999999997</v>
       </c>
+      <c r="P76" s="9">
+        <v>0.65100000000000002</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="10"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
@@ -2818,9 +3012,12 @@
       <c r="O77" s="8">
         <v>0.83099999999999996</v>
       </c>
+      <c r="P77" s="9">
+        <v>0.81699999999999995</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="9">
+      <c r="E78" s="10">
         <v>2012</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -2853,9 +3050,12 @@
       <c r="O78" s="8">
         <v>1.64</v>
       </c>
+      <c r="P78" s="9">
+        <v>27.71</v>
+      </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="10"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="4" t="s">
         <v>12</v>
       </c>
@@ -2886,9 +3086,12 @@
       <c r="O79" s="8">
         <v>0.56950000000000001</v>
       </c>
+      <c r="P79" s="9">
+        <v>0.46329999999999999</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="10"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="4" t="s">
         <v>13</v>
       </c>
@@ -2919,9 +3122,12 @@
       <c r="O80" s="8">
         <v>0.2089</v>
       </c>
+      <c r="P80" s="9">
+        <v>0.27529999999999999</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="10"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="4" t="s">
         <v>14</v>
       </c>
@@ -2952,9 +3158,12 @@
       <c r="O81" s="8">
         <v>0.37569999999999998</v>
       </c>
+      <c r="P81" s="9">
+        <v>0.37830000000000003</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="10"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
@@ -2985,12 +3194,14 @@
       <c r="O82" s="5">
         <v>0.48008600000000001</v>
       </c>
-      <c r="P82" s="5"/>
+      <c r="P82" s="5">
+        <v>0.63274200000000003</v>
+      </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="10"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
@@ -3021,12 +3232,14 @@
       <c r="O83" s="5">
         <v>0.80547000000000002</v>
       </c>
-      <c r="P83" s="5"/>
+      <c r="P83" s="5">
+        <v>0.81106299999999998</v>
+      </c>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="10"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="4" t="s">
         <v>17</v>
       </c>
@@ -3057,9 +3270,12 @@
       <c r="O84" s="8">
         <v>0.72499999999999998</v>
       </c>
+      <c r="P84" s="9">
+        <v>0.66800000000000004</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="10"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
@@ -3090,9 +3306,12 @@
       <c r="O85" s="8">
         <v>0.71899999999999997</v>
       </c>
+      <c r="P85" s="9">
+        <v>0.65300000000000002</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="10"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="4" t="s">
         <v>19</v>
       </c>
@@ -3123,9 +3342,12 @@
       <c r="O86" s="8">
         <v>0.72</v>
       </c>
+      <c r="P86" s="9">
+        <v>0.65500000000000003</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="10"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
@@ -3156,9 +3378,12 @@
       <c r="O87" s="8">
         <v>0.82599999999999996</v>
       </c>
+      <c r="P87" s="9">
+        <v>0.81599999999999995</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="9">
+      <c r="E88" s="10">
         <v>2013</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -3191,9 +3416,12 @@
       <c r="O88" s="8">
         <v>2.08</v>
       </c>
+      <c r="P88" s="9">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="10"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
@@ -3224,9 +3452,12 @@
       <c r="O89" s="8">
         <v>0.56310000000000004</v>
       </c>
+      <c r="P89" s="9">
+        <v>0.43230000000000002</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="10"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
@@ -3257,9 +3488,12 @@
       <c r="O90" s="8">
         <v>0.21060000000000001</v>
       </c>
+      <c r="P90" s="9">
+        <v>0.28649999999999998</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="10"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="4" t="s">
         <v>14</v>
       </c>
@@ -3290,9 +3524,12 @@
       <c r="O91" s="8">
         <v>0.37340000000000001</v>
       </c>
+      <c r="P91" s="9">
+        <v>0.3856</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="10"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
@@ -3323,12 +3560,14 @@
       <c r="O92" s="5">
         <v>0.48258299999999998</v>
       </c>
-      <c r="P92" s="5"/>
+      <c r="P92" s="5">
+        <v>0.65654000000000001</v>
+      </c>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="10"/>
+      <c r="E93" s="11"/>
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
@@ -3359,12 +3598,14 @@
       <c r="O93" s="5">
         <v>0.79936099999999999</v>
       </c>
-      <c r="P93" s="5"/>
+      <c r="P93" s="5">
+        <v>0.82552499999999995</v>
+      </c>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
     <row r="94" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="10"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="4" t="s">
         <v>17</v>
       </c>
@@ -3395,9 +3636,12 @@
       <c r="O94" s="8">
         <v>0.71899999999999997</v>
       </c>
+      <c r="P94" s="9">
+        <v>0.65700000000000003</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="10"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
@@ -3428,9 +3672,12 @@
       <c r="O95" s="8">
         <v>0.71399999999999997</v>
       </c>
+      <c r="P95" s="9">
+        <v>0.63300000000000001</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="10"/>
+      <c r="E96" s="11"/>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
@@ -3461,9 +3708,12 @@
       <c r="O96" s="8">
         <v>0.71499999999999997</v>
       </c>
+      <c r="P96" s="9">
+        <v>0.629</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="10"/>
+      <c r="E97" s="11"/>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
@@ -3494,9 +3744,12 @@
       <c r="O97" s="8">
         <v>0.83</v>
       </c>
+      <c r="P97" s="9">
+        <v>0.80600000000000005</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="9">
+      <c r="E98" s="10">
         <v>2014</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -3529,9 +3782,12 @@
       <c r="O98" s="8">
         <v>1.73</v>
       </c>
+      <c r="P98" s="9">
+        <v>48.19</v>
+      </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="10"/>
+      <c r="E99" s="11"/>
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
@@ -3562,9 +3818,12 @@
       <c r="O99" s="8">
         <v>0.55620000000000003</v>
       </c>
+      <c r="P99" s="9">
+        <v>0.46689999999999998</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="10"/>
+      <c r="E100" s="11"/>
       <c r="F100" s="4" t="s">
         <v>13</v>
       </c>
@@ -3595,9 +3854,12 @@
       <c r="O100" s="8">
         <v>0.21779999999999999</v>
       </c>
+      <c r="P100" s="9">
+        <v>0.27460000000000001</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="10"/>
+      <c r="E101" s="11"/>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
@@ -3628,9 +3890,12 @@
       <c r="O101" s="8">
         <v>0.37569999999999998</v>
       </c>
+      <c r="P101" s="9">
+        <v>0.37919999999999998</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="10"/>
+      <c r="E102" s="11"/>
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
@@ -3661,12 +3926,14 @@
       <c r="O102" s="5">
         <v>0.50001200000000001</v>
       </c>
-      <c r="P102" s="5"/>
+      <c r="P102" s="5">
+        <v>0.63022400000000001</v>
+      </c>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
     <row r="103" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="10"/>
+      <c r="E103" s="11"/>
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
@@ -3697,12 +3964,14 @@
       <c r="O103" s="5">
         <v>0.80506299999999997</v>
       </c>
-      <c r="P103" s="5"/>
+      <c r="P103" s="5">
+        <v>0.81239300000000003</v>
+      </c>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
     <row r="104" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="10"/>
+      <c r="E104" s="11"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
@@ -3733,9 +4002,12 @@
       <c r="O104" s="8">
         <v>0.71599999999999997</v>
       </c>
+      <c r="P104" s="9">
+        <v>0.67500000000000004</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="10"/>
+      <c r="E105" s="11"/>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
@@ -3766,9 +4038,12 @@
       <c r="O105" s="8">
         <v>0.71099999999999997</v>
       </c>
+      <c r="P105" s="9">
+        <v>0.65400000000000003</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="10"/>
+      <c r="E106" s="11"/>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
@@ -3799,9 +4074,12 @@
       <c r="O106">
         <v>0.71099999999999997</v>
       </c>
+      <c r="P106" s="9">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="10"/>
+      <c r="E107" s="11"/>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
@@ -3832,9 +4110,12 @@
       <c r="O107" s="8">
         <v>0.82</v>
       </c>
+      <c r="P107" s="9">
+        <v>0.81299999999999994</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="9">
+      <c r="E108" s="10">
         <v>2015</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -3867,9 +4148,12 @@
       <c r="O108" s="8">
         <v>2.09</v>
       </c>
+      <c r="P108" s="9">
+        <v>51.02</v>
+      </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="10"/>
+      <c r="E109" s="11"/>
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
@@ -3900,9 +4184,12 @@
       <c r="O109" s="8">
         <v>0.55710000000000004</v>
       </c>
+      <c r="P109" s="9">
+        <v>0.43680000000000002</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="10"/>
+      <c r="E110" s="11"/>
       <c r="F110" s="4" t="s">
         <v>13</v>
       </c>
@@ -3933,9 +4220,12 @@
       <c r="O110" s="8">
         <v>0.21410000000000001</v>
       </c>
+      <c r="P110" s="9">
+        <v>0.2843</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="10"/>
+      <c r="E111" s="11"/>
       <c r="F111" s="4" t="s">
         <v>14</v>
       </c>
@@ -3966,9 +4256,12 @@
       <c r="O111" s="8">
         <v>0.377</v>
       </c>
+      <c r="P111" s="9">
+        <v>0.38340000000000002</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="10"/>
+      <c r="E112" s="11"/>
       <c r="F112" s="4" t="s">
         <v>15</v>
       </c>
@@ -3999,12 +4292,14 @@
       <c r="O112" s="5">
         <v>0.49090499999999998</v>
       </c>
-      <c r="P112" s="5"/>
+      <c r="P112" s="5">
+        <v>0.651841</v>
+      </c>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
     <row r="113" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="10"/>
+      <c r="E113" s="11"/>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -4035,12 +4330,14 @@
       <c r="O113" s="5">
         <v>0.80732999999999999</v>
       </c>
-      <c r="P113" s="5"/>
+      <c r="P113" s="5">
+        <v>0.82112700000000005</v>
+      </c>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
     <row r="114" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="10"/>
+      <c r="E114" s="11"/>
       <c r="F114" s="4" t="s">
         <v>17</v>
       </c>
@@ -4071,9 +4368,12 @@
       <c r="O114" s="8">
         <v>0.71699999999999997</v>
       </c>
+      <c r="P114" s="9">
+        <v>0.65900000000000003</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="10"/>
+      <c r="E115" s="11"/>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
@@ -4104,9 +4404,12 @@
       <c r="O115" s="8">
         <v>0.71099999999999997</v>
       </c>
+      <c r="P115" s="9">
+        <v>0.63600000000000001</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="10"/>
+      <c r="E116" s="11"/>
       <c r="F116" s="4" t="s">
         <v>19</v>
       </c>
@@ -4137,9 +4440,12 @@
       <c r="O116" s="8">
         <v>0.71299999999999997</v>
       </c>
+      <c r="P116" s="9">
+        <v>0.64200000000000002</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="10"/>
+      <c r="E117" s="11"/>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
@@ -4170,9 +4476,12 @@
       <c r="O117" s="8">
         <v>0.82299999999999995</v>
       </c>
+      <c r="P117" s="9">
+        <v>0.80400000000000005</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -4214,9 +4523,9 @@
         <f t="shared" si="0"/>
         <v>2.3181818181818183</v>
       </c>
-      <c r="P118" s="4" t="e">
+      <c r="P118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>36.97818181818181</v>
       </c>
       <c r="Q118" s="4" t="e">
         <f t="shared" si="0"/>
@@ -4224,7 +4533,7 @@
       </c>
     </row>
     <row r="119" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="10"/>
+      <c r="E119" s="11"/>
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
@@ -4264,9 +4573,9 @@
         <f t="shared" si="1"/>
         <v>0.6104909090909092</v>
       </c>
-      <c r="P119" s="4" t="e">
+      <c r="P119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.47274545454545452</v>
       </c>
       <c r="Q119" s="4" t="e">
         <f t="shared" si="1"/>
@@ -4274,7 +4583,7 @@
       </c>
     </row>
     <row r="120" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="10"/>
+      <c r="E120" s="11"/>
       <c r="F120" s="4" t="s">
         <v>13</v>
       </c>
@@ -4314,9 +4623,9 @@
         <f t="shared" si="2"/>
         <v>0.19169090909090913</v>
       </c>
-      <c r="P120" s="4" t="e">
+      <c r="P120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.27577272727272722</v>
       </c>
       <c r="Q120" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4324,7 +4633,7 @@
       </c>
     </row>
     <row r="121" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="10"/>
+      <c r="E121" s="11"/>
       <c r="F121" s="4" t="s">
         <v>14</v>
       </c>
@@ -4364,9 +4673,9 @@
         <f t="shared" si="3"/>
         <v>0.35570909090909092</v>
       </c>
-      <c r="P121" s="4" t="e">
+      <c r="P121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.37818181818181817</v>
       </c>
       <c r="Q121" s="4" t="e">
         <f t="shared" si="3"/>
@@ -4374,7 +4683,7 @@
       </c>
     </row>
     <row r="122" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="10"/>
+      <c r="E122" s="11"/>
       <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
@@ -4414,9 +4723,9 @@
         <f t="shared" si="4"/>
         <v>0.43681454545454551</v>
       </c>
-      <c r="P122" s="5" t="e">
+      <c r="P122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.62844600000000006</v>
       </c>
       <c r="Q122" s="5" t="e">
         <f t="shared" si="4"/>
@@ -4424,7 +4733,7 @@
       </c>
     </row>
     <row r="123" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="10"/>
+      <c r="E123" s="11"/>
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
@@ -4464,9 +4773,9 @@
         <f t="shared" si="5"/>
         <v>0.75937063636363644</v>
       </c>
-      <c r="P123" s="5" t="e">
+      <c r="P123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.80736472727272723</v>
       </c>
       <c r="Q123" s="5" t="e">
         <f t="shared" si="5"/>
@@ -4474,7 +4783,7 @@
       </c>
     </row>
     <row r="124" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="10"/>
+      <c r="E124" s="11"/>
       <c r="F124" s="4" t="s">
         <v>17</v>
       </c>
@@ -4514,9 +4823,9 @@
         <f t="shared" si="6"/>
         <v>0.74981818181818194</v>
       </c>
-      <c r="P124" s="4" t="e">
+      <c r="P124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.67199999999999993</v>
       </c>
       <c r="Q124" s="4" t="e">
         <f t="shared" si="6"/>
@@ -4524,7 +4833,7 @@
       </c>
     </row>
     <row r="125" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="10"/>
+      <c r="E125" s="11"/>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
@@ -4564,9 +4873,9 @@
         <f t="shared" si="7"/>
         <v>0.74427272727272742</v>
       </c>
-      <c r="P125" s="4" t="e">
+      <c r="P125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.65609090909090917</v>
       </c>
       <c r="Q125" s="4" t="e">
         <f t="shared" si="7"/>
@@ -4574,7 +4883,7 @@
       </c>
     </row>
     <row r="126" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="10"/>
+      <c r="E126" s="11"/>
       <c r="F126" s="4" t="s">
         <v>19</v>
       </c>
@@ -4614,9 +4923,9 @@
         <f t="shared" si="8"/>
         <v>0.74472727272727279</v>
       </c>
-      <c r="P126" s="4" t="e">
+      <c r="P126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.65436363636363648</v>
       </c>
       <c r="Q126" s="4" t="e">
         <f t="shared" si="8"/>
@@ -4624,7 +4933,7 @@
       </c>
     </row>
     <row r="127" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="10"/>
+      <c r="E127" s="11"/>
       <c r="F127" s="4" t="s">
         <v>20</v>
       </c>
@@ -4664,9 +4973,9 @@
         <f t="shared" si="9"/>
         <v>0.85027272727272707</v>
       </c>
-      <c r="P127" s="4" t="e">
+      <c r="P127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.82372727272727275</v>
       </c>
       <c r="Q127" s="4" t="e">
         <f t="shared" si="9"/>
@@ -7316,8 +7625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q112" sqref="Q112"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7383,7 +7692,7 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>2005</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -7416,9 +7725,12 @@
       <c r="O8">
         <v>2.69</v>
       </c>
+      <c r="P8">
+        <v>40.700000000000003</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="10"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -7449,9 +7761,12 @@
       <c r="O9">
         <v>0.62480000000000002</v>
       </c>
+      <c r="P9">
+        <v>0.47589999999999999</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -7482,9 +7797,12 @@
       <c r="O10">
         <v>0.18890000000000001</v>
       </c>
+      <c r="P10">
+        <v>0.28260000000000002</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="10"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
@@ -7515,9 +7833,12 @@
       <c r="O11">
         <v>0.35339999999999999</v>
       </c>
+      <c r="P11">
+        <v>0.3831</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="10"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
@@ -7548,12 +7869,14 @@
       <c r="O12" s="5">
         <v>0.426541</v>
       </c>
-      <c r="P12" s="5"/>
+      <c r="P12" s="5">
+        <v>0.63804099999999997</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="10"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
@@ -7584,12 +7907,14 @@
       <c r="O13" s="5">
         <v>0.75108799999999998</v>
       </c>
-      <c r="P13" s="5"/>
+      <c r="P13" s="5">
+        <v>0.81414699999999995</v>
+      </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="10"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
@@ -7620,9 +7945,12 @@
       <c r="O14">
         <v>0.75600000000000001</v>
       </c>
+      <c r="P14">
+        <v>0.65800000000000003</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="10"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
@@ -7653,9 +7981,12 @@
       <c r="O15">
         <v>0.751</v>
       </c>
+      <c r="P15">
+        <v>0.65400000000000003</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="10"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
@@ -7686,9 +8017,12 @@
       <c r="O16">
         <v>0.752</v>
       </c>
+      <c r="P16">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="10"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
@@ -7719,9 +8053,12 @@
       <c r="O17">
         <v>0.86</v>
       </c>
+      <c r="P17">
+        <v>0.82799999999999996</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="9">
+      <c r="E18" s="10">
         <v>2006</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -7754,9 +8091,12 @@
       <c r="O18">
         <v>3.62</v>
       </c>
+      <c r="P18">
+        <v>39.17</v>
+      </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="10"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
@@ -7787,9 +8127,12 @@
       <c r="O19">
         <v>0.62619999999999998</v>
       </c>
+      <c r="P19">
+        <v>0.52280000000000004</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="10"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
@@ -7820,9 +8163,12 @@
       <c r="O20">
         <v>0.18759999999999999</v>
       </c>
+      <c r="P20">
+        <v>0.25890000000000002</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
@@ -7853,9 +8199,12 @@
       <c r="O21">
         <v>0.35070000000000001</v>
       </c>
+      <c r="P21">
+        <v>0.3664</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="10"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
@@ -7886,12 +8235,14 @@
       <c r="O22" s="5">
         <v>0.42278399999999999</v>
       </c>
-      <c r="P22" s="5"/>
+      <c r="P22" s="5">
+        <v>0.58345800000000003</v>
+      </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="10"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -7922,12 +8273,14 @@
       <c r="O23" s="5">
         <v>0.74454699999999996</v>
       </c>
-      <c r="P23" s="5"/>
+      <c r="P23" s="5">
+        <v>0.77790099999999995</v>
+      </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="10"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
@@ -7958,9 +8311,12 @@
       <c r="O24">
         <v>0.75600000000000001</v>
       </c>
+      <c r="P24">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
@@ -7991,9 +8347,12 @@
       <c r="O25">
         <v>0.752</v>
       </c>
+      <c r="P25">
+        <v>0.68400000000000005</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="10"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
@@ -8024,9 +8383,12 @@
       <c r="O26">
         <v>0.752</v>
       </c>
+      <c r="P26">
+        <v>0.67700000000000005</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="10"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
@@ -8057,9 +8419,12 @@
       <c r="O27">
         <v>0.86599999999999999</v>
       </c>
+      <c r="P27">
+        <v>0.85399999999999998</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="9">
+      <c r="E28" s="10">
         <v>2007</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -8092,9 +8457,12 @@
       <c r="O28">
         <v>3.56</v>
       </c>
+      <c r="P28">
+        <v>39.520000000000003</v>
+      </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="10"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
@@ -8125,9 +8493,12 @@
       <c r="O29">
         <v>0.62260000000000004</v>
       </c>
+      <c r="P29">
+        <v>0.52139999999999997</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="10"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
@@ -8158,9 +8529,12 @@
       <c r="O30">
         <v>0.192</v>
       </c>
+      <c r="P30">
+        <v>0.2601</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="10"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
@@ -8191,9 +8565,12 @@
       <c r="O31">
         <v>0.34939999999999999</v>
       </c>
+      <c r="P31">
+        <v>0.3649</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="10"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
@@ -8224,12 +8601,14 @@
       <c r="O32" s="5">
         <v>0.43321399999999999</v>
       </c>
-      <c r="P32" s="5"/>
+      <c r="P32" s="5">
+        <v>0.58699199999999996</v>
+      </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="10"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -8260,12 +8639,14 @@
       <c r="O33" s="5">
         <v>0.742143</v>
       </c>
-      <c r="P33" s="5"/>
+      <c r="P33" s="5">
+        <v>0.77522899999999995</v>
+      </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="10"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
@@ -8296,9 +8677,12 @@
       <c r="O34">
         <v>0.75700000000000001</v>
       </c>
+      <c r="P34">
+        <v>0.70899999999999996</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
@@ -8329,9 +8713,12 @@
       <c r="O35">
         <v>0.75</v>
       </c>
+      <c r="P35">
+        <v>0.68400000000000005</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="10"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
@@ -8362,9 +8749,12 @@
       <c r="O36">
         <v>0.75</v>
       </c>
+      <c r="P36">
+        <v>0.67800000000000005</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="10"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
@@ -8395,9 +8785,12 @@
       <c r="O37">
         <v>0.86499999999999999</v>
       </c>
+      <c r="P37">
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="9">
+      <c r="E38" s="10">
         <v>2008</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -8430,9 +8823,12 @@
       <c r="O38">
         <v>2.4700000000000002</v>
       </c>
+      <c r="P38">
+        <v>34.950000000000003</v>
+      </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="10"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
@@ -8463,9 +8859,12 @@
       <c r="O39">
         <v>0.61499999999999999</v>
       </c>
+      <c r="P39">
+        <v>0.47920000000000001</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="10"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
@@ -8496,9 +8895,12 @@
       <c r="O40">
         <v>0.19620000000000001</v>
       </c>
+      <c r="P40">
+        <v>0.27829999999999999</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="10"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
@@ -8529,9 +8931,12 @@
       <c r="O41">
         <v>0.35089999999999999</v>
       </c>
+      <c r="P41">
+        <v>0.37930000000000003</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="10"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
@@ -8562,12 +8967,14 @@
       <c r="O42" s="5">
         <v>0.44438899999999998</v>
       </c>
-      <c r="P42" s="5"/>
+      <c r="P42" s="5">
+        <v>0.63028099999999998</v>
+      </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="10"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -8598,12 +9005,14 @@
       <c r="O43" s="5">
         <v>0.74677300000000002</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="5">
+        <v>0.80715000000000003</v>
+      </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="10"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
@@ -8634,9 +9043,12 @@
       <c r="O44">
         <v>0.753</v>
       </c>
+      <c r="P44">
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="10"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
@@ -8667,9 +9079,12 @@
       <c r="O45">
         <v>0.746</v>
       </c>
+      <c r="P45">
+        <v>0.65800000000000003</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="10"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
@@ -8700,9 +9115,12 @@
       <c r="O46">
         <v>0.745</v>
       </c>
+      <c r="P46">
+        <v>0.65500000000000003</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="10"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
@@ -8733,9 +9151,12 @@
       <c r="O47">
         <v>0.86</v>
       </c>
+      <c r="P47">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="9">
+      <c r="E48" s="10">
         <v>2009</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -8768,9 +9189,12 @@
       <c r="O48">
         <v>2.91</v>
       </c>
+      <c r="P48">
+        <v>34.630000000000003</v>
+      </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="10"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
@@ -8801,9 +9225,12 @@
       <c r="O49">
         <v>0.58630000000000004</v>
       </c>
+      <c r="P49">
+        <v>0.4829</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="10"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
@@ -8834,9 +9261,12 @@
       <c r="O50">
         <v>0.2019</v>
       </c>
+      <c r="P50">
+        <v>0.27160000000000001</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="10"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="4" t="s">
         <v>14</v>
       </c>
@@ -8867,9 +9297,12 @@
       <c r="O51">
         <v>0.37409999999999999</v>
       </c>
+      <c r="P51">
+        <v>0.37619999999999998</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="10"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
@@ -8900,12 +9333,14 @@
       <c r="O52" s="5">
         <v>0.45947100000000002</v>
       </c>
-      <c r="P52" s="5"/>
+      <c r="P52" s="5">
+        <v>0.61787700000000001</v>
+      </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="10"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
@@ -8936,12 +9371,14 @@
       <c r="O53" s="5">
         <v>0.79807899999999998</v>
       </c>
-      <c r="P53" s="5"/>
+      <c r="P53" s="5">
+        <v>0.80244400000000005</v>
+      </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="10"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
@@ -8972,9 +9409,12 @@
       <c r="O54">
         <v>0.73199999999999998</v>
       </c>
+      <c r="P54">
+        <v>0.67700000000000005</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="10"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
@@ -9005,9 +9445,12 @@
       <c r="O55">
         <v>0.72799999999999998</v>
       </c>
+      <c r="P55">
+        <v>0.66200000000000003</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="10"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
@@ -9038,9 +9481,12 @@
       <c r="O56">
         <v>0.72799999999999998</v>
       </c>
+      <c r="P56">
+        <v>0.66300000000000003</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="10"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
@@ -9071,9 +9517,12 @@
       <c r="O57">
         <v>0.83499999999999996</v>
       </c>
+      <c r="P57">
+        <v>0.82799999999999996</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="9">
+      <c r="E58" s="10">
         <v>2010</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -9106,9 +9555,12 @@
       <c r="O58">
         <v>1.89</v>
       </c>
+      <c r="P58">
+        <v>28.24</v>
+      </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="10"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
@@ -9139,9 +9591,12 @@
       <c r="O59">
         <v>0.8347</v>
       </c>
+      <c r="P59">
+        <v>0.46589999999999998</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="10"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
@@ -9172,9 +9627,12 @@
       <c r="O60">
         <v>8.2500000000000004E-2</v>
       </c>
+      <c r="P60">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="10"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
@@ -9205,9 +9663,12 @@
       <c r="O61">
         <v>0.25600000000000001</v>
       </c>
+      <c r="P61">
+        <v>0.38140000000000002</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="10"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
@@ -9238,12 +9699,14 @@
       <c r="O62" s="5">
         <v>0.18914600000000001</v>
       </c>
-      <c r="P62" s="5"/>
+      <c r="P62" s="5">
+        <v>0.64221700000000004</v>
+      </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="10"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -9274,12 +9737,14 @@
       <c r="O63" s="5">
         <v>0.54814600000000002</v>
       </c>
-      <c r="P63" s="5"/>
+      <c r="P63" s="5">
+        <v>0.81682299999999997</v>
+      </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="10"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
@@ -9310,9 +9775,12 @@
       <c r="O64">
         <v>0.90200000000000002</v>
       </c>
+      <c r="P64">
+        <v>0.66500000000000004</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="10"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
@@ -9343,9 +9811,12 @@
       <c r="O65">
         <v>0.89200000000000002</v>
       </c>
+      <c r="P65">
+        <v>0.65500000000000003</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="10"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="4" t="s">
         <v>19</v>
       </c>
@@ -9376,9 +9847,12 @@
       <c r="O66">
         <v>0.89200000000000002</v>
       </c>
+      <c r="P66">
+        <v>0.65600000000000003</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="10"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
@@ -9409,9 +9883,12 @@
       <c r="O67">
         <v>0.94099999999999995</v>
       </c>
+      <c r="P67">
+        <v>0.81899999999999995</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="9">
+      <c r="E68" s="10">
         <v>2011</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -9444,9 +9921,12 @@
       <c r="O68">
         <v>1.28</v>
       </c>
+      <c r="P68">
+        <v>29.52</v>
+      </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="10"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
@@ -9477,9 +9957,12 @@
       <c r="O69">
         <v>0.56789999999999996</v>
       </c>
+      <c r="P69">
+        <v>0.45910000000000001</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="10"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="4" t="s">
         <v>13</v>
       </c>
@@ -9510,9 +9993,12 @@
       <c r="O70">
         <v>0.20910000000000001</v>
       </c>
+      <c r="P70">
+        <v>0.2772</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="10"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="4" t="s">
         <v>14</v>
       </c>
@@ -9543,9 +10029,12 @@
       <c r="O71">
         <v>0.37219999999999998</v>
       </c>
+      <c r="P71">
+        <v>0.3805</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="10"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
@@ -9576,12 +10065,14 @@
       <c r="O72" s="5">
         <v>0.47805399999999998</v>
       </c>
-      <c r="P72" s="5"/>
+      <c r="P72" s="5">
+        <v>0.63360000000000005</v>
+      </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="10"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
@@ -9612,12 +10103,14 @@
       <c r="O73" s="5">
         <v>0.79577399999999998</v>
       </c>
-      <c r="P73" s="5"/>
+      <c r="P73" s="5">
+        <v>0.81350999999999996</v>
+      </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="10"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="4" t="s">
         <v>17</v>
       </c>
@@ -9648,9 +10141,12 @@
       <c r="O74">
         <v>0.72299999999999998</v>
       </c>
+      <c r="P74">
+        <v>0.66600000000000004</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="10"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
@@ -9681,9 +10177,12 @@
       <c r="O75">
         <v>0.71699999999999997</v>
       </c>
+      <c r="P75">
+        <v>0.64800000000000002</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="10"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="4" t="s">
         <v>19</v>
       </c>
@@ -9714,9 +10213,12 @@
       <c r="O76">
         <v>0.71799999999999997</v>
       </c>
+      <c r="P76">
+        <v>0.64800000000000002</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="10"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
@@ -9747,9 +10249,12 @@
       <c r="O77">
         <v>0.83</v>
       </c>
+      <c r="P77">
+        <v>0.81200000000000006</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="9">
+      <c r="E78" s="10">
         <v>2012</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -9782,9 +10287,12 @@
       <c r="O78">
         <v>2.0499999999999998</v>
       </c>
+      <c r="P78">
+        <v>28.94</v>
+      </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="10"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="4" t="s">
         <v>12</v>
       </c>
@@ -9815,9 +10323,12 @@
       <c r="O79">
         <v>0.56899999999999995</v>
       </c>
+      <c r="P79">
+        <v>0.44440000000000002</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="10"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="4" t="s">
         <v>13</v>
       </c>
@@ -9848,9 +10359,12 @@
       <c r="O80">
         <v>0.21010000000000001</v>
       </c>
+      <c r="P80">
+        <v>0.28539999999999999</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="10"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="4" t="s">
         <v>14</v>
       </c>
@@ -9881,9 +10395,12 @@
       <c r="O81">
         <v>0.3679</v>
       </c>
+      <c r="P81">
+        <v>0.38340000000000002</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="10"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
@@ -9914,12 +10431,14 @@
       <c r="O82" s="5">
         <v>0.48286499999999999</v>
       </c>
-      <c r="P82" s="5"/>
+      <c r="P82" s="5">
+        <v>0.65600400000000003</v>
+      </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="10"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
@@ -9950,12 +10469,14 @@
       <c r="O83" s="5">
         <v>0.78880399999999995</v>
       </c>
-      <c r="P83" s="5"/>
+      <c r="P83" s="5">
+        <v>0.82198099999999996</v>
+      </c>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="10"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="4" t="s">
         <v>17</v>
       </c>
@@ -9986,9 +10507,12 @@
       <c r="O84">
         <v>0.72599999999999998</v>
       </c>
+      <c r="P84">
+        <v>0.65200000000000002</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="10"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
@@ -10019,9 +10543,12 @@
       <c r="O85">
         <v>0.71899999999999997</v>
       </c>
+      <c r="P85">
+        <v>0.64100000000000001</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="10"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="4" t="s">
         <v>19</v>
       </c>
@@ -10052,9 +10579,12 @@
       <c r="O86">
         <v>0.72</v>
       </c>
+      <c r="P86">
+        <v>0.64300000000000002</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="10"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
@@ -10085,9 +10615,12 @@
       <c r="O87">
         <v>0.83199999999999996</v>
       </c>
+      <c r="P87">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="9">
+      <c r="E88" s="10">
         <v>2013</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -10120,9 +10653,12 @@
       <c r="O88">
         <v>1.85</v>
       </c>
+      <c r="P88">
+        <v>28.01</v>
+      </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="10"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
@@ -10153,9 +10689,12 @@
       <c r="O89">
         <v>0.55779999999999996</v>
       </c>
+      <c r="P89">
+        <v>0.45190000000000002</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="10"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
@@ -10186,9 +10725,12 @@
       <c r="O90">
         <v>0.21340000000000001</v>
       </c>
+      <c r="P90">
+        <v>0.2792</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="10"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="4" t="s">
         <v>14</v>
       </c>
@@ -10219,9 +10761,12 @@
       <c r="O91">
         <v>0.37169999999999997</v>
       </c>
+      <c r="P91">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="10"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
@@ -10252,12 +10797,14 @@
       <c r="O92" s="5">
         <v>0.48900900000000003</v>
       </c>
-      <c r="P92" s="5"/>
+      <c r="P92" s="5">
+        <v>0.63980700000000001</v>
+      </c>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="10"/>
+      <c r="E93" s="11"/>
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
@@ -10288,12 +10835,14 @@
       <c r="O93" s="5">
         <v>0.79571000000000003</v>
       </c>
-      <c r="P93" s="5"/>
+      <c r="P93" s="5">
+        <v>0.81355200000000005</v>
+      </c>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
     <row r="94" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="10"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="4" t="s">
         <v>17</v>
       </c>
@@ -10324,9 +10873,12 @@
       <c r="O94">
         <v>0.71599999999999997</v>
       </c>
+      <c r="P94">
+        <v>0.67200000000000004</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="10"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
@@ -10357,9 +10909,12 @@
       <c r="O95">
         <v>0.71099999999999997</v>
       </c>
+      <c r="P95">
+        <v>0.64600000000000002</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="10"/>
+      <c r="E96" s="11"/>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
@@ -10390,9 +10945,12 @@
       <c r="O96">
         <v>0.71099999999999997</v>
       </c>
+      <c r="P96">
+        <v>0.64500000000000002</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="10"/>
+      <c r="E97" s="11"/>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
@@ -10423,9 +10981,12 @@
       <c r="O97">
         <v>0.82899999999999996</v>
       </c>
+      <c r="P97">
+        <v>0.81299999999999994</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="9">
+      <c r="E98" s="10">
         <v>2014</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -10458,9 +11019,12 @@
       <c r="O98">
         <v>1.86</v>
       </c>
+      <c r="P98">
+        <v>27.91</v>
+      </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="10"/>
+      <c r="E99" s="11"/>
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
@@ -10491,9 +11055,12 @@
       <c r="O99">
         <v>0.55789999999999995</v>
       </c>
+      <c r="P99">
+        <v>0.4672</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="10"/>
+      <c r="E100" s="11"/>
       <c r="F100" s="4" t="s">
         <v>13</v>
       </c>
@@ -10524,9 +11091,12 @@
       <c r="O100">
         <v>0.21790000000000001</v>
       </c>
+      <c r="P100">
+        <v>0.27629999999999999</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="10"/>
+      <c r="E101" s="11"/>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
@@ -10557,9 +11127,12 @@
       <c r="O101">
         <v>0.3669</v>
       </c>
+      <c r="P101">
+        <v>0.37809999999999999</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="10"/>
+      <c r="E102" s="11"/>
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
@@ -10590,12 +11163,14 @@
       <c r="O102" s="5">
         <v>0.50004300000000002</v>
       </c>
-      <c r="P102" s="5"/>
+      <c r="P102" s="5">
+        <v>0.63429599999999997</v>
+      </c>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
     <row r="103" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="10"/>
+      <c r="E103" s="11"/>
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
@@ -10626,12 +11201,14 @@
       <c r="O103" s="5">
         <v>0.78617000000000004</v>
       </c>
-      <c r="P103" s="5"/>
+      <c r="P103" s="5">
+        <v>0.81007700000000005</v>
+      </c>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
     <row r="104" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="10"/>
+      <c r="E104" s="11"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
@@ -10662,9 +11239,12 @@
       <c r="O104">
         <v>0.71799999999999997</v>
       </c>
+      <c r="P104">
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="10"/>
+      <c r="E105" s="11"/>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
@@ -10695,9 +11275,12 @@
       <c r="O105">
         <v>0.71199999999999997</v>
       </c>
+      <c r="P105">
+        <v>0.65500000000000003</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="10"/>
+      <c r="E106" s="11"/>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
@@ -10728,9 +11311,12 @@
       <c r="O106">
         <v>0.71299999999999997</v>
       </c>
+      <c r="P106">
+        <v>0.65200000000000002</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="10"/>
+      <c r="E107" s="11"/>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
@@ -10761,9 +11347,12 @@
       <c r="O107">
         <v>0.83</v>
       </c>
+      <c r="P107">
+        <v>0.81599999999999995</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="9">
+      <c r="E108" s="10">
         <v>2015</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -10796,9 +11385,12 @@
       <c r="O108">
         <v>1.82</v>
       </c>
+      <c r="P108">
+        <v>27.18</v>
+      </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="10"/>
+      <c r="E109" s="11"/>
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
@@ -10829,9 +11421,12 @@
       <c r="O109">
         <v>0.55659999999999998</v>
       </c>
+      <c r="P109">
+        <v>0.44350000000000001</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="10"/>
+      <c r="E110" s="11"/>
       <c r="F110" s="4" t="s">
         <v>13</v>
       </c>
@@ -10862,9 +11457,12 @@
       <c r="O110">
         <v>0.21299999999999999</v>
       </c>
+      <c r="P110">
+        <v>0.27689999999999998</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="10"/>
+      <c r="E111" s="11"/>
       <c r="F111" s="4" t="s">
         <v>14</v>
       </c>
@@ -10895,9 +11493,12 @@
       <c r="O111">
         <v>0.379</v>
       </c>
+      <c r="P111">
+        <v>0.38159999999999999</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="10"/>
+      <c r="E112" s="11"/>
       <c r="F112" s="4" t="s">
         <v>15</v>
       </c>
@@ -10928,12 +11529,14 @@
       <c r="O112" s="5">
         <v>0.48835299999999998</v>
       </c>
-      <c r="P112" s="5"/>
+      <c r="P112" s="5">
+        <v>0.63501399999999997</v>
+      </c>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
     <row r="113" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="10"/>
+      <c r="E113" s="11"/>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -10964,12 +11567,14 @@
       <c r="O113" s="5">
         <v>0.81169899999999995</v>
       </c>
-      <c r="P113" s="5"/>
+      <c r="P113" s="5">
+        <v>0.81720999999999999</v>
+      </c>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
     <row r="114" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="10"/>
+      <c r="E114" s="11"/>
       <c r="F114" s="4" t="s">
         <v>17</v>
       </c>
@@ -11000,9 +11605,12 @@
       <c r="O114">
         <v>0.71599999999999997</v>
       </c>
+      <c r="P114">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="10"/>
+      <c r="E115" s="11"/>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
@@ -11033,9 +11641,12 @@
       <c r="O115">
         <v>0.71</v>
       </c>
+      <c r="P115">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="10"/>
+      <c r="E116" s="11"/>
       <c r="F116" s="4" t="s">
         <v>19</v>
       </c>
@@ -11066,9 +11677,12 @@
       <c r="O116">
         <v>0.71199999999999997</v>
       </c>
+      <c r="P116">
+        <v>0.64500000000000002</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="10"/>
+      <c r="E117" s="11"/>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
@@ -11099,9 +11713,12 @@
       <c r="O117">
         <v>0.82199999999999995</v>
       </c>
+      <c r="P117">
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -11143,9 +11760,9 @@
         <f t="shared" si="0"/>
         <v>2.3636363636363638</v>
       </c>
-      <c r="P118" s="4" t="e">
+      <c r="P118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>32.615454545454554</v>
       </c>
       <c r="Q118" s="4" t="e">
         <f t="shared" si="0"/>
@@ -11153,7 +11770,7 @@
       </c>
     </row>
     <row r="119" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="10"/>
+      <c r="E119" s="11"/>
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
@@ -11193,9 +11810,9 @@
         <f t="shared" si="1"/>
         <v>0.61080000000000001</v>
       </c>
-      <c r="P119" s="4" t="e">
+      <c r="P119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.47401818181818184</v>
       </c>
       <c r="Q119" s="4" t="e">
         <f t="shared" si="1"/>
@@ -11203,7 +11820,7 @@
       </c>
     </row>
     <row r="120" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="10"/>
+      <c r="E120" s="11"/>
       <c r="F120" s="4" t="s">
         <v>13</v>
       </c>
@@ -11243,9 +11860,9 @@
         <f t="shared" si="2"/>
         <v>0.19205454545454545</v>
       </c>
-      <c r="P120" s="4" t="e">
+      <c r="P120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.27513636363636362</v>
       </c>
       <c r="Q120" s="4" t="e">
         <f t="shared" si="2"/>
@@ -11253,7 +11870,7 @@
       </c>
     </row>
     <row r="121" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="10"/>
+      <c r="E121" s="11"/>
       <c r="F121" s="4" t="s">
         <v>14</v>
       </c>
@@ -11293,9 +11910,9 @@
         <f t="shared" si="3"/>
         <v>0.35383636363636356</v>
       </c>
-      <c r="P121" s="4" t="e">
+      <c r="P121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.37771818181818179</v>
       </c>
       <c r="Q121" s="4" t="e">
         <f t="shared" si="3"/>
@@ -11303,7 +11920,7 @@
       </c>
     </row>
     <row r="122" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="10"/>
+      <c r="E122" s="11"/>
       <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
@@ -11343,9 +11960,9 @@
         <f t="shared" si="4"/>
         <v>0.43762445454545451</v>
       </c>
-      <c r="P122" s="5" t="e">
+      <c r="P122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.62705336363636366</v>
       </c>
       <c r="Q122" s="5" t="e">
         <f t="shared" si="4"/>
@@ -11353,7 +11970,7 @@
       </c>
     </row>
     <row r="123" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="10"/>
+      <c r="E123" s="11"/>
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
@@ -11393,9 +12010,9 @@
         <f t="shared" si="5"/>
         <v>0.75535754545454548</v>
       </c>
-      <c r="P123" s="5" t="e">
+      <c r="P123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.80636581818181807</v>
       </c>
       <c r="Q123" s="5" t="e">
         <f t="shared" si="5"/>
@@ -11403,7 +12020,7 @@
       </c>
     </row>
     <row r="124" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="10"/>
+      <c r="E124" s="11"/>
       <c r="F124" s="4" t="s">
         <v>17</v>
       </c>
@@ -11443,9 +12060,9 @@
         <f t="shared" si="6"/>
         <v>0.75045454545454549</v>
       </c>
-      <c r="P124" s="4" t="e">
+      <c r="P124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.6733636363636365</v>
       </c>
       <c r="Q124" s="4" t="e">
         <f t="shared" si="6"/>
@@ -11453,7 +12070,7 @@
       </c>
     </row>
     <row r="125" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="10"/>
+      <c r="E125" s="11"/>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
@@ -11493,9 +12110,9 @@
         <f t="shared" si="7"/>
         <v>0.74436363636363645</v>
       </c>
-      <c r="P125" s="4" t="e">
+      <c r="P125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.65699999999999992</v>
       </c>
       <c r="Q125" s="4" t="e">
         <f t="shared" si="7"/>
@@ -11503,7 +12120,7 @@
       </c>
     </row>
     <row r="126" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="10"/>
+      <c r="E126" s="11"/>
       <c r="F126" s="4" t="s">
         <v>19</v>
       </c>
@@ -11543,9 +12160,9 @@
         <f t="shared" si="8"/>
         <v>0.74481818181818193</v>
       </c>
-      <c r="P126" s="4" t="e">
+      <c r="P126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.65563636363636379</v>
       </c>
       <c r="Q126" s="4" t="e">
         <f t="shared" si="8"/>
@@ -11553,7 +12170,7 @@
       </c>
     </row>
     <row r="127" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="10"/>
+      <c r="E127" s="11"/>
       <c r="F127" s="4" t="s">
         <v>20</v>
       </c>
@@ -11593,9 +12210,9 @@
         <f t="shared" si="9"/>
         <v>0.85181818181818159</v>
       </c>
-      <c r="P127" s="4" t="e">
+      <c r="P127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.8240909090909091</v>
       </c>
       <c r="Q127" s="4" t="e">
         <f t="shared" si="9"/>

--- a/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
+++ b/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Our Algo" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -159,6 +159,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -387,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView topLeftCell="D109" workbookViewId="0">
+      <selection activeCell="S114" sqref="S114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -455,7 +456,7 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>2005</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -491,9 +492,12 @@
       <c r="P8">
         <v>41.89</v>
       </c>
+      <c r="Q8">
+        <v>8.15</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -527,9 +531,12 @@
       <c r="P9">
         <v>0.4879</v>
       </c>
+      <c r="Q9">
+        <v>0.2908</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -563,9 +570,12 @@
       <c r="P10">
         <v>0.27439999999999998</v>
       </c>
+      <c r="Q10">
+        <v>0.37630000000000002</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
@@ -599,9 +609,12 @@
       <c r="P11">
         <v>0.37840000000000001</v>
       </c>
+      <c r="Q11">
+        <v>0.43469999999999998</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
@@ -635,11 +648,13 @@
       <c r="P12" s="5">
         <v>0.61951599999999996</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="5">
+        <v>0.849831</v>
+      </c>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
@@ -673,11 +688,13 @@
       <c r="P13" s="5">
         <v>0.80418999999999996</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="5">
+        <v>0.92372699999999996</v>
+      </c>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="11"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
@@ -711,9 +728,12 @@
       <c r="P14">
         <v>0.66600000000000004</v>
       </c>
+      <c r="Q14">
+        <v>0.52400000000000002</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
@@ -747,9 +767,12 @@
       <c r="P15">
         <v>0.66200000000000003</v>
       </c>
+      <c r="Q15">
+        <v>0.53200000000000003</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="11"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
@@ -783,9 +806,12 @@
       <c r="P16">
         <v>0.65900000000000003</v>
       </c>
+      <c r="Q16">
+        <v>0.52300000000000002</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="11"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
@@ -819,9 +845,12 @@
       <c r="P17">
         <v>0.83499999999999996</v>
       </c>
+      <c r="Q17">
+        <v>0.72499999999999998</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <v>2006</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -857,9 +886,12 @@
       <c r="P18">
         <v>40.950000000000003</v>
       </c>
+      <c r="Q18">
+        <v>8.91</v>
+      </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
@@ -893,9 +925,12 @@
       <c r="P19">
         <v>0.50729999999999997</v>
       </c>
+      <c r="Q19">
+        <v>0.29189999999999999</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
@@ -929,9 +964,12 @@
       <c r="P20">
         <v>0.26690000000000003</v>
       </c>
+      <c r="Q20">
+        <v>0.37709999999999999</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
@@ -965,9 +1003,12 @@
       <c r="P21">
         <v>0.37190000000000001</v>
       </c>
+      <c r="Q21">
+        <v>0.43490000000000001</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
@@ -1001,11 +1042,13 @@
       <c r="P22" s="5">
         <v>0.60160000000000002</v>
       </c>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="5">
+        <v>0.84987100000000004</v>
+      </c>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="11"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -1039,11 +1082,13 @@
       <c r="P23" s="5">
         <v>0.78958899999999999</v>
       </c>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="5">
+        <v>0.92343500000000001</v>
+      </c>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="11"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
@@ -1077,9 +1122,12 @@
       <c r="P24">
         <v>0.69099999999999995</v>
       </c>
+      <c r="Q24">
+        <v>0.52400000000000002</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="11"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1113,9 +1161,12 @@
       <c r="P25">
         <v>0.67400000000000004</v>
       </c>
+      <c r="Q25">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1149,9 +1200,12 @@
       <c r="P26">
         <v>0.66300000000000003</v>
       </c>
+      <c r="Q26">
+        <v>0.52300000000000002</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="11"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1185,9 +1239,12 @@
       <c r="P27">
         <v>0.84599999999999997</v>
       </c>
+      <c r="Q27">
+        <v>0.72499999999999998</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="10">
+      <c r="E28" s="11">
         <v>2007</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1223,9 +1280,12 @@
       <c r="P28">
         <v>40.21</v>
       </c>
+      <c r="Q28">
+        <v>9.94</v>
+      </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="11"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1259,9 +1319,12 @@
       <c r="P29">
         <v>0.50229999999999997</v>
       </c>
+      <c r="Q29">
+        <v>0.2969</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="11"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1295,9 +1358,12 @@
       <c r="P30">
         <v>0.27060000000000001</v>
       </c>
+      <c r="Q30">
+        <v>0.37419999999999998</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="11"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1331,9 +1397,12 @@
       <c r="P31">
         <v>0.37130000000000002</v>
       </c>
+      <c r="Q31">
+        <v>0.43319999999999997</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="11"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
@@ -1367,11 +1436,13 @@
       <c r="P32" s="5">
         <v>0.61053500000000005</v>
       </c>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="5">
+        <v>0.84434399999999998</v>
+      </c>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="11"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -1405,11 +1476,13 @@
       <c r="P33" s="5">
         <v>0.78876299999999999</v>
       </c>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="5">
+        <v>0.92032000000000003</v>
+      </c>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="11"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
@@ -1443,9 +1516,12 @@
       <c r="P34">
         <v>0.68600000000000005</v>
       </c>
+      <c r="Q34">
+        <v>0.52700000000000002</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="11"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
@@ -1479,9 +1555,12 @@
       <c r="P35">
         <v>0.67100000000000004</v>
       </c>
+      <c r="Q35">
+        <v>0.53300000000000003</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="11"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
@@ -1515,9 +1594,12 @@
       <c r="P36">
         <v>0.66600000000000004</v>
       </c>
+      <c r="Q36">
+        <v>0.52700000000000002</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="11"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
@@ -1551,9 +1633,12 @@
       <c r="P37">
         <v>0.83899999999999997</v>
       </c>
+      <c r="Q37">
+        <v>0.72899999999999998</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="10">
+      <c r="E38" s="11">
         <v>2008</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1589,9 +1674,12 @@
       <c r="P38">
         <v>39.700000000000003</v>
       </c>
+      <c r="Q38">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="11"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
@@ -1625,9 +1713,12 @@
       <c r="P39">
         <v>0.50260000000000005</v>
       </c>
+      <c r="Q39">
+        <v>0.26269999999999999</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="11"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
@@ -1661,9 +1752,12 @@
       <c r="P40">
         <v>0.26800000000000002</v>
       </c>
+      <c r="Q40">
+        <v>0.3821</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="11"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
@@ -1697,9 +1791,12 @@
       <c r="P41">
         <v>0.37230000000000002</v>
       </c>
+      <c r="Q41">
+        <v>0.43730000000000002</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1733,11 +1830,13 @@
       <c r="P42" s="5">
         <v>0.60684099999999996</v>
       </c>
-      <c r="Q42" s="5"/>
+      <c r="Q42" s="5">
+        <v>0.86517500000000003</v>
+      </c>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="11"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -1771,11 +1870,13 @@
       <c r="P43" s="5">
         <v>0.79223200000000005</v>
       </c>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="5">
+        <v>0.93062999999999996</v>
+      </c>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="11"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
@@ -1809,9 +1910,12 @@
       <c r="P44">
         <v>0.69</v>
       </c>
+      <c r="Q44">
+        <v>0.50900000000000001</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="11"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
@@ -1845,9 +1949,12 @@
       <c r="P45">
         <v>0.67300000000000004</v>
       </c>
+      <c r="Q45">
+        <v>0.51400000000000001</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="11"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
@@ -1881,9 +1988,12 @@
       <c r="P46">
         <v>0.67100000000000004</v>
       </c>
+      <c r="Q46">
+        <v>0.50800000000000001</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="11"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
@@ -1917,9 +2027,12 @@
       <c r="P47">
         <v>0.83899999999999997</v>
       </c>
+      <c r="Q47">
+        <v>0.71399999999999997</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="10">
+      <c r="E48" s="11">
         <v>2009</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -1955,9 +2068,12 @@
       <c r="P48">
         <v>33.4</v>
       </c>
+      <c r="Q48">
+        <v>5.96</v>
+      </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="11"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
@@ -1991,9 +2107,12 @@
       <c r="P49">
         <v>0.4889</v>
       </c>
+      <c r="Q49">
+        <v>0.26750000000000002</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="11"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
@@ -2027,9 +2146,12 @@
       <c r="P50">
         <v>0.27250000000000002</v>
       </c>
+      <c r="Q50">
+        <v>0.37840000000000001</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="11"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="4" t="s">
         <v>14</v>
       </c>
@@ -2063,9 +2185,12 @@
       <c r="P51">
         <v>0.37619999999999998</v>
       </c>
+      <c r="Q51">
+        <v>0.436</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="11"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
@@ -2099,11 +2224,13 @@
       <c r="P52" s="5">
         <v>0.62005100000000002</v>
       </c>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="5">
+        <v>0.86096799999999996</v>
+      </c>
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="11"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
@@ -2137,11 +2264,13 @@
       <c r="P53" s="5">
         <v>0.80260200000000004</v>
       </c>
-      <c r="Q53" s="5"/>
+      <c r="Q53" s="5">
+        <v>0.93016100000000002</v>
+      </c>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="11"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
@@ -2175,9 +2304,12 @@
       <c r="P54">
         <v>0.68200000000000005</v>
       </c>
+      <c r="Q54">
+        <v>0.51500000000000001</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="11"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
@@ -2211,9 +2343,12 @@
       <c r="P55">
         <v>0.66700000000000004</v>
       </c>
+      <c r="Q55">
+        <v>0.52100000000000002</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="11"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2382,12 @@
       <c r="P56">
         <v>0.66700000000000004</v>
       </c>
+      <c r="Q56">
+        <v>0.51500000000000001</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="11"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
@@ -2283,9 +2421,12 @@
       <c r="P57">
         <v>0.82899999999999996</v>
       </c>
+      <c r="Q57">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="10">
+      <c r="E58" s="11">
         <v>2010</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -2321,9 +2462,12 @@
       <c r="P58">
         <v>28.75</v>
       </c>
+      <c r="Q58">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="11"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
@@ -2357,9 +2501,12 @@
       <c r="P59">
         <v>0.44919999999999999</v>
       </c>
+      <c r="Q59">
+        <v>0.25419999999999998</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="11"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
@@ -2393,9 +2540,12 @@
       <c r="P60">
         <v>0.28410000000000002</v>
       </c>
+      <c r="Q60">
+        <v>0.37819999999999998</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="11"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
@@ -2429,9 +2579,12 @@
       <c r="P61">
         <v>0.38419999999999999</v>
       </c>
+      <c r="Q61">
+        <v>0.43609999999999999</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="11"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
@@ -2465,11 +2618,13 @@
       <c r="P62" s="5">
         <v>0.65151800000000004</v>
       </c>
-      <c r="Q62" s="5"/>
+      <c r="Q62" s="5">
+        <v>0.86738000000000004</v>
+      </c>
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="11"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -2503,11 +2658,13 @@
       <c r="P63" s="5">
         <v>0.822801</v>
       </c>
-      <c r="Q63" s="5"/>
+      <c r="Q63" s="5">
+        <v>0.93404699999999996</v>
+      </c>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="11"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
@@ -2541,9 +2698,12 @@
       <c r="P64">
         <v>0.65100000000000002</v>
       </c>
+      <c r="Q64">
+        <v>0.51100000000000001</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="11"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
@@ -2577,9 +2737,12 @@
       <c r="P65">
         <v>0.64300000000000002</v>
       </c>
+      <c r="Q65">
+        <v>0.51900000000000002</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="11"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="4" t="s">
         <v>19</v>
       </c>
@@ -2613,9 +2776,12 @@
       <c r="P66">
         <v>0.64500000000000002</v>
       </c>
+      <c r="Q66">
+        <v>0.51100000000000001</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="11"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
@@ -2649,9 +2815,12 @@
       <c r="P67">
         <v>0.81699999999999995</v>
       </c>
+      <c r="Q67">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="10">
+      <c r="E68" s="11">
         <v>2011</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -2687,9 +2856,12 @@
       <c r="P68">
         <v>28.54</v>
       </c>
+      <c r="Q68">
+        <v>5.17</v>
+      </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="11"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
@@ -2723,9 +2895,12 @@
       <c r="P69" s="9">
         <v>0.4627</v>
       </c>
+      <c r="Q69" s="10">
+        <v>0.26100000000000001</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="11"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="4" t="s">
         <v>13</v>
       </c>
@@ -2759,9 +2934,12 @@
       <c r="P70" s="9">
         <v>0.27629999999999999</v>
       </c>
+      <c r="Q70" s="10">
+        <v>0.37819999999999998</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="11"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="4" t="s">
         <v>14</v>
       </c>
@@ -2795,9 +2973,12 @@
       <c r="P71" s="9">
         <v>0.37919999999999998</v>
       </c>
+      <c r="Q71" s="10">
+        <v>0.43580000000000002</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="11"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
@@ -2831,11 +3012,13 @@
       <c r="P72" s="5">
         <v>0.631498</v>
       </c>
-      <c r="Q72" s="5"/>
+      <c r="Q72" s="5">
+        <v>0.86445499999999997</v>
+      </c>
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="11"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
@@ -2869,11 +3052,13 @@
       <c r="P73" s="5">
         <v>0.81072699999999998</v>
       </c>
-      <c r="Q73" s="5"/>
+      <c r="Q73" s="5">
+        <v>0.93170699999999995</v>
+      </c>
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="11"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="4" t="s">
         <v>17</v>
       </c>
@@ -2907,9 +3092,12 @@
       <c r="P74" s="9">
         <v>0.66700000000000004</v>
       </c>
+      <c r="Q74" s="10">
+        <v>0.51600000000000001</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="11"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
@@ -2943,9 +3131,12 @@
       <c r="P75" s="9">
         <v>0.65100000000000002</v>
       </c>
+      <c r="Q75" s="10">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="11"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="4" t="s">
         <v>19</v>
       </c>
@@ -2979,9 +3170,12 @@
       <c r="P76" s="9">
         <v>0.65100000000000002</v>
       </c>
+      <c r="Q76" s="10">
+        <v>0.51500000000000001</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="11"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
@@ -3015,9 +3209,12 @@
       <c r="P77" s="9">
         <v>0.81699999999999995</v>
       </c>
+      <c r="Q77" s="10">
+        <v>0.71499999999999997</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="10">
+      <c r="E78" s="11">
         <v>2012</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -3053,9 +3250,12 @@
       <c r="P78" s="9">
         <v>27.71</v>
       </c>
+      <c r="Q78" s="10">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="11"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
         <v>12</v>
       </c>
@@ -3089,9 +3289,12 @@
       <c r="P79" s="9">
         <v>0.46329999999999999</v>
       </c>
+      <c r="Q79" s="10">
+        <v>0.2379</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="11"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="4" t="s">
         <v>13</v>
       </c>
@@ -3125,9 +3328,12 @@
       <c r="P80" s="9">
         <v>0.27529999999999999</v>
       </c>
+      <c r="Q80" s="10">
+        <v>0.38279999999999997</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="11"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="4" t="s">
         <v>14</v>
       </c>
@@ -3161,9 +3367,12 @@
       <c r="P81" s="9">
         <v>0.37830000000000003</v>
       </c>
+      <c r="Q81" s="10">
+        <v>0.43809999999999999</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="11"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
@@ -3197,11 +3406,13 @@
       <c r="P82" s="5">
         <v>0.63274200000000003</v>
       </c>
-      <c r="Q82" s="5"/>
+      <c r="Q82" s="5">
+        <v>0.87968100000000005</v>
+      </c>
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="11"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
@@ -3235,11 +3446,13 @@
       <c r="P83" s="5">
         <v>0.81106299999999998</v>
       </c>
-      <c r="Q83" s="5"/>
+      <c r="Q83" s="5">
+        <v>0.939164</v>
+      </c>
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="11"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="4" t="s">
         <v>17</v>
       </c>
@@ -3273,9 +3486,12 @@
       <c r="P84" s="9">
         <v>0.66800000000000004</v>
       </c>
+      <c r="Q84" s="10">
+        <v>0.505</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="11"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
@@ -3309,9 +3525,12 @@
       <c r="P85" s="9">
         <v>0.65300000000000002</v>
       </c>
+      <c r="Q85" s="10">
+        <v>0.51100000000000001</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="11"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="4" t="s">
         <v>19</v>
       </c>
@@ -3345,9 +3564,12 @@
       <c r="P86" s="9">
         <v>0.65500000000000003</v>
       </c>
+      <c r="Q86" s="10">
+        <v>0.502</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="11"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
@@ -3381,9 +3603,12 @@
       <c r="P87" s="9">
         <v>0.81599999999999995</v>
       </c>
+      <c r="Q87" s="10">
+        <v>0.70199999999999996</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="10">
+      <c r="E88" s="11">
         <v>2013</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -3419,9 +3644,12 @@
       <c r="P88" s="9">
         <v>26.4</v>
       </c>
+      <c r="Q88" s="10">
+        <v>6.11</v>
+      </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="11"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
@@ -3455,9 +3683,12 @@
       <c r="P89" s="9">
         <v>0.43230000000000002</v>
       </c>
+      <c r="Q89" s="10">
+        <v>0.24829999999999999</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="11"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
@@ -3491,9 +3722,12 @@
       <c r="P90" s="9">
         <v>0.28649999999999998</v>
       </c>
+      <c r="Q90" s="10">
+        <v>0.3821</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="11"/>
+      <c r="E91" s="12"/>
       <c r="F91" s="4" t="s">
         <v>14</v>
       </c>
@@ -3527,9 +3761,12 @@
       <c r="P91" s="9">
         <v>0.3856</v>
       </c>
+      <c r="Q91" s="10">
+        <v>0.43769999999999998</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="11"/>
+      <c r="E92" s="12"/>
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
@@ -3563,11 +3800,13 @@
       <c r="P92" s="5">
         <v>0.65654000000000001</v>
       </c>
-      <c r="Q92" s="5"/>
+      <c r="Q92" s="5">
+        <v>0.87544900000000003</v>
+      </c>
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="11"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
@@ -3601,11 +3840,13 @@
       <c r="P93" s="5">
         <v>0.82552499999999995</v>
       </c>
-      <c r="Q93" s="5"/>
+      <c r="Q93" s="5">
+        <v>0.93699200000000005</v>
+      </c>
       <c r="R93" s="5"/>
     </row>
     <row r="94" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="11"/>
+      <c r="E94" s="12"/>
       <c r="F94" s="4" t="s">
         <v>17</v>
       </c>
@@ -3639,9 +3880,12 @@
       <c r="P94" s="9">
         <v>0.65700000000000003</v>
       </c>
+      <c r="Q94" s="10">
+        <v>0.50800000000000001</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="11"/>
+      <c r="E95" s="12"/>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
@@ -3675,9 +3919,12 @@
       <c r="P95" s="9">
         <v>0.63300000000000001</v>
       </c>
+      <c r="Q95" s="10">
+        <v>0.51200000000000001</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="11"/>
+      <c r="E96" s="12"/>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
@@ -3711,9 +3958,12 @@
       <c r="P96" s="9">
         <v>0.629</v>
       </c>
+      <c r="Q96" s="10">
+        <v>0.50800000000000001</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="11"/>
+      <c r="E97" s="12"/>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
@@ -3747,9 +3997,12 @@
       <c r="P97" s="9">
         <v>0.80600000000000005</v>
       </c>
+      <c r="Q97" s="10">
+        <v>0.70599999999999996</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="10">
+      <c r="E98" s="11">
         <v>2014</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -3785,9 +4038,12 @@
       <c r="P98" s="9">
         <v>48.19</v>
       </c>
+      <c r="Q98" s="10">
+        <v>4.3600000000000003</v>
+      </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="11"/>
+      <c r="E99" s="12"/>
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
@@ -3821,9 +4077,12 @@
       <c r="P99" s="9">
         <v>0.46689999999999998</v>
       </c>
+      <c r="Q99" s="10">
+        <v>0.22070000000000001</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="11"/>
+      <c r="E100" s="12"/>
       <c r="F100" s="4" t="s">
         <v>13</v>
       </c>
@@ -3857,9 +4116,12 @@
       <c r="P100" s="9">
         <v>0.27460000000000001</v>
       </c>
+      <c r="Q100" s="10">
+        <v>0.38769999999999999</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="11"/>
+      <c r="E101" s="12"/>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
@@ -3893,9 +4155,12 @@
       <c r="P101" s="9">
         <v>0.37919999999999998</v>
       </c>
+      <c r="Q101" s="10">
+        <v>0.44090000000000001</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="11"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
@@ -3929,11 +4194,13 @@
       <c r="P102" s="5">
         <v>0.63022400000000001</v>
       </c>
-      <c r="Q102" s="5"/>
+      <c r="Q102" s="5">
+        <v>0.88979600000000003</v>
+      </c>
       <c r="R102" s="5"/>
     </row>
     <row r="103" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="11"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
@@ -3967,11 +4234,13 @@
       <c r="P103" s="5">
         <v>0.81239300000000003</v>
       </c>
-      <c r="Q103" s="5"/>
+      <c r="Q103" s="5">
+        <v>0.94474800000000003</v>
+      </c>
       <c r="R103" s="5"/>
     </row>
     <row r="104" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="11"/>
+      <c r="E104" s="12"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
@@ -4005,9 +4274,12 @@
       <c r="P104" s="9">
         <v>0.67500000000000004</v>
       </c>
+      <c r="Q104" s="10">
+        <v>0.49199999999999999</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="11"/>
+      <c r="E105" s="12"/>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
@@ -4041,9 +4313,12 @@
       <c r="P105" s="9">
         <v>0.65400000000000003</v>
       </c>
+      <c r="Q105" s="10">
+        <v>0.498</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="11"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
@@ -4077,9 +4352,12 @@
       <c r="P106" s="9">
         <v>0.65</v>
       </c>
+      <c r="Q106" s="10">
+        <v>0.49099999999999999</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="11"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
@@ -4113,9 +4391,12 @@
       <c r="P107" s="9">
         <v>0.81299999999999994</v>
       </c>
+      <c r="Q107" s="10">
+        <v>0.69199999999999995</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="10">
+      <c r="E108" s="11">
         <v>2015</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -4151,9 +4432,12 @@
       <c r="P108" s="9">
         <v>51.02</v>
       </c>
+      <c r="Q108" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="11"/>
+      <c r="E109" s="12"/>
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
@@ -4187,9 +4471,12 @@
       <c r="P109" s="9">
         <v>0.43680000000000002</v>
       </c>
+      <c r="Q109" s="10">
+        <v>0.2346</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="11"/>
+      <c r="E110" s="12"/>
       <c r="F110" s="4" t="s">
         <v>13</v>
       </c>
@@ -4223,9 +4510,12 @@
       <c r="P110" s="9">
         <v>0.2843</v>
       </c>
+      <c r="Q110" s="10">
+        <v>0.38550000000000001</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="11"/>
+      <c r="E111" s="12"/>
       <c r="F111" s="4" t="s">
         <v>14</v>
       </c>
@@ -4259,9 +4549,12 @@
       <c r="P111" s="9">
         <v>0.38340000000000002</v>
       </c>
+      <c r="Q111" s="10">
+        <v>0.43969999999999998</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="11"/>
+      <c r="E112" s="12"/>
       <c r="F112" s="4" t="s">
         <v>15</v>
       </c>
@@ -4295,11 +4588,13 @@
       <c r="P112" s="5">
         <v>0.651841</v>
       </c>
-      <c r="Q112" s="5"/>
+      <c r="Q112" s="5">
+        <v>0.88413399999999998</v>
+      </c>
       <c r="R112" s="5"/>
     </row>
     <row r="113" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="11"/>
+      <c r="E113" s="12"/>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -4333,11 +4628,13 @@
       <c r="P113" s="5">
         <v>0.82112700000000005</v>
       </c>
-      <c r="Q113" s="5"/>
+      <c r="Q113" s="5">
+        <v>0.94168399999999997</v>
+      </c>
       <c r="R113" s="5"/>
     </row>
     <row r="114" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="11"/>
+      <c r="E114" s="12"/>
       <c r="F114" s="4" t="s">
         <v>17</v>
       </c>
@@ -4371,9 +4668,12 @@
       <c r="P114" s="9">
         <v>0.65900000000000003</v>
       </c>
+      <c r="Q114" s="10">
+        <v>0.502</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="11"/>
+      <c r="E115" s="12"/>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
@@ -4407,9 +4707,12 @@
       <c r="P115" s="9">
         <v>0.63600000000000001</v>
       </c>
+      <c r="Q115" s="10">
+        <v>0.505</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="11"/>
+      <c r="E116" s="12"/>
       <c r="F116" s="4" t="s">
         <v>19</v>
       </c>
@@ -4443,9 +4746,12 @@
       <c r="P116" s="9">
         <v>0.64200000000000002</v>
       </c>
+      <c r="Q116" s="10">
+        <v>0.501</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="11"/>
+      <c r="E117" s="12"/>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
@@ -4479,9 +4785,12 @@
       <c r="P117" s="9">
         <v>0.80400000000000005</v>
       </c>
+      <c r="Q117" s="10">
+        <v>0.69899999999999995</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -4527,13 +4836,13 @@
         <f t="shared" si="0"/>
         <v>36.97818181818181</v>
       </c>
-      <c r="Q118" s="4" t="e">
+      <c r="Q118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.3290909090909091</v>
       </c>
     </row>
     <row r="119" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="11"/>
+      <c r="E119" s="12"/>
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
@@ -4577,13 +4886,13 @@
         <f t="shared" si="1"/>
         <v>0.47274545454545452</v>
       </c>
-      <c r="Q119" s="4" t="e">
+      <c r="Q119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.26059090909090904</v>
       </c>
     </row>
     <row r="120" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="11"/>
+      <c r="E120" s="12"/>
       <c r="F120" s="4" t="s">
         <v>13</v>
       </c>
@@ -4627,13 +4936,13 @@
         <f t="shared" si="2"/>
         <v>0.27577272727272722</v>
       </c>
-      <c r="Q120" s="4" t="e">
+      <c r="Q120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.38023636363636371</v>
       </c>
     </row>
     <row r="121" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="11"/>
+      <c r="E121" s="12"/>
       <c r="F121" s="4" t="s">
         <v>14</v>
       </c>
@@ -4677,13 +4986,13 @@
         <f t="shared" si="3"/>
         <v>0.37818181818181817</v>
       </c>
-      <c r="Q121" s="4" t="e">
+      <c r="Q121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.43676363636363641</v>
       </c>
     </row>
     <row r="122" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="11"/>
+      <c r="E122" s="12"/>
       <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
@@ -4727,13 +5036,13 @@
         <f t="shared" si="4"/>
         <v>0.62844600000000006</v>
       </c>
-      <c r="Q122" s="5" t="e">
+      <c r="Q122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.86646218181818169</v>
       </c>
     </row>
     <row r="123" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="11"/>
+      <c r="E123" s="12"/>
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
@@ -4777,13 +5086,13 @@
         <f t="shared" si="5"/>
         <v>0.80736472727272723</v>
       </c>
-      <c r="Q123" s="5" t="e">
+      <c r="Q123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.93241954545454564</v>
       </c>
     </row>
     <row r="124" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="11"/>
+      <c r="E124" s="12"/>
       <c r="F124" s="4" t="s">
         <v>17</v>
       </c>
@@ -4827,13 +5136,13 @@
         <f t="shared" si="6"/>
         <v>0.67199999999999993</v>
       </c>
-      <c r="Q124" s="4" t="e">
+      <c r="Q124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.51209090909090904</v>
       </c>
     </row>
     <row r="125" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="11"/>
+      <c r="E125" s="12"/>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
@@ -4877,13 +5186,13 @@
         <f t="shared" si="7"/>
         <v>0.65609090909090917</v>
       </c>
-      <c r="Q125" s="4" t="e">
+      <c r="Q125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5177272727272727</v>
       </c>
     </row>
     <row r="126" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="11"/>
+      <c r="E126" s="12"/>
       <c r="F126" s="4" t="s">
         <v>19</v>
       </c>
@@ -4927,13 +5236,13 @@
         <f t="shared" si="8"/>
         <v>0.65436363636363648</v>
       </c>
-      <c r="Q126" s="4" t="e">
+      <c r="Q126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.51127272727272732</v>
       </c>
     </row>
     <row r="127" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="11"/>
+      <c r="E127" s="12"/>
       <c r="F127" s="4" t="s">
         <v>20</v>
       </c>
@@ -4977,9 +5286,9 @@
         <f t="shared" si="9"/>
         <v>0.82372727272727275</v>
       </c>
-      <c r="Q127" s="4" t="e">
+      <c r="Q127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.71227272727272717</v>
       </c>
     </row>
     <row r="128" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7603,11 +7912,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E97"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="E108:E117"/>
-    <mergeCell ref="E118:E127"/>
     <mergeCell ref="E58:E67"/>
     <mergeCell ref="E68:E77"/>
     <mergeCell ref="E8:E17"/>
@@ -7615,6 +7919,11 @@
     <mergeCell ref="E28:E37"/>
     <mergeCell ref="E38:E47"/>
     <mergeCell ref="E48:E57"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E88:E97"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="E108:E117"/>
+    <mergeCell ref="E118:E127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -7625,8 +7934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7692,7 +8001,7 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>2005</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -7728,9 +8037,12 @@
       <c r="P8">
         <v>40.700000000000003</v>
       </c>
+      <c r="Q8">
+        <v>6.78</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -7764,9 +8076,12 @@
       <c r="P9">
         <v>0.47589999999999999</v>
       </c>
+      <c r="Q9">
+        <v>0.29289999999999999</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -7800,9 +8115,12 @@
       <c r="P10">
         <v>0.28260000000000002</v>
       </c>
+      <c r="Q10">
+        <v>0.37630000000000002</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
@@ -7836,9 +8154,12 @@
       <c r="P11">
         <v>0.3831</v>
       </c>
+      <c r="Q11">
+        <v>0.43440000000000001</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
@@ -7872,11 +8193,13 @@
       <c r="P12" s="5">
         <v>0.63804099999999997</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="5">
+        <v>0.84966699999999995</v>
+      </c>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
@@ -7910,11 +8233,13 @@
       <c r="P13" s="5">
         <v>0.81414699999999995</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="5">
+        <v>0.92321500000000001</v>
+      </c>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="11"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
@@ -7948,9 +8273,12 @@
       <c r="P14">
         <v>0.65800000000000003</v>
       </c>
+      <c r="Q14">
+        <v>0.52600000000000002</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
@@ -7984,9 +8312,12 @@
       <c r="P15">
         <v>0.65400000000000003</v>
       </c>
+      <c r="Q15">
+        <v>0.53300000000000003</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="11"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
@@ -8020,9 +8351,12 @@
       <c r="P16">
         <v>0.65</v>
       </c>
+      <c r="Q16">
+        <v>0.52400000000000002</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="11"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
@@ -8056,9 +8390,12 @@
       <c r="P17">
         <v>0.82799999999999996</v>
       </c>
+      <c r="Q17">
+        <v>0.72499999999999998</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <v>2006</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -8094,9 +8431,12 @@
       <c r="P18">
         <v>39.17</v>
       </c>
+      <c r="Q18">
+        <v>6.41</v>
+      </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
@@ -8130,9 +8470,12 @@
       <c r="P19">
         <v>0.52280000000000004</v>
       </c>
+      <c r="Q19">
+        <v>0.29349999999999998</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
@@ -8166,9 +8509,12 @@
       <c r="P20">
         <v>0.25890000000000002</v>
       </c>
+      <c r="Q20">
+        <v>0.37840000000000001</v>
+      </c>
     </row>
     <row r="21" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
@@ -8202,9 +8548,12 @@
       <c r="P21">
         <v>0.3664</v>
       </c>
+      <c r="Q21">
+        <v>0.43480000000000002</v>
+      </c>
     </row>
     <row r="22" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
@@ -8238,11 +8587,13 @@
       <c r="P22" s="5">
         <v>0.58345800000000003</v>
       </c>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="5">
+        <v>0.85295900000000002</v>
+      </c>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="11"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -8276,11 +8627,13 @@
       <c r="P23" s="5">
         <v>0.77790099999999995</v>
       </c>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="5">
+        <v>0.92313699999999999</v>
+      </c>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="11"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
@@ -8314,9 +8667,12 @@
       <c r="P24">
         <v>0.7</v>
       </c>
+      <c r="Q24">
+        <v>0.52500000000000002</v>
+      </c>
     </row>
     <row r="25" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="11"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
@@ -8350,9 +8706,12 @@
       <c r="P25">
         <v>0.68400000000000005</v>
       </c>
+      <c r="Q25">
+        <v>0.53100000000000003</v>
+      </c>
     </row>
     <row r="26" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
@@ -8386,9 +8745,12 @@
       <c r="P26">
         <v>0.67700000000000005</v>
       </c>
+      <c r="Q26">
+        <v>0.52500000000000002</v>
+      </c>
     </row>
     <row r="27" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="11"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
@@ -8422,9 +8784,12 @@
       <c r="P27">
         <v>0.85399999999999998</v>
       </c>
+      <c r="Q27">
+        <v>0.72399999999999998</v>
+      </c>
     </row>
     <row r="28" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="10">
+      <c r="E28" s="11">
         <v>2007</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -8460,9 +8825,12 @@
       <c r="P28">
         <v>39.520000000000003</v>
       </c>
+      <c r="Q28">
+        <v>9.9600000000000009</v>
+      </c>
     </row>
     <row r="29" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="11"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
@@ -8496,9 +8864,12 @@
       <c r="P29">
         <v>0.52139999999999997</v>
       </c>
+      <c r="Q29">
+        <v>0.29799999999999999</v>
+      </c>
     </row>
     <row r="30" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="11"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
@@ -8532,9 +8903,12 @@
       <c r="P30">
         <v>0.2601</v>
       </c>
+      <c r="Q30">
+        <v>0.37469999999999998</v>
+      </c>
     </row>
     <row r="31" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="11"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="4" t="s">
         <v>14</v>
       </c>
@@ -8568,9 +8942,12 @@
       <c r="P31">
         <v>0.3649</v>
       </c>
+      <c r="Q31">
+        <v>0.43340000000000001</v>
+      </c>
     </row>
     <row r="32" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="11"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
@@ -8604,11 +8981,13 @@
       <c r="P32" s="5">
         <v>0.58699199999999996</v>
       </c>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="5">
+        <v>0.84557099999999996</v>
+      </c>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="11"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -8642,11 +9021,13 @@
       <c r="P33" s="5">
         <v>0.77522899999999995</v>
       </c>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="5">
+        <v>0.92074100000000003</v>
+      </c>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="11"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
@@ -8680,9 +9061,12 @@
       <c r="P34">
         <v>0.70899999999999996</v>
       </c>
+      <c r="Q34">
+        <v>0.52900000000000003</v>
+      </c>
     </row>
     <row r="35" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="11"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
@@ -8716,9 +9100,12 @@
       <c r="P35">
         <v>0.68400000000000005</v>
       </c>
+      <c r="Q35">
+        <v>0.53400000000000003</v>
+      </c>
     </row>
     <row r="36" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="11"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
@@ -8752,9 +9139,12 @@
       <c r="P36">
         <v>0.67800000000000005</v>
       </c>
+      <c r="Q36">
+        <v>0.52900000000000003</v>
+      </c>
     </row>
     <row r="37" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="11"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
@@ -8788,9 +9178,12 @@
       <c r="P37">
         <v>0.84599999999999997</v>
       </c>
+      <c r="Q37">
+        <v>0.72799999999999998</v>
+      </c>
     </row>
     <row r="38" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="10">
+      <c r="E38" s="11">
         <v>2008</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -8826,9 +9219,12 @@
       <c r="P38">
         <v>34.950000000000003</v>
       </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="11"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
@@ -8862,9 +9258,12 @@
       <c r="P39">
         <v>0.47920000000000001</v>
       </c>
+      <c r="Q39">
+        <v>0.26590000000000003</v>
+      </c>
     </row>
     <row r="40" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="11"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
@@ -8898,9 +9297,12 @@
       <c r="P40">
         <v>0.27829999999999999</v>
       </c>
+      <c r="Q40">
+        <v>0.38200000000000001</v>
+      </c>
     </row>
     <row r="41" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="11"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="4" t="s">
         <v>14</v>
       </c>
@@ -8934,9 +9336,12 @@
       <c r="P41">
         <v>0.37930000000000003</v>
       </c>
+      <c r="Q41">
+        <v>0.43719999999999998</v>
+      </c>
     </row>
     <row r="42" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
@@ -8970,11 +9375,13 @@
       <c r="P42" s="5">
         <v>0.63028099999999998</v>
       </c>
-      <c r="Q42" s="5"/>
+      <c r="Q42" s="5">
+        <v>0.86503799999999997</v>
+      </c>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="11"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -9008,11 +9415,13 @@
       <c r="P43" s="5">
         <v>0.80715000000000003</v>
       </c>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="5">
+        <v>0.93037099999999995</v>
+      </c>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="11"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
@@ -9046,9 +9455,12 @@
       <c r="P44">
         <v>0.67400000000000004</v>
       </c>
+      <c r="Q44">
+        <v>0.51100000000000001</v>
+      </c>
     </row>
     <row r="45" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="11"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
@@ -9082,9 +9494,12 @@
       <c r="P45">
         <v>0.65800000000000003</v>
       </c>
+      <c r="Q45">
+        <v>0.51600000000000001</v>
+      </c>
     </row>
     <row r="46" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="11"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
@@ -9118,9 +9533,12 @@
       <c r="P46">
         <v>0.65500000000000003</v>
       </c>
+      <c r="Q46">
+        <v>0.51100000000000001</v>
+      </c>
     </row>
     <row r="47" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="11"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
@@ -9154,9 +9572,12 @@
       <c r="P47">
         <v>0.83</v>
       </c>
+      <c r="Q47">
+        <v>0.71499999999999997</v>
+      </c>
     </row>
     <row r="48" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="10">
+      <c r="E48" s="11">
         <v>2009</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -9192,9 +9613,12 @@
       <c r="P48">
         <v>34.630000000000003</v>
       </c>
+      <c r="Q48">
+        <v>5.65</v>
+      </c>
     </row>
     <row r="49" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="11"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
@@ -9228,9 +9652,12 @@
       <c r="P49">
         <v>0.4829</v>
       </c>
+      <c r="Q49">
+        <v>0.26519999999999999</v>
+      </c>
     </row>
     <row r="50" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="11"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
@@ -9264,9 +9691,12 @@
       <c r="P50">
         <v>0.27160000000000001</v>
       </c>
+      <c r="Q50">
+        <v>0.37809999999999999</v>
+      </c>
     </row>
     <row r="51" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="11"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="4" t="s">
         <v>14</v>
       </c>
@@ -9300,9 +9730,12 @@
       <c r="P51">
         <v>0.37619999999999998</v>
       </c>
+      <c r="Q51">
+        <v>0.43590000000000001</v>
+      </c>
     </row>
     <row r="52" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="11"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
@@ -9336,11 +9769,13 @@
       <c r="P52" s="5">
         <v>0.61787700000000001</v>
       </c>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="5">
+        <v>0.86033300000000001</v>
+      </c>
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="11"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
@@ -9374,11 +9809,13 @@
       <c r="P53" s="5">
         <v>0.80244400000000005</v>
       </c>
-      <c r="Q53" s="5"/>
+      <c r="Q53" s="5">
+        <v>0.92980200000000002</v>
+      </c>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="11"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
@@ -9412,9 +9849,12 @@
       <c r="P54">
         <v>0.67700000000000005</v>
       </c>
+      <c r="Q54">
+        <v>0.51300000000000001</v>
+      </c>
     </row>
     <row r="55" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="11"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
@@ -9448,9 +9888,12 @@
       <c r="P55">
         <v>0.66200000000000003</v>
       </c>
+      <c r="Q55">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="56" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="11"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="4" t="s">
         <v>19</v>
       </c>
@@ -9484,9 +9927,12 @@
       <c r="P56">
         <v>0.66300000000000003</v>
       </c>
+      <c r="Q56">
+        <v>0.51300000000000001</v>
+      </c>
     </row>
     <row r="57" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="11"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
@@ -9520,9 +9966,12 @@
       <c r="P57">
         <v>0.82799999999999996</v>
       </c>
+      <c r="Q57">
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="58" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="10">
+      <c r="E58" s="11">
         <v>2010</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -9558,9 +10007,12 @@
       <c r="P58">
         <v>28.24</v>
       </c>
+      <c r="Q58">
+        <v>8.2899999999999991</v>
+      </c>
     </row>
     <row r="59" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="11"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="4" t="s">
         <v>12</v>
       </c>
@@ -9594,9 +10046,12 @@
       <c r="P59">
         <v>0.46589999999999998</v>
       </c>
+      <c r="Q59">
+        <v>0.25540000000000002</v>
+      </c>
     </row>
     <row r="60" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="11"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
@@ -9630,9 +10085,12 @@
       <c r="P60">
         <v>0.28000000000000003</v>
       </c>
+      <c r="Q60">
+        <v>0.37790000000000001</v>
+      </c>
     </row>
     <row r="61" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="11"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
@@ -9666,9 +10124,12 @@
       <c r="P61">
         <v>0.38140000000000002</v>
       </c>
+      <c r="Q61">
+        <v>0.43590000000000001</v>
+      </c>
     </row>
     <row r="62" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="11"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
@@ -9702,11 +10163,13 @@
       <c r="P62" s="5">
         <v>0.64221700000000004</v>
       </c>
-      <c r="Q62" s="5"/>
+      <c r="Q62" s="5">
+        <v>0.86668900000000004</v>
+      </c>
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="11"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -9740,11 +10203,13 @@
       <c r="P63" s="5">
         <v>0.81682299999999997</v>
       </c>
-      <c r="Q63" s="5"/>
+      <c r="Q63" s="5">
+        <v>0.93352599999999997</v>
+      </c>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="11"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="4" t="s">
         <v>17</v>
       </c>
@@ -9778,9 +10243,12 @@
       <c r="P64">
         <v>0.66500000000000004</v>
       </c>
+      <c r="Q64">
+        <v>0.51200000000000001</v>
+      </c>
     </row>
     <row r="65" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="11"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
@@ -9814,9 +10282,12 @@
       <c r="P65">
         <v>0.65500000000000003</v>
       </c>
+      <c r="Q65">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="66" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="11"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="4" t="s">
         <v>19</v>
       </c>
@@ -9850,9 +10321,12 @@
       <c r="P66">
         <v>0.65600000000000003</v>
       </c>
+      <c r="Q66">
+        <v>0.51200000000000001</v>
+      </c>
     </row>
     <row r="67" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="11"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
@@ -9886,9 +10360,12 @@
       <c r="P67">
         <v>0.81899999999999995</v>
       </c>
+      <c r="Q67">
+        <v>0.71299999999999997</v>
+      </c>
     </row>
     <row r="68" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="10">
+      <c r="E68" s="11">
         <v>2011</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -9924,9 +10401,12 @@
       <c r="P68">
         <v>29.52</v>
       </c>
+      <c r="Q68">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="69" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="11"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
         <v>12</v>
       </c>
@@ -9960,9 +10440,12 @@
       <c r="P69">
         <v>0.45910000000000001</v>
       </c>
+      <c r="Q69">
+        <v>0.26050000000000001</v>
+      </c>
     </row>
     <row r="70" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="11"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="4" t="s">
         <v>13</v>
       </c>
@@ -9996,9 +10479,12 @@
       <c r="P70">
         <v>0.2772</v>
       </c>
+      <c r="Q70">
+        <v>0.378</v>
+      </c>
     </row>
     <row r="71" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="11"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="4" t="s">
         <v>14</v>
       </c>
@@ -10032,9 +10518,12 @@
       <c r="P71">
         <v>0.3805</v>
       </c>
+      <c r="Q71">
+        <v>0.43559999999999999</v>
+      </c>
     </row>
     <row r="72" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="11"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
@@ -10068,11 +10557,13 @@
       <c r="P72" s="5">
         <v>0.63360000000000005</v>
       </c>
-      <c r="Q72" s="5"/>
+      <c r="Q72" s="5">
+        <v>0.86414599999999997</v>
+      </c>
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="11"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
@@ -10106,11 +10597,13 @@
       <c r="P73" s="5">
         <v>0.81350999999999996</v>
       </c>
-      <c r="Q73" s="5"/>
+      <c r="Q73" s="5">
+        <v>0.931427</v>
+      </c>
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="11"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="4" t="s">
         <v>17</v>
       </c>
@@ -10144,9 +10637,12 @@
       <c r="P74">
         <v>0.66600000000000004</v>
       </c>
+      <c r="Q74">
+        <v>0.51500000000000001</v>
+      </c>
     </row>
     <row r="75" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="11"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
@@ -10180,9 +10676,12 @@
       <c r="P75">
         <v>0.64800000000000002</v>
       </c>
+      <c r="Q75">
+        <v>0.51900000000000002</v>
+      </c>
     </row>
     <row r="76" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="11"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="4" t="s">
         <v>19</v>
       </c>
@@ -10216,9 +10715,12 @@
       <c r="P76">
         <v>0.64800000000000002</v>
       </c>
+      <c r="Q76">
+        <v>0.51500000000000001</v>
+      </c>
     </row>
     <row r="77" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="11"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
@@ -10252,9 +10754,12 @@
       <c r="P77">
         <v>0.81200000000000006</v>
       </c>
+      <c r="Q77">
+        <v>0.71499999999999997</v>
+      </c>
     </row>
     <row r="78" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="10">
+      <c r="E78" s="11">
         <v>2012</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -10290,9 +10795,12 @@
       <c r="P78">
         <v>28.94</v>
       </c>
+      <c r="Q78">
+        <v>9.7899999999999991</v>
+      </c>
     </row>
     <row r="79" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="11"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
         <v>12</v>
       </c>
@@ -10326,9 +10834,12 @@
       <c r="P79">
         <v>0.44440000000000002</v>
       </c>
+      <c r="Q79">
+        <v>0.2485</v>
+      </c>
     </row>
     <row r="80" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="11"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="4" t="s">
         <v>13</v>
       </c>
@@ -10362,9 +10873,12 @@
       <c r="P80">
         <v>0.28539999999999999</v>
       </c>
+      <c r="Q80">
+        <v>0.38030000000000003</v>
+      </c>
     </row>
     <row r="81" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="11"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="4" t="s">
         <v>14</v>
       </c>
@@ -10398,9 +10912,12 @@
       <c r="P81">
         <v>0.38340000000000002</v>
       </c>
+      <c r="Q81">
+        <v>0.43690000000000001</v>
+      </c>
     </row>
     <row r="82" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="11"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="4" t="s">
         <v>15</v>
       </c>
@@ -10434,11 +10951,13 @@
       <c r="P82" s="5">
         <v>0.65600400000000003</v>
       </c>
-      <c r="Q82" s="5"/>
+      <c r="Q82" s="5">
+        <v>0.87405100000000002</v>
+      </c>
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="11"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
@@ -10472,11 +10991,13 @@
       <c r="P83" s="5">
         <v>0.82198099999999996</v>
       </c>
-      <c r="Q83" s="5"/>
+      <c r="Q83" s="5">
+        <v>0.93675299999999995</v>
+      </c>
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="11"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="4" t="s">
         <v>17</v>
       </c>
@@ -10510,9 +11031,12 @@
       <c r="P84">
         <v>0.65200000000000002</v>
       </c>
+      <c r="Q84">
+        <v>0.51300000000000001</v>
+      </c>
     </row>
     <row r="85" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="11"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
@@ -10546,9 +11070,12 @@
       <c r="P85">
         <v>0.64100000000000001</v>
       </c>
+      <c r="Q85">
+        <v>0.51700000000000002</v>
+      </c>
     </row>
     <row r="86" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="11"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="4" t="s">
         <v>19</v>
       </c>
@@ -10582,9 +11109,12 @@
       <c r="P86">
         <v>0.64300000000000002</v>
       </c>
+      <c r="Q86">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="87" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="11"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="4" t="s">
         <v>20</v>
       </c>
@@ -10618,9 +11148,12 @@
       <c r="P87">
         <v>0.81</v>
       </c>
+      <c r="Q87">
+        <v>0.70599999999999996</v>
+      </c>
     </row>
     <row r="88" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="10">
+      <c r="E88" s="11">
         <v>2013</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -10656,9 +11189,12 @@
       <c r="P88">
         <v>28.01</v>
       </c>
+      <c r="Q88">
+        <v>5.32</v>
+      </c>
     </row>
     <row r="89" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="11"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="4" t="s">
         <v>12</v>
       </c>
@@ -10692,9 +11228,12 @@
       <c r="P89">
         <v>0.45190000000000002</v>
       </c>
+      <c r="Q89">
+        <v>0.25090000000000001</v>
+      </c>
     </row>
     <row r="90" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="11"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
@@ -10728,9 +11267,12 @@
       <c r="P90">
         <v>0.2792</v>
       </c>
+      <c r="Q90">
+        <v>0.38100000000000001</v>
+      </c>
     </row>
     <row r="91" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="11"/>
+      <c r="E91" s="12"/>
       <c r="F91" s="4" t="s">
         <v>14</v>
       </c>
@@ -10764,9 +11306,12 @@
       <c r="P91">
         <v>0.38</v>
       </c>
+      <c r="Q91">
+        <v>0.437</v>
+      </c>
     </row>
     <row r="92" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="11"/>
+      <c r="E92" s="12"/>
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
@@ -10800,11 +11345,13 @@
       <c r="P92" s="5">
         <v>0.63980700000000001</v>
       </c>
-      <c r="Q92" s="5"/>
+      <c r="Q92" s="5">
+        <v>0.87299099999999996</v>
+      </c>
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="11"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
@@ -10838,11 +11385,13 @@
       <c r="P93" s="5">
         <v>0.81355200000000005</v>
       </c>
-      <c r="Q93" s="5"/>
+      <c r="Q93" s="5">
+        <v>0.93539000000000005</v>
+      </c>
       <c r="R93" s="5"/>
     </row>
     <row r="94" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="11"/>
+      <c r="E94" s="12"/>
       <c r="F94" s="4" t="s">
         <v>17</v>
       </c>
@@ -10876,9 +11425,12 @@
       <c r="P94">
         <v>0.67200000000000004</v>
       </c>
+      <c r="Q94">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="95" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="11"/>
+      <c r="E95" s="12"/>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
@@ -10912,9 +11464,12 @@
       <c r="P95">
         <v>0.64600000000000002</v>
       </c>
+      <c r="Q95">
+        <v>0.51400000000000001</v>
+      </c>
     </row>
     <row r="96" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="11"/>
+      <c r="E96" s="12"/>
       <c r="F96" s="4" t="s">
         <v>19</v>
       </c>
@@ -10948,9 +11503,12 @@
       <c r="P96">
         <v>0.64500000000000002</v>
       </c>
+      <c r="Q96">
+        <v>0.50900000000000001</v>
+      </c>
     </row>
     <row r="97" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="11"/>
+      <c r="E97" s="12"/>
       <c r="F97" s="4" t="s">
         <v>20</v>
       </c>
@@ -10984,9 +11542,12 @@
       <c r="P97">
         <v>0.81299999999999994</v>
       </c>
+      <c r="Q97">
+        <v>0.70899999999999996</v>
+      </c>
     </row>
     <row r="98" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="10">
+      <c r="E98" s="11">
         <v>2014</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -11022,9 +11583,12 @@
       <c r="P98">
         <v>27.91</v>
       </c>
+      <c r="Q98">
+        <v>11.43</v>
+      </c>
     </row>
     <row r="99" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="11"/>
+      <c r="E99" s="12"/>
       <c r="F99" s="4" t="s">
         <v>12</v>
       </c>
@@ -11058,9 +11622,12 @@
       <c r="P99">
         <v>0.4672</v>
       </c>
+      <c r="Q99">
+        <v>0.22720000000000001</v>
+      </c>
     </row>
     <row r="100" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="11"/>
+      <c r="E100" s="12"/>
       <c r="F100" s="4" t="s">
         <v>13</v>
       </c>
@@ -11094,9 +11661,12 @@
       <c r="P100">
         <v>0.27629999999999999</v>
       </c>
+      <c r="Q100">
+        <v>0.3861</v>
+      </c>
     </row>
     <row r="101" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="11"/>
+      <c r="E101" s="12"/>
       <c r="F101" s="4" t="s">
         <v>14</v>
       </c>
@@ -11130,9 +11700,12 @@
       <c r="P101">
         <v>0.37809999999999999</v>
       </c>
+      <c r="Q101">
+        <v>0.43919999999999998</v>
+      </c>
     </row>
     <row r="102" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="11"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
@@ -11166,11 +11739,13 @@
       <c r="P102" s="5">
         <v>0.63429599999999997</v>
       </c>
-      <c r="Q102" s="5"/>
+      <c r="Q102" s="5">
+        <v>0.88610199999999995</v>
+      </c>
       <c r="R102" s="5"/>
     </row>
     <row r="103" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="11"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
@@ -11204,11 +11779,13 @@
       <c r="P103" s="5">
         <v>0.81007700000000005</v>
       </c>
-      <c r="Q103" s="5"/>
+      <c r="Q103" s="5">
+        <v>0.94107600000000002</v>
+      </c>
       <c r="R103" s="5"/>
     </row>
     <row r="104" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="11"/>
+      <c r="E104" s="12"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
@@ -11242,9 +11819,12 @@
       <c r="P104">
         <v>0.67400000000000004</v>
       </c>
+      <c r="Q104">
+        <v>0.497</v>
+      </c>
     </row>
     <row r="105" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="11"/>
+      <c r="E105" s="12"/>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
@@ -11278,9 +11858,12 @@
       <c r="P105">
         <v>0.65500000000000003</v>
       </c>
+      <c r="Q105">
+        <v>0.501</v>
+      </c>
     </row>
     <row r="106" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="11"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="4" t="s">
         <v>19</v>
       </c>
@@ -11314,9 +11897,12 @@
       <c r="P106">
         <v>0.65200000000000002</v>
       </c>
+      <c r="Q106">
+        <v>0.496</v>
+      </c>
     </row>
     <row r="107" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="11"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
@@ -11350,9 +11936,12 @@
       <c r="P107">
         <v>0.81599999999999995</v>
       </c>
+      <c r="Q107">
+        <v>0.69699999999999995</v>
+      </c>
     </row>
     <row r="108" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="10">
+      <c r="E108" s="11">
         <v>2015</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -11388,9 +11977,12 @@
       <c r="P108">
         <v>27.18</v>
       </c>
+      <c r="Q108">
+        <v>4.13</v>
+      </c>
     </row>
     <row r="109" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="11"/>
+      <c r="E109" s="12"/>
       <c r="F109" s="4" t="s">
         <v>12</v>
       </c>
@@ -11424,9 +12016,12 @@
       <c r="P109">
         <v>0.44350000000000001</v>
       </c>
+      <c r="Q109">
+        <v>0.2351</v>
+      </c>
     </row>
     <row r="110" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="11"/>
+      <c r="E110" s="12"/>
       <c r="F110" s="4" t="s">
         <v>13</v>
       </c>
@@ -11460,9 +12055,12 @@
       <c r="P110">
         <v>0.27689999999999998</v>
       </c>
+      <c r="Q110">
+        <v>0.38490000000000002</v>
+      </c>
     </row>
     <row r="111" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="11"/>
+      <c r="E111" s="12"/>
       <c r="F111" s="4" t="s">
         <v>14</v>
       </c>
@@ -11496,9 +12094,12 @@
       <c r="P111">
         <v>0.38159999999999999</v>
       </c>
+      <c r="Q111">
+        <v>0.43930000000000002</v>
+      </c>
     </row>
     <row r="112" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="11"/>
+      <c r="E112" s="12"/>
       <c r="F112" s="4" t="s">
         <v>15</v>
       </c>
@@ -11532,11 +12133,13 @@
       <c r="P112" s="5">
         <v>0.63501399999999997</v>
       </c>
-      <c r="Q112" s="5"/>
+      <c r="Q112" s="5">
+        <v>0.88263800000000003</v>
+      </c>
       <c r="R112" s="5"/>
     </row>
     <row r="113" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="11"/>
+      <c r="E113" s="12"/>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -11570,11 +12173,13 @@
       <c r="P113" s="5">
         <v>0.81720999999999999</v>
       </c>
-      <c r="Q113" s="5"/>
+      <c r="Q113" s="5">
+        <v>0.94088700000000003</v>
+      </c>
       <c r="R113" s="5"/>
     </row>
     <row r="114" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="11"/>
+      <c r="E114" s="12"/>
       <c r="F114" s="4" t="s">
         <v>17</v>
       </c>
@@ -11608,9 +12213,12 @@
       <c r="P114">
         <v>0.66</v>
       </c>
+      <c r="Q114">
+        <v>0.502</v>
+      </c>
     </row>
     <row r="115" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="11"/>
+      <c r="E115" s="12"/>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
@@ -11644,9 +12252,12 @@
       <c r="P115">
         <v>0.64</v>
       </c>
+      <c r="Q115">
+        <v>0.50600000000000001</v>
+      </c>
     </row>
     <row r="116" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="11"/>
+      <c r="E116" s="12"/>
       <c r="F116" s="4" t="s">
         <v>19</v>
       </c>
@@ -11680,9 +12291,12 @@
       <c r="P116">
         <v>0.64500000000000002</v>
       </c>
+      <c r="Q116">
+        <v>0.501</v>
+      </c>
     </row>
     <row r="117" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="11"/>
+      <c r="E117" s="12"/>
       <c r="F117" s="4" t="s">
         <v>20</v>
       </c>
@@ -11716,9 +12330,12 @@
       <c r="P117">
         <v>0.80900000000000005</v>
       </c>
+      <c r="Q117">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="118" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -11764,13 +12381,13 @@
         <f t="shared" si="0"/>
         <v>32.615454545454554</v>
       </c>
-      <c r="Q118" s="4" t="e">
+      <c r="Q118" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>7.3236363636363642</v>
       </c>
     </row>
     <row r="119" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="11"/>
+      <c r="E119" s="12"/>
       <c r="F119" s="4" t="s">
         <v>12</v>
       </c>
@@ -11814,13 +12431,13 @@
         <f t="shared" si="1"/>
         <v>0.47401818181818184</v>
       </c>
-      <c r="Q119" s="4" t="e">
+      <c r="Q119" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.26300909090909097</v>
       </c>
     </row>
     <row r="120" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="11"/>
+      <c r="E120" s="12"/>
       <c r="F120" s="4" t="s">
         <v>13</v>
       </c>
@@ -11864,13 +12481,13 @@
         <f t="shared" si="2"/>
         <v>0.27513636363636362</v>
       </c>
-      <c r="Q120" s="4" t="e">
+      <c r="Q120" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.37979090909090907</v>
       </c>
     </row>
     <row r="121" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="11"/>
+      <c r="E121" s="12"/>
       <c r="F121" s="4" t="s">
         <v>14</v>
       </c>
@@ -11914,13 +12531,13 @@
         <f t="shared" si="3"/>
         <v>0.37771818181818179</v>
       </c>
-      <c r="Q121" s="4" t="e">
+      <c r="Q121" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.43632727272727273</v>
       </c>
     </row>
     <row r="122" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="11"/>
+      <c r="E122" s="12"/>
       <c r="F122" s="4" t="s">
         <v>15</v>
       </c>
@@ -11964,13 +12581,13 @@
         <f t="shared" si="4"/>
         <v>0.62705336363636366</v>
       </c>
-      <c r="Q122" s="5" t="e">
+      <c r="Q122" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.86547136363636357</v>
       </c>
     </row>
     <row r="123" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="11"/>
+      <c r="E123" s="12"/>
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
@@ -12014,13 +12631,13 @@
         <f t="shared" si="5"/>
         <v>0.80636581818181807</v>
       </c>
-      <c r="Q123" s="5" t="e">
+      <c r="Q123" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.93148409090909101</v>
       </c>
     </row>
     <row r="124" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="11"/>
+      <c r="E124" s="12"/>
       <c r="F124" s="4" t="s">
         <v>17</v>
       </c>
@@ -12064,13 +12681,13 @@
         <f t="shared" si="6"/>
         <v>0.6733636363636365</v>
       </c>
-      <c r="Q124" s="4" t="e">
+      <c r="Q124" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.51390909090909087</v>
       </c>
     </row>
     <row r="125" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="11"/>
+      <c r="E125" s="12"/>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
@@ -12114,13 +12731,13 @@
         <f t="shared" si="7"/>
         <v>0.65699999999999992</v>
       </c>
-      <c r="Q125" s="4" t="e">
+      <c r="Q125" s="4">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5191818181818183</v>
       </c>
     </row>
     <row r="126" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="11"/>
+      <c r="E126" s="12"/>
       <c r="F126" s="4" t="s">
         <v>19</v>
       </c>
@@ -12164,13 +12781,13 @@
         <f t="shared" si="8"/>
         <v>0.65563636363636379</v>
       </c>
-      <c r="Q126" s="4" t="e">
+      <c r="Q126" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.51318181818181818</v>
       </c>
     </row>
     <row r="127" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="11"/>
+      <c r="E127" s="12"/>
       <c r="F127" s="4" t="s">
         <v>20</v>
       </c>
@@ -12214,9 +12831,9 @@
         <f t="shared" si="9"/>
         <v>0.8240909090909091</v>
       </c>
-      <c r="Q127" s="4" t="e">
+      <c r="Q127" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.71345454545454534</v>
       </c>
     </row>
     <row r="128" spans="5:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14840,11 +15457,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E97"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="E108:E117"/>
-    <mergeCell ref="E118:E127"/>
     <mergeCell ref="E58:E67"/>
     <mergeCell ref="E68:E77"/>
     <mergeCell ref="E8:E17"/>
@@ -14852,6 +15464,11 @@
     <mergeCell ref="E28:E37"/>
     <mergeCell ref="E38:E47"/>
     <mergeCell ref="E48:E57"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E88:E97"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="E108:E117"/>
+    <mergeCell ref="E118:E127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
+++ b/9   Linear Regression  Stepwise/9 Performance Evaluators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Our Algo" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D109" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S114" sqref="S114"/>
     </sheetView>
   </sheetViews>
@@ -7912,6 +7912,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E88:E97"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="E108:E117"/>
+    <mergeCell ref="E118:E127"/>
     <mergeCell ref="E58:E67"/>
     <mergeCell ref="E68:E77"/>
     <mergeCell ref="E8:E17"/>
@@ -7919,11 +7924,6 @@
     <mergeCell ref="E28:E37"/>
     <mergeCell ref="E38:E47"/>
     <mergeCell ref="E48:E57"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E97"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="E108:E117"/>
-    <mergeCell ref="E118:E127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -7934,7 +7934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
@@ -15457,6 +15457,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E88:E97"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="E108:E117"/>
+    <mergeCell ref="E118:E127"/>
     <mergeCell ref="E58:E67"/>
     <mergeCell ref="E68:E77"/>
     <mergeCell ref="E8:E17"/>
@@ -15464,11 +15469,6 @@
     <mergeCell ref="E28:E37"/>
     <mergeCell ref="E38:E47"/>
     <mergeCell ref="E48:E57"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E97"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="E108:E117"/>
-    <mergeCell ref="E118:E127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
